--- a/test_case_data/bmc/bmc_prize20210531.xlsx
+++ b/test_case_data/bmc/bmc_prize20210531.xlsx
@@ -497,7 +497,7 @@
     <t>/deliveryVehicle/checkVehicle</t>
   </si>
   <si>
-    <t>{"plateNumAreaType":"1","passcardType":"1","plateNum":"%E8%B4%B5A56TFV","vehicleIdentifyNum":"578657"}</t>
+    <t>{"bCityCode":520100,"bNetTag":"trf_mgt","plateNumAreaType":"1","passcardType":"1","plateNum":"贵A56TFV","vehicleIdentifyNum":"578657"}</t>
   </si>
   <si>
     <t>请求成功，返回错误信息</t>
@@ -610,10 +610,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -628,13 +628,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -669,16 +662,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,14 +692,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,8 +761,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,62 +786,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,9 +799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,7 +827,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,37 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,19 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,13 +899,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,67 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,39 +1018,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,6 +1051,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1101,19 +1080,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,10 +1124,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,32 +1136,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,101 +1173,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1271,6 +1272,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,58 +1287,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1658,728 +1665,728 @@
   <sheetPr/>
   <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.8833333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="55.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15" style="5" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="53.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="72.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="49.125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="31.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9" style="5"/>
-    <col min="18" max="18" width="28.125" style="5" customWidth="1"/>
-    <col min="19" max="259" width="9" style="5"/>
-    <col min="260" max="260" width="10.125" style="5" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="5" customWidth="1"/>
-    <col min="262" max="262" width="25" style="5" customWidth="1"/>
-    <col min="263" max="263" width="17.75" style="5" customWidth="1"/>
-    <col min="264" max="264" width="48.25" style="5" customWidth="1"/>
-    <col min="265" max="265" width="10.25" style="5" customWidth="1"/>
-    <col min="266" max="266" width="25.5" style="5" customWidth="1"/>
-    <col min="267" max="267" width="53.125" style="5" customWidth="1"/>
-    <col min="268" max="268" width="22.75" style="5" customWidth="1"/>
-    <col min="269" max="269" width="72.125" style="5" customWidth="1"/>
-    <col min="270" max="515" width="9" style="5"/>
-    <col min="516" max="516" width="10.125" style="5" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="5" customWidth="1"/>
-    <col min="518" max="518" width="25" style="5" customWidth="1"/>
-    <col min="519" max="519" width="17.75" style="5" customWidth="1"/>
-    <col min="520" max="520" width="48.25" style="5" customWidth="1"/>
-    <col min="521" max="521" width="10.25" style="5" customWidth="1"/>
-    <col min="522" max="522" width="25.5" style="5" customWidth="1"/>
-    <col min="523" max="523" width="53.125" style="5" customWidth="1"/>
-    <col min="524" max="524" width="22.75" style="5" customWidth="1"/>
-    <col min="525" max="525" width="72.125" style="5" customWidth="1"/>
-    <col min="526" max="771" width="9" style="5"/>
-    <col min="772" max="772" width="10.125" style="5" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="5" customWidth="1"/>
-    <col min="774" max="774" width="25" style="5" customWidth="1"/>
-    <col min="775" max="775" width="17.75" style="5" customWidth="1"/>
-    <col min="776" max="776" width="48.25" style="5" customWidth="1"/>
-    <col min="777" max="777" width="10.25" style="5" customWidth="1"/>
-    <col min="778" max="778" width="25.5" style="5" customWidth="1"/>
-    <col min="779" max="779" width="53.125" style="5" customWidth="1"/>
-    <col min="780" max="780" width="22.75" style="5" customWidth="1"/>
-    <col min="781" max="781" width="72.125" style="5" customWidth="1"/>
-    <col min="782" max="1027" width="9" style="5"/>
-    <col min="1028" max="1028" width="10.125" style="5" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="5" customWidth="1"/>
-    <col min="1030" max="1030" width="25" style="5" customWidth="1"/>
-    <col min="1031" max="1031" width="17.75" style="5" customWidth="1"/>
-    <col min="1032" max="1032" width="48.25" style="5" customWidth="1"/>
-    <col min="1033" max="1033" width="10.25" style="5" customWidth="1"/>
-    <col min="1034" max="1034" width="25.5" style="5" customWidth="1"/>
-    <col min="1035" max="1035" width="53.125" style="5" customWidth="1"/>
-    <col min="1036" max="1036" width="22.75" style="5" customWidth="1"/>
-    <col min="1037" max="1037" width="72.125" style="5" customWidth="1"/>
-    <col min="1038" max="1283" width="9" style="5"/>
-    <col min="1284" max="1284" width="10.125" style="5" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="5" customWidth="1"/>
-    <col min="1286" max="1286" width="25" style="5" customWidth="1"/>
-    <col min="1287" max="1287" width="17.75" style="5" customWidth="1"/>
-    <col min="1288" max="1288" width="48.25" style="5" customWidth="1"/>
-    <col min="1289" max="1289" width="10.25" style="5" customWidth="1"/>
-    <col min="1290" max="1290" width="25.5" style="5" customWidth="1"/>
-    <col min="1291" max="1291" width="53.125" style="5" customWidth="1"/>
-    <col min="1292" max="1292" width="22.75" style="5" customWidth="1"/>
-    <col min="1293" max="1293" width="72.125" style="5" customWidth="1"/>
-    <col min="1294" max="1539" width="9" style="5"/>
-    <col min="1540" max="1540" width="10.125" style="5" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="5" customWidth="1"/>
-    <col min="1542" max="1542" width="25" style="5" customWidth="1"/>
-    <col min="1543" max="1543" width="17.75" style="5" customWidth="1"/>
-    <col min="1544" max="1544" width="48.25" style="5" customWidth="1"/>
-    <col min="1545" max="1545" width="10.25" style="5" customWidth="1"/>
-    <col min="1546" max="1546" width="25.5" style="5" customWidth="1"/>
-    <col min="1547" max="1547" width="53.125" style="5" customWidth="1"/>
-    <col min="1548" max="1548" width="22.75" style="5" customWidth="1"/>
-    <col min="1549" max="1549" width="72.125" style="5" customWidth="1"/>
-    <col min="1550" max="1795" width="9" style="5"/>
-    <col min="1796" max="1796" width="10.125" style="5" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="5" customWidth="1"/>
-    <col min="1798" max="1798" width="25" style="5" customWidth="1"/>
-    <col min="1799" max="1799" width="17.75" style="5" customWidth="1"/>
-    <col min="1800" max="1800" width="48.25" style="5" customWidth="1"/>
-    <col min="1801" max="1801" width="10.25" style="5" customWidth="1"/>
-    <col min="1802" max="1802" width="25.5" style="5" customWidth="1"/>
-    <col min="1803" max="1803" width="53.125" style="5" customWidth="1"/>
-    <col min="1804" max="1804" width="22.75" style="5" customWidth="1"/>
-    <col min="1805" max="1805" width="72.125" style="5" customWidth="1"/>
-    <col min="1806" max="2051" width="9" style="5"/>
-    <col min="2052" max="2052" width="10.125" style="5" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="5" customWidth="1"/>
-    <col min="2054" max="2054" width="25" style="5" customWidth="1"/>
-    <col min="2055" max="2055" width="17.75" style="5" customWidth="1"/>
-    <col min="2056" max="2056" width="48.25" style="5" customWidth="1"/>
-    <col min="2057" max="2057" width="10.25" style="5" customWidth="1"/>
-    <col min="2058" max="2058" width="25.5" style="5" customWidth="1"/>
-    <col min="2059" max="2059" width="53.125" style="5" customWidth="1"/>
-    <col min="2060" max="2060" width="22.75" style="5" customWidth="1"/>
-    <col min="2061" max="2061" width="72.125" style="5" customWidth="1"/>
-    <col min="2062" max="2307" width="9" style="5"/>
-    <col min="2308" max="2308" width="10.125" style="5" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="5" customWidth="1"/>
-    <col min="2310" max="2310" width="25" style="5" customWidth="1"/>
-    <col min="2311" max="2311" width="17.75" style="5" customWidth="1"/>
-    <col min="2312" max="2312" width="48.25" style="5" customWidth="1"/>
-    <col min="2313" max="2313" width="10.25" style="5" customWidth="1"/>
-    <col min="2314" max="2314" width="25.5" style="5" customWidth="1"/>
-    <col min="2315" max="2315" width="53.125" style="5" customWidth="1"/>
-    <col min="2316" max="2316" width="22.75" style="5" customWidth="1"/>
-    <col min="2317" max="2317" width="72.125" style="5" customWidth="1"/>
-    <col min="2318" max="2563" width="9" style="5"/>
-    <col min="2564" max="2564" width="10.125" style="5" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="5" customWidth="1"/>
-    <col min="2566" max="2566" width="25" style="5" customWidth="1"/>
-    <col min="2567" max="2567" width="17.75" style="5" customWidth="1"/>
-    <col min="2568" max="2568" width="48.25" style="5" customWidth="1"/>
-    <col min="2569" max="2569" width="10.25" style="5" customWidth="1"/>
-    <col min="2570" max="2570" width="25.5" style="5" customWidth="1"/>
-    <col min="2571" max="2571" width="53.125" style="5" customWidth="1"/>
-    <col min="2572" max="2572" width="22.75" style="5" customWidth="1"/>
-    <col min="2573" max="2573" width="72.125" style="5" customWidth="1"/>
-    <col min="2574" max="2819" width="9" style="5"/>
-    <col min="2820" max="2820" width="10.125" style="5" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="5" customWidth="1"/>
-    <col min="2822" max="2822" width="25" style="5" customWidth="1"/>
-    <col min="2823" max="2823" width="17.75" style="5" customWidth="1"/>
-    <col min="2824" max="2824" width="48.25" style="5" customWidth="1"/>
-    <col min="2825" max="2825" width="10.25" style="5" customWidth="1"/>
-    <col min="2826" max="2826" width="25.5" style="5" customWidth="1"/>
-    <col min="2827" max="2827" width="53.125" style="5" customWidth="1"/>
-    <col min="2828" max="2828" width="22.75" style="5" customWidth="1"/>
-    <col min="2829" max="2829" width="72.125" style="5" customWidth="1"/>
-    <col min="2830" max="3075" width="9" style="5"/>
-    <col min="3076" max="3076" width="10.125" style="5" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="5" customWidth="1"/>
-    <col min="3078" max="3078" width="25" style="5" customWidth="1"/>
-    <col min="3079" max="3079" width="17.75" style="5" customWidth="1"/>
-    <col min="3080" max="3080" width="48.25" style="5" customWidth="1"/>
-    <col min="3081" max="3081" width="10.25" style="5" customWidth="1"/>
-    <col min="3082" max="3082" width="25.5" style="5" customWidth="1"/>
-    <col min="3083" max="3083" width="53.125" style="5" customWidth="1"/>
-    <col min="3084" max="3084" width="22.75" style="5" customWidth="1"/>
-    <col min="3085" max="3085" width="72.125" style="5" customWidth="1"/>
-    <col min="3086" max="3331" width="9" style="5"/>
-    <col min="3332" max="3332" width="10.125" style="5" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="5" customWidth="1"/>
-    <col min="3334" max="3334" width="25" style="5" customWidth="1"/>
-    <col min="3335" max="3335" width="17.75" style="5" customWidth="1"/>
-    <col min="3336" max="3336" width="48.25" style="5" customWidth="1"/>
-    <col min="3337" max="3337" width="10.25" style="5" customWidth="1"/>
-    <col min="3338" max="3338" width="25.5" style="5" customWidth="1"/>
-    <col min="3339" max="3339" width="53.125" style="5" customWidth="1"/>
-    <col min="3340" max="3340" width="22.75" style="5" customWidth="1"/>
-    <col min="3341" max="3341" width="72.125" style="5" customWidth="1"/>
-    <col min="3342" max="3587" width="9" style="5"/>
-    <col min="3588" max="3588" width="10.125" style="5" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="5" customWidth="1"/>
-    <col min="3590" max="3590" width="25" style="5" customWidth="1"/>
-    <col min="3591" max="3591" width="17.75" style="5" customWidth="1"/>
-    <col min="3592" max="3592" width="48.25" style="5" customWidth="1"/>
-    <col min="3593" max="3593" width="10.25" style="5" customWidth="1"/>
-    <col min="3594" max="3594" width="25.5" style="5" customWidth="1"/>
-    <col min="3595" max="3595" width="53.125" style="5" customWidth="1"/>
-    <col min="3596" max="3596" width="22.75" style="5" customWidth="1"/>
-    <col min="3597" max="3597" width="72.125" style="5" customWidth="1"/>
-    <col min="3598" max="3843" width="9" style="5"/>
-    <col min="3844" max="3844" width="10.125" style="5" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="5" customWidth="1"/>
-    <col min="3846" max="3846" width="25" style="5" customWidth="1"/>
-    <col min="3847" max="3847" width="17.75" style="5" customWidth="1"/>
-    <col min="3848" max="3848" width="48.25" style="5" customWidth="1"/>
-    <col min="3849" max="3849" width="10.25" style="5" customWidth="1"/>
-    <col min="3850" max="3850" width="25.5" style="5" customWidth="1"/>
-    <col min="3851" max="3851" width="53.125" style="5" customWidth="1"/>
-    <col min="3852" max="3852" width="22.75" style="5" customWidth="1"/>
-    <col min="3853" max="3853" width="72.125" style="5" customWidth="1"/>
-    <col min="3854" max="4099" width="9" style="5"/>
-    <col min="4100" max="4100" width="10.125" style="5" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="5" customWidth="1"/>
-    <col min="4102" max="4102" width="25" style="5" customWidth="1"/>
-    <col min="4103" max="4103" width="17.75" style="5" customWidth="1"/>
-    <col min="4104" max="4104" width="48.25" style="5" customWidth="1"/>
-    <col min="4105" max="4105" width="10.25" style="5" customWidth="1"/>
-    <col min="4106" max="4106" width="25.5" style="5" customWidth="1"/>
-    <col min="4107" max="4107" width="53.125" style="5" customWidth="1"/>
-    <col min="4108" max="4108" width="22.75" style="5" customWidth="1"/>
-    <col min="4109" max="4109" width="72.125" style="5" customWidth="1"/>
-    <col min="4110" max="4355" width="9" style="5"/>
-    <col min="4356" max="4356" width="10.125" style="5" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="5" customWidth="1"/>
-    <col min="4358" max="4358" width="25" style="5" customWidth="1"/>
-    <col min="4359" max="4359" width="17.75" style="5" customWidth="1"/>
-    <col min="4360" max="4360" width="48.25" style="5" customWidth="1"/>
-    <col min="4361" max="4361" width="10.25" style="5" customWidth="1"/>
-    <col min="4362" max="4362" width="25.5" style="5" customWidth="1"/>
-    <col min="4363" max="4363" width="53.125" style="5" customWidth="1"/>
-    <col min="4364" max="4364" width="22.75" style="5" customWidth="1"/>
-    <col min="4365" max="4365" width="72.125" style="5" customWidth="1"/>
-    <col min="4366" max="4611" width="9" style="5"/>
-    <col min="4612" max="4612" width="10.125" style="5" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="5" customWidth="1"/>
-    <col min="4614" max="4614" width="25" style="5" customWidth="1"/>
-    <col min="4615" max="4615" width="17.75" style="5" customWidth="1"/>
-    <col min="4616" max="4616" width="48.25" style="5" customWidth="1"/>
-    <col min="4617" max="4617" width="10.25" style="5" customWidth="1"/>
-    <col min="4618" max="4618" width="25.5" style="5" customWidth="1"/>
-    <col min="4619" max="4619" width="53.125" style="5" customWidth="1"/>
-    <col min="4620" max="4620" width="22.75" style="5" customWidth="1"/>
-    <col min="4621" max="4621" width="72.125" style="5" customWidth="1"/>
-    <col min="4622" max="4867" width="9" style="5"/>
-    <col min="4868" max="4868" width="10.125" style="5" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="5" customWidth="1"/>
-    <col min="4870" max="4870" width="25" style="5" customWidth="1"/>
-    <col min="4871" max="4871" width="17.75" style="5" customWidth="1"/>
-    <col min="4872" max="4872" width="48.25" style="5" customWidth="1"/>
-    <col min="4873" max="4873" width="10.25" style="5" customWidth="1"/>
-    <col min="4874" max="4874" width="25.5" style="5" customWidth="1"/>
-    <col min="4875" max="4875" width="53.125" style="5" customWidth="1"/>
-    <col min="4876" max="4876" width="22.75" style="5" customWidth="1"/>
-    <col min="4877" max="4877" width="72.125" style="5" customWidth="1"/>
-    <col min="4878" max="5123" width="9" style="5"/>
-    <col min="5124" max="5124" width="10.125" style="5" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="5" customWidth="1"/>
-    <col min="5126" max="5126" width="25" style="5" customWidth="1"/>
-    <col min="5127" max="5127" width="17.75" style="5" customWidth="1"/>
-    <col min="5128" max="5128" width="48.25" style="5" customWidth="1"/>
-    <col min="5129" max="5129" width="10.25" style="5" customWidth="1"/>
-    <col min="5130" max="5130" width="25.5" style="5" customWidth="1"/>
-    <col min="5131" max="5131" width="53.125" style="5" customWidth="1"/>
-    <col min="5132" max="5132" width="22.75" style="5" customWidth="1"/>
-    <col min="5133" max="5133" width="72.125" style="5" customWidth="1"/>
-    <col min="5134" max="5379" width="9" style="5"/>
-    <col min="5380" max="5380" width="10.125" style="5" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="5" customWidth="1"/>
-    <col min="5382" max="5382" width="25" style="5" customWidth="1"/>
-    <col min="5383" max="5383" width="17.75" style="5" customWidth="1"/>
-    <col min="5384" max="5384" width="48.25" style="5" customWidth="1"/>
-    <col min="5385" max="5385" width="10.25" style="5" customWidth="1"/>
-    <col min="5386" max="5386" width="25.5" style="5" customWidth="1"/>
-    <col min="5387" max="5387" width="53.125" style="5" customWidth="1"/>
-    <col min="5388" max="5388" width="22.75" style="5" customWidth="1"/>
-    <col min="5389" max="5389" width="72.125" style="5" customWidth="1"/>
-    <col min="5390" max="5635" width="9" style="5"/>
-    <col min="5636" max="5636" width="10.125" style="5" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="5" customWidth="1"/>
-    <col min="5638" max="5638" width="25" style="5" customWidth="1"/>
-    <col min="5639" max="5639" width="17.75" style="5" customWidth="1"/>
-    <col min="5640" max="5640" width="48.25" style="5" customWidth="1"/>
-    <col min="5641" max="5641" width="10.25" style="5" customWidth="1"/>
-    <col min="5642" max="5642" width="25.5" style="5" customWidth="1"/>
-    <col min="5643" max="5643" width="53.125" style="5" customWidth="1"/>
-    <col min="5644" max="5644" width="22.75" style="5" customWidth="1"/>
-    <col min="5645" max="5645" width="72.125" style="5" customWidth="1"/>
-    <col min="5646" max="5891" width="9" style="5"/>
-    <col min="5892" max="5892" width="10.125" style="5" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="5" customWidth="1"/>
-    <col min="5894" max="5894" width="25" style="5" customWidth="1"/>
-    <col min="5895" max="5895" width="17.75" style="5" customWidth="1"/>
-    <col min="5896" max="5896" width="48.25" style="5" customWidth="1"/>
-    <col min="5897" max="5897" width="10.25" style="5" customWidth="1"/>
-    <col min="5898" max="5898" width="25.5" style="5" customWidth="1"/>
-    <col min="5899" max="5899" width="53.125" style="5" customWidth="1"/>
-    <col min="5900" max="5900" width="22.75" style="5" customWidth="1"/>
-    <col min="5901" max="5901" width="72.125" style="5" customWidth="1"/>
-    <col min="5902" max="6147" width="9" style="5"/>
-    <col min="6148" max="6148" width="10.125" style="5" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="5" customWidth="1"/>
-    <col min="6150" max="6150" width="25" style="5" customWidth="1"/>
-    <col min="6151" max="6151" width="17.75" style="5" customWidth="1"/>
-    <col min="6152" max="6152" width="48.25" style="5" customWidth="1"/>
-    <col min="6153" max="6153" width="10.25" style="5" customWidth="1"/>
-    <col min="6154" max="6154" width="25.5" style="5" customWidth="1"/>
-    <col min="6155" max="6155" width="53.125" style="5" customWidth="1"/>
-    <col min="6156" max="6156" width="22.75" style="5" customWidth="1"/>
-    <col min="6157" max="6157" width="72.125" style="5" customWidth="1"/>
-    <col min="6158" max="6403" width="9" style="5"/>
-    <col min="6404" max="6404" width="10.125" style="5" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="5" customWidth="1"/>
-    <col min="6406" max="6406" width="25" style="5" customWidth="1"/>
-    <col min="6407" max="6407" width="17.75" style="5" customWidth="1"/>
-    <col min="6408" max="6408" width="48.25" style="5" customWidth="1"/>
-    <col min="6409" max="6409" width="10.25" style="5" customWidth="1"/>
-    <col min="6410" max="6410" width="25.5" style="5" customWidth="1"/>
-    <col min="6411" max="6411" width="53.125" style="5" customWidth="1"/>
-    <col min="6412" max="6412" width="22.75" style="5" customWidth="1"/>
-    <col min="6413" max="6413" width="72.125" style="5" customWidth="1"/>
-    <col min="6414" max="6659" width="9" style="5"/>
-    <col min="6660" max="6660" width="10.125" style="5" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="5" customWidth="1"/>
-    <col min="6662" max="6662" width="25" style="5" customWidth="1"/>
-    <col min="6663" max="6663" width="17.75" style="5" customWidth="1"/>
-    <col min="6664" max="6664" width="48.25" style="5" customWidth="1"/>
-    <col min="6665" max="6665" width="10.25" style="5" customWidth="1"/>
-    <col min="6666" max="6666" width="25.5" style="5" customWidth="1"/>
-    <col min="6667" max="6667" width="53.125" style="5" customWidth="1"/>
-    <col min="6668" max="6668" width="22.75" style="5" customWidth="1"/>
-    <col min="6669" max="6669" width="72.125" style="5" customWidth="1"/>
-    <col min="6670" max="6915" width="9" style="5"/>
-    <col min="6916" max="6916" width="10.125" style="5" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="5" customWidth="1"/>
-    <col min="6918" max="6918" width="25" style="5" customWidth="1"/>
-    <col min="6919" max="6919" width="17.75" style="5" customWidth="1"/>
-    <col min="6920" max="6920" width="48.25" style="5" customWidth="1"/>
-    <col min="6921" max="6921" width="10.25" style="5" customWidth="1"/>
-    <col min="6922" max="6922" width="25.5" style="5" customWidth="1"/>
-    <col min="6923" max="6923" width="53.125" style="5" customWidth="1"/>
-    <col min="6924" max="6924" width="22.75" style="5" customWidth="1"/>
-    <col min="6925" max="6925" width="72.125" style="5" customWidth="1"/>
-    <col min="6926" max="7171" width="9" style="5"/>
-    <col min="7172" max="7172" width="10.125" style="5" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="5" customWidth="1"/>
-    <col min="7174" max="7174" width="25" style="5" customWidth="1"/>
-    <col min="7175" max="7175" width="17.75" style="5" customWidth="1"/>
-    <col min="7176" max="7176" width="48.25" style="5" customWidth="1"/>
-    <col min="7177" max="7177" width="10.25" style="5" customWidth="1"/>
-    <col min="7178" max="7178" width="25.5" style="5" customWidth="1"/>
-    <col min="7179" max="7179" width="53.125" style="5" customWidth="1"/>
-    <col min="7180" max="7180" width="22.75" style="5" customWidth="1"/>
-    <col min="7181" max="7181" width="72.125" style="5" customWidth="1"/>
-    <col min="7182" max="7427" width="9" style="5"/>
-    <col min="7428" max="7428" width="10.125" style="5" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="5" customWidth="1"/>
-    <col min="7430" max="7430" width="25" style="5" customWidth="1"/>
-    <col min="7431" max="7431" width="17.75" style="5" customWidth="1"/>
-    <col min="7432" max="7432" width="48.25" style="5" customWidth="1"/>
-    <col min="7433" max="7433" width="10.25" style="5" customWidth="1"/>
-    <col min="7434" max="7434" width="25.5" style="5" customWidth="1"/>
-    <col min="7435" max="7435" width="53.125" style="5" customWidth="1"/>
-    <col min="7436" max="7436" width="22.75" style="5" customWidth="1"/>
-    <col min="7437" max="7437" width="72.125" style="5" customWidth="1"/>
-    <col min="7438" max="7683" width="9" style="5"/>
-    <col min="7684" max="7684" width="10.125" style="5" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="5" customWidth="1"/>
-    <col min="7686" max="7686" width="25" style="5" customWidth="1"/>
-    <col min="7687" max="7687" width="17.75" style="5" customWidth="1"/>
-    <col min="7688" max="7688" width="48.25" style="5" customWidth="1"/>
-    <col min="7689" max="7689" width="10.25" style="5" customWidth="1"/>
-    <col min="7690" max="7690" width="25.5" style="5" customWidth="1"/>
-    <col min="7691" max="7691" width="53.125" style="5" customWidth="1"/>
-    <col min="7692" max="7692" width="22.75" style="5" customWidth="1"/>
-    <col min="7693" max="7693" width="72.125" style="5" customWidth="1"/>
-    <col min="7694" max="7939" width="9" style="5"/>
-    <col min="7940" max="7940" width="10.125" style="5" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="5" customWidth="1"/>
-    <col min="7942" max="7942" width="25" style="5" customWidth="1"/>
-    <col min="7943" max="7943" width="17.75" style="5" customWidth="1"/>
-    <col min="7944" max="7944" width="48.25" style="5" customWidth="1"/>
-    <col min="7945" max="7945" width="10.25" style="5" customWidth="1"/>
-    <col min="7946" max="7946" width="25.5" style="5" customWidth="1"/>
-    <col min="7947" max="7947" width="53.125" style="5" customWidth="1"/>
-    <col min="7948" max="7948" width="22.75" style="5" customWidth="1"/>
-    <col min="7949" max="7949" width="72.125" style="5" customWidth="1"/>
-    <col min="7950" max="8195" width="9" style="5"/>
-    <col min="8196" max="8196" width="10.125" style="5" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="5" customWidth="1"/>
-    <col min="8198" max="8198" width="25" style="5" customWidth="1"/>
-    <col min="8199" max="8199" width="17.75" style="5" customWidth="1"/>
-    <col min="8200" max="8200" width="48.25" style="5" customWidth="1"/>
-    <col min="8201" max="8201" width="10.25" style="5" customWidth="1"/>
-    <col min="8202" max="8202" width="25.5" style="5" customWidth="1"/>
-    <col min="8203" max="8203" width="53.125" style="5" customWidth="1"/>
-    <col min="8204" max="8204" width="22.75" style="5" customWidth="1"/>
-    <col min="8205" max="8205" width="72.125" style="5" customWidth="1"/>
-    <col min="8206" max="8451" width="9" style="5"/>
-    <col min="8452" max="8452" width="10.125" style="5" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="5" customWidth="1"/>
-    <col min="8454" max="8454" width="25" style="5" customWidth="1"/>
-    <col min="8455" max="8455" width="17.75" style="5" customWidth="1"/>
-    <col min="8456" max="8456" width="48.25" style="5" customWidth="1"/>
-    <col min="8457" max="8457" width="10.25" style="5" customWidth="1"/>
-    <col min="8458" max="8458" width="25.5" style="5" customWidth="1"/>
-    <col min="8459" max="8459" width="53.125" style="5" customWidth="1"/>
-    <col min="8460" max="8460" width="22.75" style="5" customWidth="1"/>
-    <col min="8461" max="8461" width="72.125" style="5" customWidth="1"/>
-    <col min="8462" max="8707" width="9" style="5"/>
-    <col min="8708" max="8708" width="10.125" style="5" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="5" customWidth="1"/>
-    <col min="8710" max="8710" width="25" style="5" customWidth="1"/>
-    <col min="8711" max="8711" width="17.75" style="5" customWidth="1"/>
-    <col min="8712" max="8712" width="48.25" style="5" customWidth="1"/>
-    <col min="8713" max="8713" width="10.25" style="5" customWidth="1"/>
-    <col min="8714" max="8714" width="25.5" style="5" customWidth="1"/>
-    <col min="8715" max="8715" width="53.125" style="5" customWidth="1"/>
-    <col min="8716" max="8716" width="22.75" style="5" customWidth="1"/>
-    <col min="8717" max="8717" width="72.125" style="5" customWidth="1"/>
-    <col min="8718" max="8963" width="9" style="5"/>
-    <col min="8964" max="8964" width="10.125" style="5" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="5" customWidth="1"/>
-    <col min="8966" max="8966" width="25" style="5" customWidth="1"/>
-    <col min="8967" max="8967" width="17.75" style="5" customWidth="1"/>
-    <col min="8968" max="8968" width="48.25" style="5" customWidth="1"/>
-    <col min="8969" max="8969" width="10.25" style="5" customWidth="1"/>
-    <col min="8970" max="8970" width="25.5" style="5" customWidth="1"/>
-    <col min="8971" max="8971" width="53.125" style="5" customWidth="1"/>
-    <col min="8972" max="8972" width="22.75" style="5" customWidth="1"/>
-    <col min="8973" max="8973" width="72.125" style="5" customWidth="1"/>
-    <col min="8974" max="9219" width="9" style="5"/>
-    <col min="9220" max="9220" width="10.125" style="5" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="5" customWidth="1"/>
-    <col min="9222" max="9222" width="25" style="5" customWidth="1"/>
-    <col min="9223" max="9223" width="17.75" style="5" customWidth="1"/>
-    <col min="9224" max="9224" width="48.25" style="5" customWidth="1"/>
-    <col min="9225" max="9225" width="10.25" style="5" customWidth="1"/>
-    <col min="9226" max="9226" width="25.5" style="5" customWidth="1"/>
-    <col min="9227" max="9227" width="53.125" style="5" customWidth="1"/>
-    <col min="9228" max="9228" width="22.75" style="5" customWidth="1"/>
-    <col min="9229" max="9229" width="72.125" style="5" customWidth="1"/>
-    <col min="9230" max="9475" width="9" style="5"/>
-    <col min="9476" max="9476" width="10.125" style="5" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="5" customWidth="1"/>
-    <col min="9478" max="9478" width="25" style="5" customWidth="1"/>
-    <col min="9479" max="9479" width="17.75" style="5" customWidth="1"/>
-    <col min="9480" max="9480" width="48.25" style="5" customWidth="1"/>
-    <col min="9481" max="9481" width="10.25" style="5" customWidth="1"/>
-    <col min="9482" max="9482" width="25.5" style="5" customWidth="1"/>
-    <col min="9483" max="9483" width="53.125" style="5" customWidth="1"/>
-    <col min="9484" max="9484" width="22.75" style="5" customWidth="1"/>
-    <col min="9485" max="9485" width="72.125" style="5" customWidth="1"/>
-    <col min="9486" max="9731" width="9" style="5"/>
-    <col min="9732" max="9732" width="10.125" style="5" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="5" customWidth="1"/>
-    <col min="9734" max="9734" width="25" style="5" customWidth="1"/>
-    <col min="9735" max="9735" width="17.75" style="5" customWidth="1"/>
-    <col min="9736" max="9736" width="48.25" style="5" customWidth="1"/>
-    <col min="9737" max="9737" width="10.25" style="5" customWidth="1"/>
-    <col min="9738" max="9738" width="25.5" style="5" customWidth="1"/>
-    <col min="9739" max="9739" width="53.125" style="5" customWidth="1"/>
-    <col min="9740" max="9740" width="22.75" style="5" customWidth="1"/>
-    <col min="9741" max="9741" width="72.125" style="5" customWidth="1"/>
-    <col min="9742" max="9987" width="9" style="5"/>
-    <col min="9988" max="9988" width="10.125" style="5" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="5" customWidth="1"/>
-    <col min="9990" max="9990" width="25" style="5" customWidth="1"/>
-    <col min="9991" max="9991" width="17.75" style="5" customWidth="1"/>
-    <col min="9992" max="9992" width="48.25" style="5" customWidth="1"/>
-    <col min="9993" max="9993" width="10.25" style="5" customWidth="1"/>
-    <col min="9994" max="9994" width="25.5" style="5" customWidth="1"/>
-    <col min="9995" max="9995" width="53.125" style="5" customWidth="1"/>
-    <col min="9996" max="9996" width="22.75" style="5" customWidth="1"/>
-    <col min="9997" max="9997" width="72.125" style="5" customWidth="1"/>
-    <col min="9998" max="10243" width="9" style="5"/>
-    <col min="10244" max="10244" width="10.125" style="5" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="5" customWidth="1"/>
-    <col min="10246" max="10246" width="25" style="5" customWidth="1"/>
-    <col min="10247" max="10247" width="17.75" style="5" customWidth="1"/>
-    <col min="10248" max="10248" width="48.25" style="5" customWidth="1"/>
-    <col min="10249" max="10249" width="10.25" style="5" customWidth="1"/>
-    <col min="10250" max="10250" width="25.5" style="5" customWidth="1"/>
-    <col min="10251" max="10251" width="53.125" style="5" customWidth="1"/>
-    <col min="10252" max="10252" width="22.75" style="5" customWidth="1"/>
-    <col min="10253" max="10253" width="72.125" style="5" customWidth="1"/>
-    <col min="10254" max="10499" width="9" style="5"/>
-    <col min="10500" max="10500" width="10.125" style="5" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="5" customWidth="1"/>
-    <col min="10502" max="10502" width="25" style="5" customWidth="1"/>
-    <col min="10503" max="10503" width="17.75" style="5" customWidth="1"/>
-    <col min="10504" max="10504" width="48.25" style="5" customWidth="1"/>
-    <col min="10505" max="10505" width="10.25" style="5" customWidth="1"/>
-    <col min="10506" max="10506" width="25.5" style="5" customWidth="1"/>
-    <col min="10507" max="10507" width="53.125" style="5" customWidth="1"/>
-    <col min="10508" max="10508" width="22.75" style="5" customWidth="1"/>
-    <col min="10509" max="10509" width="72.125" style="5" customWidth="1"/>
-    <col min="10510" max="10755" width="9" style="5"/>
-    <col min="10756" max="10756" width="10.125" style="5" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="5" customWidth="1"/>
-    <col min="10758" max="10758" width="25" style="5" customWidth="1"/>
-    <col min="10759" max="10759" width="17.75" style="5" customWidth="1"/>
-    <col min="10760" max="10760" width="48.25" style="5" customWidth="1"/>
-    <col min="10761" max="10761" width="10.25" style="5" customWidth="1"/>
-    <col min="10762" max="10762" width="25.5" style="5" customWidth="1"/>
-    <col min="10763" max="10763" width="53.125" style="5" customWidth="1"/>
-    <col min="10764" max="10764" width="22.75" style="5" customWidth="1"/>
-    <col min="10765" max="10765" width="72.125" style="5" customWidth="1"/>
-    <col min="10766" max="11011" width="9" style="5"/>
-    <col min="11012" max="11012" width="10.125" style="5" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="5" customWidth="1"/>
-    <col min="11014" max="11014" width="25" style="5" customWidth="1"/>
-    <col min="11015" max="11015" width="17.75" style="5" customWidth="1"/>
-    <col min="11016" max="11016" width="48.25" style="5" customWidth="1"/>
-    <col min="11017" max="11017" width="10.25" style="5" customWidth="1"/>
-    <col min="11018" max="11018" width="25.5" style="5" customWidth="1"/>
-    <col min="11019" max="11019" width="53.125" style="5" customWidth="1"/>
-    <col min="11020" max="11020" width="22.75" style="5" customWidth="1"/>
-    <col min="11021" max="11021" width="72.125" style="5" customWidth="1"/>
-    <col min="11022" max="11267" width="9" style="5"/>
-    <col min="11268" max="11268" width="10.125" style="5" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="5" customWidth="1"/>
-    <col min="11270" max="11270" width="25" style="5" customWidth="1"/>
-    <col min="11271" max="11271" width="17.75" style="5" customWidth="1"/>
-    <col min="11272" max="11272" width="48.25" style="5" customWidth="1"/>
-    <col min="11273" max="11273" width="10.25" style="5" customWidth="1"/>
-    <col min="11274" max="11274" width="25.5" style="5" customWidth="1"/>
-    <col min="11275" max="11275" width="53.125" style="5" customWidth="1"/>
-    <col min="11276" max="11276" width="22.75" style="5" customWidth="1"/>
-    <col min="11277" max="11277" width="72.125" style="5" customWidth="1"/>
-    <col min="11278" max="11523" width="9" style="5"/>
-    <col min="11524" max="11524" width="10.125" style="5" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="5" customWidth="1"/>
-    <col min="11526" max="11526" width="25" style="5" customWidth="1"/>
-    <col min="11527" max="11527" width="17.75" style="5" customWidth="1"/>
-    <col min="11528" max="11528" width="48.25" style="5" customWidth="1"/>
-    <col min="11529" max="11529" width="10.25" style="5" customWidth="1"/>
-    <col min="11530" max="11530" width="25.5" style="5" customWidth="1"/>
-    <col min="11531" max="11531" width="53.125" style="5" customWidth="1"/>
-    <col min="11532" max="11532" width="22.75" style="5" customWidth="1"/>
-    <col min="11533" max="11533" width="72.125" style="5" customWidth="1"/>
-    <col min="11534" max="11779" width="9" style="5"/>
-    <col min="11780" max="11780" width="10.125" style="5" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="5" customWidth="1"/>
-    <col min="11782" max="11782" width="25" style="5" customWidth="1"/>
-    <col min="11783" max="11783" width="17.75" style="5" customWidth="1"/>
-    <col min="11784" max="11784" width="48.25" style="5" customWidth="1"/>
-    <col min="11785" max="11785" width="10.25" style="5" customWidth="1"/>
-    <col min="11786" max="11786" width="25.5" style="5" customWidth="1"/>
-    <col min="11787" max="11787" width="53.125" style="5" customWidth="1"/>
-    <col min="11788" max="11788" width="22.75" style="5" customWidth="1"/>
-    <col min="11789" max="11789" width="72.125" style="5" customWidth="1"/>
-    <col min="11790" max="12035" width="9" style="5"/>
-    <col min="12036" max="12036" width="10.125" style="5" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="5" customWidth="1"/>
-    <col min="12038" max="12038" width="25" style="5" customWidth="1"/>
-    <col min="12039" max="12039" width="17.75" style="5" customWidth="1"/>
-    <col min="12040" max="12040" width="48.25" style="5" customWidth="1"/>
-    <col min="12041" max="12041" width="10.25" style="5" customWidth="1"/>
-    <col min="12042" max="12042" width="25.5" style="5" customWidth="1"/>
-    <col min="12043" max="12043" width="53.125" style="5" customWidth="1"/>
-    <col min="12044" max="12044" width="22.75" style="5" customWidth="1"/>
-    <col min="12045" max="12045" width="72.125" style="5" customWidth="1"/>
-    <col min="12046" max="12291" width="9" style="5"/>
-    <col min="12292" max="12292" width="10.125" style="5" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="5" customWidth="1"/>
-    <col min="12294" max="12294" width="25" style="5" customWidth="1"/>
-    <col min="12295" max="12295" width="17.75" style="5" customWidth="1"/>
-    <col min="12296" max="12296" width="48.25" style="5" customWidth="1"/>
-    <col min="12297" max="12297" width="10.25" style="5" customWidth="1"/>
-    <col min="12298" max="12298" width="25.5" style="5" customWidth="1"/>
-    <col min="12299" max="12299" width="53.125" style="5" customWidth="1"/>
-    <col min="12300" max="12300" width="22.75" style="5" customWidth="1"/>
-    <col min="12301" max="12301" width="72.125" style="5" customWidth="1"/>
-    <col min="12302" max="12547" width="9" style="5"/>
-    <col min="12548" max="12548" width="10.125" style="5" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="5" customWidth="1"/>
-    <col min="12550" max="12550" width="25" style="5" customWidth="1"/>
-    <col min="12551" max="12551" width="17.75" style="5" customWidth="1"/>
-    <col min="12552" max="12552" width="48.25" style="5" customWidth="1"/>
-    <col min="12553" max="12553" width="10.25" style="5" customWidth="1"/>
-    <col min="12554" max="12554" width="25.5" style="5" customWidth="1"/>
-    <col min="12555" max="12555" width="53.125" style="5" customWidth="1"/>
-    <col min="12556" max="12556" width="22.75" style="5" customWidth="1"/>
-    <col min="12557" max="12557" width="72.125" style="5" customWidth="1"/>
-    <col min="12558" max="12803" width="9" style="5"/>
-    <col min="12804" max="12804" width="10.125" style="5" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="5" customWidth="1"/>
-    <col min="12806" max="12806" width="25" style="5" customWidth="1"/>
-    <col min="12807" max="12807" width="17.75" style="5" customWidth="1"/>
-    <col min="12808" max="12808" width="48.25" style="5" customWidth="1"/>
-    <col min="12809" max="12809" width="10.25" style="5" customWidth="1"/>
-    <col min="12810" max="12810" width="25.5" style="5" customWidth="1"/>
-    <col min="12811" max="12811" width="53.125" style="5" customWidth="1"/>
-    <col min="12812" max="12812" width="22.75" style="5" customWidth="1"/>
-    <col min="12813" max="12813" width="72.125" style="5" customWidth="1"/>
-    <col min="12814" max="13059" width="9" style="5"/>
-    <col min="13060" max="13060" width="10.125" style="5" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="5" customWidth="1"/>
-    <col min="13062" max="13062" width="25" style="5" customWidth="1"/>
-    <col min="13063" max="13063" width="17.75" style="5" customWidth="1"/>
-    <col min="13064" max="13064" width="48.25" style="5" customWidth="1"/>
-    <col min="13065" max="13065" width="10.25" style="5" customWidth="1"/>
-    <col min="13066" max="13066" width="25.5" style="5" customWidth="1"/>
-    <col min="13067" max="13067" width="53.125" style="5" customWidth="1"/>
-    <col min="13068" max="13068" width="22.75" style="5" customWidth="1"/>
-    <col min="13069" max="13069" width="72.125" style="5" customWidth="1"/>
-    <col min="13070" max="13315" width="9" style="5"/>
-    <col min="13316" max="13316" width="10.125" style="5" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="5" customWidth="1"/>
-    <col min="13318" max="13318" width="25" style="5" customWidth="1"/>
-    <col min="13319" max="13319" width="17.75" style="5" customWidth="1"/>
-    <col min="13320" max="13320" width="48.25" style="5" customWidth="1"/>
-    <col min="13321" max="13321" width="10.25" style="5" customWidth="1"/>
-    <col min="13322" max="13322" width="25.5" style="5" customWidth="1"/>
-    <col min="13323" max="13323" width="53.125" style="5" customWidth="1"/>
-    <col min="13324" max="13324" width="22.75" style="5" customWidth="1"/>
-    <col min="13325" max="13325" width="72.125" style="5" customWidth="1"/>
-    <col min="13326" max="13571" width="9" style="5"/>
-    <col min="13572" max="13572" width="10.125" style="5" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="5" customWidth="1"/>
-    <col min="13574" max="13574" width="25" style="5" customWidth="1"/>
-    <col min="13575" max="13575" width="17.75" style="5" customWidth="1"/>
-    <col min="13576" max="13576" width="48.25" style="5" customWidth="1"/>
-    <col min="13577" max="13577" width="10.25" style="5" customWidth="1"/>
-    <col min="13578" max="13578" width="25.5" style="5" customWidth="1"/>
-    <col min="13579" max="13579" width="53.125" style="5" customWidth="1"/>
-    <col min="13580" max="13580" width="22.75" style="5" customWidth="1"/>
-    <col min="13581" max="13581" width="72.125" style="5" customWidth="1"/>
-    <col min="13582" max="13827" width="9" style="5"/>
-    <col min="13828" max="13828" width="10.125" style="5" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="5" customWidth="1"/>
-    <col min="13830" max="13830" width="25" style="5" customWidth="1"/>
-    <col min="13831" max="13831" width="17.75" style="5" customWidth="1"/>
-    <col min="13832" max="13832" width="48.25" style="5" customWidth="1"/>
-    <col min="13833" max="13833" width="10.25" style="5" customWidth="1"/>
-    <col min="13834" max="13834" width="25.5" style="5" customWidth="1"/>
-    <col min="13835" max="13835" width="53.125" style="5" customWidth="1"/>
-    <col min="13836" max="13836" width="22.75" style="5" customWidth="1"/>
-    <col min="13837" max="13837" width="72.125" style="5" customWidth="1"/>
-    <col min="13838" max="14083" width="9" style="5"/>
-    <col min="14084" max="14084" width="10.125" style="5" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="5" customWidth="1"/>
-    <col min="14086" max="14086" width="25" style="5" customWidth="1"/>
-    <col min="14087" max="14087" width="17.75" style="5" customWidth="1"/>
-    <col min="14088" max="14088" width="48.25" style="5" customWidth="1"/>
-    <col min="14089" max="14089" width="10.25" style="5" customWidth="1"/>
-    <col min="14090" max="14090" width="25.5" style="5" customWidth="1"/>
-    <col min="14091" max="14091" width="53.125" style="5" customWidth="1"/>
-    <col min="14092" max="14092" width="22.75" style="5" customWidth="1"/>
-    <col min="14093" max="14093" width="72.125" style="5" customWidth="1"/>
-    <col min="14094" max="14339" width="9" style="5"/>
-    <col min="14340" max="14340" width="10.125" style="5" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="5" customWidth="1"/>
-    <col min="14342" max="14342" width="25" style="5" customWidth="1"/>
-    <col min="14343" max="14343" width="17.75" style="5" customWidth="1"/>
-    <col min="14344" max="14344" width="48.25" style="5" customWidth="1"/>
-    <col min="14345" max="14345" width="10.25" style="5" customWidth="1"/>
-    <col min="14346" max="14346" width="25.5" style="5" customWidth="1"/>
-    <col min="14347" max="14347" width="53.125" style="5" customWidth="1"/>
-    <col min="14348" max="14348" width="22.75" style="5" customWidth="1"/>
-    <col min="14349" max="14349" width="72.125" style="5" customWidth="1"/>
-    <col min="14350" max="14595" width="9" style="5"/>
-    <col min="14596" max="14596" width="10.125" style="5" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="5" customWidth="1"/>
-    <col min="14598" max="14598" width="25" style="5" customWidth="1"/>
-    <col min="14599" max="14599" width="17.75" style="5" customWidth="1"/>
-    <col min="14600" max="14600" width="48.25" style="5" customWidth="1"/>
-    <col min="14601" max="14601" width="10.25" style="5" customWidth="1"/>
-    <col min="14602" max="14602" width="25.5" style="5" customWidth="1"/>
-    <col min="14603" max="14603" width="53.125" style="5" customWidth="1"/>
-    <col min="14604" max="14604" width="22.75" style="5" customWidth="1"/>
-    <col min="14605" max="14605" width="72.125" style="5" customWidth="1"/>
-    <col min="14606" max="14851" width="9" style="5"/>
-    <col min="14852" max="14852" width="10.125" style="5" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="5" customWidth="1"/>
-    <col min="14854" max="14854" width="25" style="5" customWidth="1"/>
-    <col min="14855" max="14855" width="17.75" style="5" customWidth="1"/>
-    <col min="14856" max="14856" width="48.25" style="5" customWidth="1"/>
-    <col min="14857" max="14857" width="10.25" style="5" customWidth="1"/>
-    <col min="14858" max="14858" width="25.5" style="5" customWidth="1"/>
-    <col min="14859" max="14859" width="53.125" style="5" customWidth="1"/>
-    <col min="14860" max="14860" width="22.75" style="5" customWidth="1"/>
-    <col min="14861" max="14861" width="72.125" style="5" customWidth="1"/>
-    <col min="14862" max="15107" width="9" style="5"/>
-    <col min="15108" max="15108" width="10.125" style="5" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="5" customWidth="1"/>
-    <col min="15110" max="15110" width="25" style="5" customWidth="1"/>
-    <col min="15111" max="15111" width="17.75" style="5" customWidth="1"/>
-    <col min="15112" max="15112" width="48.25" style="5" customWidth="1"/>
-    <col min="15113" max="15113" width="10.25" style="5" customWidth="1"/>
-    <col min="15114" max="15114" width="25.5" style="5" customWidth="1"/>
-    <col min="15115" max="15115" width="53.125" style="5" customWidth="1"/>
-    <col min="15116" max="15116" width="22.75" style="5" customWidth="1"/>
-    <col min="15117" max="15117" width="72.125" style="5" customWidth="1"/>
-    <col min="15118" max="15363" width="9" style="5"/>
-    <col min="15364" max="15364" width="10.125" style="5" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="5" customWidth="1"/>
-    <col min="15366" max="15366" width="25" style="5" customWidth="1"/>
-    <col min="15367" max="15367" width="17.75" style="5" customWidth="1"/>
-    <col min="15368" max="15368" width="48.25" style="5" customWidth="1"/>
-    <col min="15369" max="15369" width="10.25" style="5" customWidth="1"/>
-    <col min="15370" max="15370" width="25.5" style="5" customWidth="1"/>
-    <col min="15371" max="15371" width="53.125" style="5" customWidth="1"/>
-    <col min="15372" max="15372" width="22.75" style="5" customWidth="1"/>
-    <col min="15373" max="15373" width="72.125" style="5" customWidth="1"/>
-    <col min="15374" max="15619" width="9" style="5"/>
-    <col min="15620" max="15620" width="10.125" style="5" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="5" customWidth="1"/>
-    <col min="15622" max="15622" width="25" style="5" customWidth="1"/>
-    <col min="15623" max="15623" width="17.75" style="5" customWidth="1"/>
-    <col min="15624" max="15624" width="48.25" style="5" customWidth="1"/>
-    <col min="15625" max="15625" width="10.25" style="5" customWidth="1"/>
-    <col min="15626" max="15626" width="25.5" style="5" customWidth="1"/>
-    <col min="15627" max="15627" width="53.125" style="5" customWidth="1"/>
-    <col min="15628" max="15628" width="22.75" style="5" customWidth="1"/>
-    <col min="15629" max="15629" width="72.125" style="5" customWidth="1"/>
-    <col min="15630" max="15875" width="9" style="5"/>
-    <col min="15876" max="15876" width="10.125" style="5" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="5" customWidth="1"/>
-    <col min="15878" max="15878" width="25" style="5" customWidth="1"/>
-    <col min="15879" max="15879" width="17.75" style="5" customWidth="1"/>
-    <col min="15880" max="15880" width="48.25" style="5" customWidth="1"/>
-    <col min="15881" max="15881" width="10.25" style="5" customWidth="1"/>
-    <col min="15882" max="15882" width="25.5" style="5" customWidth="1"/>
-    <col min="15883" max="15883" width="53.125" style="5" customWidth="1"/>
-    <col min="15884" max="15884" width="22.75" style="5" customWidth="1"/>
-    <col min="15885" max="15885" width="72.125" style="5" customWidth="1"/>
-    <col min="15886" max="16131" width="9" style="5"/>
-    <col min="16132" max="16132" width="10.125" style="5" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="5" customWidth="1"/>
-    <col min="16134" max="16134" width="25" style="5" customWidth="1"/>
-    <col min="16135" max="16135" width="17.75" style="5" customWidth="1"/>
-    <col min="16136" max="16136" width="48.25" style="5" customWidth="1"/>
-    <col min="16137" max="16137" width="10.25" style="5" customWidth="1"/>
-    <col min="16138" max="16138" width="25.5" style="5" customWidth="1"/>
-    <col min="16139" max="16139" width="53.125" style="5" customWidth="1"/>
-    <col min="16140" max="16140" width="22.75" style="5" customWidth="1"/>
-    <col min="16141" max="16141" width="72.125" style="5" customWidth="1"/>
-    <col min="16142" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="25.8833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.3583333333333" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="53.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="22.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="72.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="26.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="49.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="31.625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9" style="6"/>
+    <col min="18" max="18" width="28.125" style="6" customWidth="1"/>
+    <col min="19" max="259" width="9" style="6"/>
+    <col min="260" max="260" width="10.125" style="6" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="6" customWidth="1"/>
+    <col min="262" max="262" width="25" style="6" customWidth="1"/>
+    <col min="263" max="263" width="17.75" style="6" customWidth="1"/>
+    <col min="264" max="264" width="48.25" style="6" customWidth="1"/>
+    <col min="265" max="265" width="10.25" style="6" customWidth="1"/>
+    <col min="266" max="266" width="25.5" style="6" customWidth="1"/>
+    <col min="267" max="267" width="53.125" style="6" customWidth="1"/>
+    <col min="268" max="268" width="22.75" style="6" customWidth="1"/>
+    <col min="269" max="269" width="72.125" style="6" customWidth="1"/>
+    <col min="270" max="515" width="9" style="6"/>
+    <col min="516" max="516" width="10.125" style="6" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="6" customWidth="1"/>
+    <col min="518" max="518" width="25" style="6" customWidth="1"/>
+    <col min="519" max="519" width="17.75" style="6" customWidth="1"/>
+    <col min="520" max="520" width="48.25" style="6" customWidth="1"/>
+    <col min="521" max="521" width="10.25" style="6" customWidth="1"/>
+    <col min="522" max="522" width="25.5" style="6" customWidth="1"/>
+    <col min="523" max="523" width="53.125" style="6" customWidth="1"/>
+    <col min="524" max="524" width="22.75" style="6" customWidth="1"/>
+    <col min="525" max="525" width="72.125" style="6" customWidth="1"/>
+    <col min="526" max="771" width="9" style="6"/>
+    <col min="772" max="772" width="10.125" style="6" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="6" customWidth="1"/>
+    <col min="774" max="774" width="25" style="6" customWidth="1"/>
+    <col min="775" max="775" width="17.75" style="6" customWidth="1"/>
+    <col min="776" max="776" width="48.25" style="6" customWidth="1"/>
+    <col min="777" max="777" width="10.25" style="6" customWidth="1"/>
+    <col min="778" max="778" width="25.5" style="6" customWidth="1"/>
+    <col min="779" max="779" width="53.125" style="6" customWidth="1"/>
+    <col min="780" max="780" width="22.75" style="6" customWidth="1"/>
+    <col min="781" max="781" width="72.125" style="6" customWidth="1"/>
+    <col min="782" max="1027" width="9" style="6"/>
+    <col min="1028" max="1028" width="10.125" style="6" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="6" customWidth="1"/>
+    <col min="1030" max="1030" width="25" style="6" customWidth="1"/>
+    <col min="1031" max="1031" width="17.75" style="6" customWidth="1"/>
+    <col min="1032" max="1032" width="48.25" style="6" customWidth="1"/>
+    <col min="1033" max="1033" width="10.25" style="6" customWidth="1"/>
+    <col min="1034" max="1034" width="25.5" style="6" customWidth="1"/>
+    <col min="1035" max="1035" width="53.125" style="6" customWidth="1"/>
+    <col min="1036" max="1036" width="22.75" style="6" customWidth="1"/>
+    <col min="1037" max="1037" width="72.125" style="6" customWidth="1"/>
+    <col min="1038" max="1283" width="9" style="6"/>
+    <col min="1284" max="1284" width="10.125" style="6" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="6" customWidth="1"/>
+    <col min="1286" max="1286" width="25" style="6" customWidth="1"/>
+    <col min="1287" max="1287" width="17.75" style="6" customWidth="1"/>
+    <col min="1288" max="1288" width="48.25" style="6" customWidth="1"/>
+    <col min="1289" max="1289" width="10.25" style="6" customWidth="1"/>
+    <col min="1290" max="1290" width="25.5" style="6" customWidth="1"/>
+    <col min="1291" max="1291" width="53.125" style="6" customWidth="1"/>
+    <col min="1292" max="1292" width="22.75" style="6" customWidth="1"/>
+    <col min="1293" max="1293" width="72.125" style="6" customWidth="1"/>
+    <col min="1294" max="1539" width="9" style="6"/>
+    <col min="1540" max="1540" width="10.125" style="6" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="6" customWidth="1"/>
+    <col min="1542" max="1542" width="25" style="6" customWidth="1"/>
+    <col min="1543" max="1543" width="17.75" style="6" customWidth="1"/>
+    <col min="1544" max="1544" width="48.25" style="6" customWidth="1"/>
+    <col min="1545" max="1545" width="10.25" style="6" customWidth="1"/>
+    <col min="1546" max="1546" width="25.5" style="6" customWidth="1"/>
+    <col min="1547" max="1547" width="53.125" style="6" customWidth="1"/>
+    <col min="1548" max="1548" width="22.75" style="6" customWidth="1"/>
+    <col min="1549" max="1549" width="72.125" style="6" customWidth="1"/>
+    <col min="1550" max="1795" width="9" style="6"/>
+    <col min="1796" max="1796" width="10.125" style="6" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="6" customWidth="1"/>
+    <col min="1798" max="1798" width="25" style="6" customWidth="1"/>
+    <col min="1799" max="1799" width="17.75" style="6" customWidth="1"/>
+    <col min="1800" max="1800" width="48.25" style="6" customWidth="1"/>
+    <col min="1801" max="1801" width="10.25" style="6" customWidth="1"/>
+    <col min="1802" max="1802" width="25.5" style="6" customWidth="1"/>
+    <col min="1803" max="1803" width="53.125" style="6" customWidth="1"/>
+    <col min="1804" max="1804" width="22.75" style="6" customWidth="1"/>
+    <col min="1805" max="1805" width="72.125" style="6" customWidth="1"/>
+    <col min="1806" max="2051" width="9" style="6"/>
+    <col min="2052" max="2052" width="10.125" style="6" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="6" customWidth="1"/>
+    <col min="2054" max="2054" width="25" style="6" customWidth="1"/>
+    <col min="2055" max="2055" width="17.75" style="6" customWidth="1"/>
+    <col min="2056" max="2056" width="48.25" style="6" customWidth="1"/>
+    <col min="2057" max="2057" width="10.25" style="6" customWidth="1"/>
+    <col min="2058" max="2058" width="25.5" style="6" customWidth="1"/>
+    <col min="2059" max="2059" width="53.125" style="6" customWidth="1"/>
+    <col min="2060" max="2060" width="22.75" style="6" customWidth="1"/>
+    <col min="2061" max="2061" width="72.125" style="6" customWidth="1"/>
+    <col min="2062" max="2307" width="9" style="6"/>
+    <col min="2308" max="2308" width="10.125" style="6" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="6" customWidth="1"/>
+    <col min="2310" max="2310" width="25" style="6" customWidth="1"/>
+    <col min="2311" max="2311" width="17.75" style="6" customWidth="1"/>
+    <col min="2312" max="2312" width="48.25" style="6" customWidth="1"/>
+    <col min="2313" max="2313" width="10.25" style="6" customWidth="1"/>
+    <col min="2314" max="2314" width="25.5" style="6" customWidth="1"/>
+    <col min="2315" max="2315" width="53.125" style="6" customWidth="1"/>
+    <col min="2316" max="2316" width="22.75" style="6" customWidth="1"/>
+    <col min="2317" max="2317" width="72.125" style="6" customWidth="1"/>
+    <col min="2318" max="2563" width="9" style="6"/>
+    <col min="2564" max="2564" width="10.125" style="6" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="6" customWidth="1"/>
+    <col min="2566" max="2566" width="25" style="6" customWidth="1"/>
+    <col min="2567" max="2567" width="17.75" style="6" customWidth="1"/>
+    <col min="2568" max="2568" width="48.25" style="6" customWidth="1"/>
+    <col min="2569" max="2569" width="10.25" style="6" customWidth="1"/>
+    <col min="2570" max="2570" width="25.5" style="6" customWidth="1"/>
+    <col min="2571" max="2571" width="53.125" style="6" customWidth="1"/>
+    <col min="2572" max="2572" width="22.75" style="6" customWidth="1"/>
+    <col min="2573" max="2573" width="72.125" style="6" customWidth="1"/>
+    <col min="2574" max="2819" width="9" style="6"/>
+    <col min="2820" max="2820" width="10.125" style="6" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="6" customWidth="1"/>
+    <col min="2822" max="2822" width="25" style="6" customWidth="1"/>
+    <col min="2823" max="2823" width="17.75" style="6" customWidth="1"/>
+    <col min="2824" max="2824" width="48.25" style="6" customWidth="1"/>
+    <col min="2825" max="2825" width="10.25" style="6" customWidth="1"/>
+    <col min="2826" max="2826" width="25.5" style="6" customWidth="1"/>
+    <col min="2827" max="2827" width="53.125" style="6" customWidth="1"/>
+    <col min="2828" max="2828" width="22.75" style="6" customWidth="1"/>
+    <col min="2829" max="2829" width="72.125" style="6" customWidth="1"/>
+    <col min="2830" max="3075" width="9" style="6"/>
+    <col min="3076" max="3076" width="10.125" style="6" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="6" customWidth="1"/>
+    <col min="3078" max="3078" width="25" style="6" customWidth="1"/>
+    <col min="3079" max="3079" width="17.75" style="6" customWidth="1"/>
+    <col min="3080" max="3080" width="48.25" style="6" customWidth="1"/>
+    <col min="3081" max="3081" width="10.25" style="6" customWidth="1"/>
+    <col min="3082" max="3082" width="25.5" style="6" customWidth="1"/>
+    <col min="3083" max="3083" width="53.125" style="6" customWidth="1"/>
+    <col min="3084" max="3084" width="22.75" style="6" customWidth="1"/>
+    <col min="3085" max="3085" width="72.125" style="6" customWidth="1"/>
+    <col min="3086" max="3331" width="9" style="6"/>
+    <col min="3332" max="3332" width="10.125" style="6" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="6" customWidth="1"/>
+    <col min="3334" max="3334" width="25" style="6" customWidth="1"/>
+    <col min="3335" max="3335" width="17.75" style="6" customWidth="1"/>
+    <col min="3336" max="3336" width="48.25" style="6" customWidth="1"/>
+    <col min="3337" max="3337" width="10.25" style="6" customWidth="1"/>
+    <col min="3338" max="3338" width="25.5" style="6" customWidth="1"/>
+    <col min="3339" max="3339" width="53.125" style="6" customWidth="1"/>
+    <col min="3340" max="3340" width="22.75" style="6" customWidth="1"/>
+    <col min="3341" max="3341" width="72.125" style="6" customWidth="1"/>
+    <col min="3342" max="3587" width="9" style="6"/>
+    <col min="3588" max="3588" width="10.125" style="6" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="6" customWidth="1"/>
+    <col min="3590" max="3590" width="25" style="6" customWidth="1"/>
+    <col min="3591" max="3591" width="17.75" style="6" customWidth="1"/>
+    <col min="3592" max="3592" width="48.25" style="6" customWidth="1"/>
+    <col min="3593" max="3593" width="10.25" style="6" customWidth="1"/>
+    <col min="3594" max="3594" width="25.5" style="6" customWidth="1"/>
+    <col min="3595" max="3595" width="53.125" style="6" customWidth="1"/>
+    <col min="3596" max="3596" width="22.75" style="6" customWidth="1"/>
+    <col min="3597" max="3597" width="72.125" style="6" customWidth="1"/>
+    <col min="3598" max="3843" width="9" style="6"/>
+    <col min="3844" max="3844" width="10.125" style="6" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="6" customWidth="1"/>
+    <col min="3846" max="3846" width="25" style="6" customWidth="1"/>
+    <col min="3847" max="3847" width="17.75" style="6" customWidth="1"/>
+    <col min="3848" max="3848" width="48.25" style="6" customWidth="1"/>
+    <col min="3849" max="3849" width="10.25" style="6" customWidth="1"/>
+    <col min="3850" max="3850" width="25.5" style="6" customWidth="1"/>
+    <col min="3851" max="3851" width="53.125" style="6" customWidth="1"/>
+    <col min="3852" max="3852" width="22.75" style="6" customWidth="1"/>
+    <col min="3853" max="3853" width="72.125" style="6" customWidth="1"/>
+    <col min="3854" max="4099" width="9" style="6"/>
+    <col min="4100" max="4100" width="10.125" style="6" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="6" customWidth="1"/>
+    <col min="4102" max="4102" width="25" style="6" customWidth="1"/>
+    <col min="4103" max="4103" width="17.75" style="6" customWidth="1"/>
+    <col min="4104" max="4104" width="48.25" style="6" customWidth="1"/>
+    <col min="4105" max="4105" width="10.25" style="6" customWidth="1"/>
+    <col min="4106" max="4106" width="25.5" style="6" customWidth="1"/>
+    <col min="4107" max="4107" width="53.125" style="6" customWidth="1"/>
+    <col min="4108" max="4108" width="22.75" style="6" customWidth="1"/>
+    <col min="4109" max="4109" width="72.125" style="6" customWidth="1"/>
+    <col min="4110" max="4355" width="9" style="6"/>
+    <col min="4356" max="4356" width="10.125" style="6" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="6" customWidth="1"/>
+    <col min="4358" max="4358" width="25" style="6" customWidth="1"/>
+    <col min="4359" max="4359" width="17.75" style="6" customWidth="1"/>
+    <col min="4360" max="4360" width="48.25" style="6" customWidth="1"/>
+    <col min="4361" max="4361" width="10.25" style="6" customWidth="1"/>
+    <col min="4362" max="4362" width="25.5" style="6" customWidth="1"/>
+    <col min="4363" max="4363" width="53.125" style="6" customWidth="1"/>
+    <col min="4364" max="4364" width="22.75" style="6" customWidth="1"/>
+    <col min="4365" max="4365" width="72.125" style="6" customWidth="1"/>
+    <col min="4366" max="4611" width="9" style="6"/>
+    <col min="4612" max="4612" width="10.125" style="6" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="6" customWidth="1"/>
+    <col min="4614" max="4614" width="25" style="6" customWidth="1"/>
+    <col min="4615" max="4615" width="17.75" style="6" customWidth="1"/>
+    <col min="4616" max="4616" width="48.25" style="6" customWidth="1"/>
+    <col min="4617" max="4617" width="10.25" style="6" customWidth="1"/>
+    <col min="4618" max="4618" width="25.5" style="6" customWidth="1"/>
+    <col min="4619" max="4619" width="53.125" style="6" customWidth="1"/>
+    <col min="4620" max="4620" width="22.75" style="6" customWidth="1"/>
+    <col min="4621" max="4621" width="72.125" style="6" customWidth="1"/>
+    <col min="4622" max="4867" width="9" style="6"/>
+    <col min="4868" max="4868" width="10.125" style="6" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="6" customWidth="1"/>
+    <col min="4870" max="4870" width="25" style="6" customWidth="1"/>
+    <col min="4871" max="4871" width="17.75" style="6" customWidth="1"/>
+    <col min="4872" max="4872" width="48.25" style="6" customWidth="1"/>
+    <col min="4873" max="4873" width="10.25" style="6" customWidth="1"/>
+    <col min="4874" max="4874" width="25.5" style="6" customWidth="1"/>
+    <col min="4875" max="4875" width="53.125" style="6" customWidth="1"/>
+    <col min="4876" max="4876" width="22.75" style="6" customWidth="1"/>
+    <col min="4877" max="4877" width="72.125" style="6" customWidth="1"/>
+    <col min="4878" max="5123" width="9" style="6"/>
+    <col min="5124" max="5124" width="10.125" style="6" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="6" customWidth="1"/>
+    <col min="5126" max="5126" width="25" style="6" customWidth="1"/>
+    <col min="5127" max="5127" width="17.75" style="6" customWidth="1"/>
+    <col min="5128" max="5128" width="48.25" style="6" customWidth="1"/>
+    <col min="5129" max="5129" width="10.25" style="6" customWidth="1"/>
+    <col min="5130" max="5130" width="25.5" style="6" customWidth="1"/>
+    <col min="5131" max="5131" width="53.125" style="6" customWidth="1"/>
+    <col min="5132" max="5132" width="22.75" style="6" customWidth="1"/>
+    <col min="5133" max="5133" width="72.125" style="6" customWidth="1"/>
+    <col min="5134" max="5379" width="9" style="6"/>
+    <col min="5380" max="5380" width="10.125" style="6" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="6" customWidth="1"/>
+    <col min="5382" max="5382" width="25" style="6" customWidth="1"/>
+    <col min="5383" max="5383" width="17.75" style="6" customWidth="1"/>
+    <col min="5384" max="5384" width="48.25" style="6" customWidth="1"/>
+    <col min="5385" max="5385" width="10.25" style="6" customWidth="1"/>
+    <col min="5386" max="5386" width="25.5" style="6" customWidth="1"/>
+    <col min="5387" max="5387" width="53.125" style="6" customWidth="1"/>
+    <col min="5388" max="5388" width="22.75" style="6" customWidth="1"/>
+    <col min="5389" max="5389" width="72.125" style="6" customWidth="1"/>
+    <col min="5390" max="5635" width="9" style="6"/>
+    <col min="5636" max="5636" width="10.125" style="6" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="6" customWidth="1"/>
+    <col min="5638" max="5638" width="25" style="6" customWidth="1"/>
+    <col min="5639" max="5639" width="17.75" style="6" customWidth="1"/>
+    <col min="5640" max="5640" width="48.25" style="6" customWidth="1"/>
+    <col min="5641" max="5641" width="10.25" style="6" customWidth="1"/>
+    <col min="5642" max="5642" width="25.5" style="6" customWidth="1"/>
+    <col min="5643" max="5643" width="53.125" style="6" customWidth="1"/>
+    <col min="5644" max="5644" width="22.75" style="6" customWidth="1"/>
+    <col min="5645" max="5645" width="72.125" style="6" customWidth="1"/>
+    <col min="5646" max="5891" width="9" style="6"/>
+    <col min="5892" max="5892" width="10.125" style="6" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="6" customWidth="1"/>
+    <col min="5894" max="5894" width="25" style="6" customWidth="1"/>
+    <col min="5895" max="5895" width="17.75" style="6" customWidth="1"/>
+    <col min="5896" max="5896" width="48.25" style="6" customWidth="1"/>
+    <col min="5897" max="5897" width="10.25" style="6" customWidth="1"/>
+    <col min="5898" max="5898" width="25.5" style="6" customWidth="1"/>
+    <col min="5899" max="5899" width="53.125" style="6" customWidth="1"/>
+    <col min="5900" max="5900" width="22.75" style="6" customWidth="1"/>
+    <col min="5901" max="5901" width="72.125" style="6" customWidth="1"/>
+    <col min="5902" max="6147" width="9" style="6"/>
+    <col min="6148" max="6148" width="10.125" style="6" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="6" customWidth="1"/>
+    <col min="6150" max="6150" width="25" style="6" customWidth="1"/>
+    <col min="6151" max="6151" width="17.75" style="6" customWidth="1"/>
+    <col min="6152" max="6152" width="48.25" style="6" customWidth="1"/>
+    <col min="6153" max="6153" width="10.25" style="6" customWidth="1"/>
+    <col min="6154" max="6154" width="25.5" style="6" customWidth="1"/>
+    <col min="6155" max="6155" width="53.125" style="6" customWidth="1"/>
+    <col min="6156" max="6156" width="22.75" style="6" customWidth="1"/>
+    <col min="6157" max="6157" width="72.125" style="6" customWidth="1"/>
+    <col min="6158" max="6403" width="9" style="6"/>
+    <col min="6404" max="6404" width="10.125" style="6" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="6" customWidth="1"/>
+    <col min="6406" max="6406" width="25" style="6" customWidth="1"/>
+    <col min="6407" max="6407" width="17.75" style="6" customWidth="1"/>
+    <col min="6408" max="6408" width="48.25" style="6" customWidth="1"/>
+    <col min="6409" max="6409" width="10.25" style="6" customWidth="1"/>
+    <col min="6410" max="6410" width="25.5" style="6" customWidth="1"/>
+    <col min="6411" max="6411" width="53.125" style="6" customWidth="1"/>
+    <col min="6412" max="6412" width="22.75" style="6" customWidth="1"/>
+    <col min="6413" max="6413" width="72.125" style="6" customWidth="1"/>
+    <col min="6414" max="6659" width="9" style="6"/>
+    <col min="6660" max="6660" width="10.125" style="6" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="6" customWidth="1"/>
+    <col min="6662" max="6662" width="25" style="6" customWidth="1"/>
+    <col min="6663" max="6663" width="17.75" style="6" customWidth="1"/>
+    <col min="6664" max="6664" width="48.25" style="6" customWidth="1"/>
+    <col min="6665" max="6665" width="10.25" style="6" customWidth="1"/>
+    <col min="6666" max="6666" width="25.5" style="6" customWidth="1"/>
+    <col min="6667" max="6667" width="53.125" style="6" customWidth="1"/>
+    <col min="6668" max="6668" width="22.75" style="6" customWidth="1"/>
+    <col min="6669" max="6669" width="72.125" style="6" customWidth="1"/>
+    <col min="6670" max="6915" width="9" style="6"/>
+    <col min="6916" max="6916" width="10.125" style="6" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="6" customWidth="1"/>
+    <col min="6918" max="6918" width="25" style="6" customWidth="1"/>
+    <col min="6919" max="6919" width="17.75" style="6" customWidth="1"/>
+    <col min="6920" max="6920" width="48.25" style="6" customWidth="1"/>
+    <col min="6921" max="6921" width="10.25" style="6" customWidth="1"/>
+    <col min="6922" max="6922" width="25.5" style="6" customWidth="1"/>
+    <col min="6923" max="6923" width="53.125" style="6" customWidth="1"/>
+    <col min="6924" max="6924" width="22.75" style="6" customWidth="1"/>
+    <col min="6925" max="6925" width="72.125" style="6" customWidth="1"/>
+    <col min="6926" max="7171" width="9" style="6"/>
+    <col min="7172" max="7172" width="10.125" style="6" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="6" customWidth="1"/>
+    <col min="7174" max="7174" width="25" style="6" customWidth="1"/>
+    <col min="7175" max="7175" width="17.75" style="6" customWidth="1"/>
+    <col min="7176" max="7176" width="48.25" style="6" customWidth="1"/>
+    <col min="7177" max="7177" width="10.25" style="6" customWidth="1"/>
+    <col min="7178" max="7178" width="25.5" style="6" customWidth="1"/>
+    <col min="7179" max="7179" width="53.125" style="6" customWidth="1"/>
+    <col min="7180" max="7180" width="22.75" style="6" customWidth="1"/>
+    <col min="7181" max="7181" width="72.125" style="6" customWidth="1"/>
+    <col min="7182" max="7427" width="9" style="6"/>
+    <col min="7428" max="7428" width="10.125" style="6" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="6" customWidth="1"/>
+    <col min="7430" max="7430" width="25" style="6" customWidth="1"/>
+    <col min="7431" max="7431" width="17.75" style="6" customWidth="1"/>
+    <col min="7432" max="7432" width="48.25" style="6" customWidth="1"/>
+    <col min="7433" max="7433" width="10.25" style="6" customWidth="1"/>
+    <col min="7434" max="7434" width="25.5" style="6" customWidth="1"/>
+    <col min="7435" max="7435" width="53.125" style="6" customWidth="1"/>
+    <col min="7436" max="7436" width="22.75" style="6" customWidth="1"/>
+    <col min="7437" max="7437" width="72.125" style="6" customWidth="1"/>
+    <col min="7438" max="7683" width="9" style="6"/>
+    <col min="7684" max="7684" width="10.125" style="6" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="6" customWidth="1"/>
+    <col min="7686" max="7686" width="25" style="6" customWidth="1"/>
+    <col min="7687" max="7687" width="17.75" style="6" customWidth="1"/>
+    <col min="7688" max="7688" width="48.25" style="6" customWidth="1"/>
+    <col min="7689" max="7689" width="10.25" style="6" customWidth="1"/>
+    <col min="7690" max="7690" width="25.5" style="6" customWidth="1"/>
+    <col min="7691" max="7691" width="53.125" style="6" customWidth="1"/>
+    <col min="7692" max="7692" width="22.75" style="6" customWidth="1"/>
+    <col min="7693" max="7693" width="72.125" style="6" customWidth="1"/>
+    <col min="7694" max="7939" width="9" style="6"/>
+    <col min="7940" max="7940" width="10.125" style="6" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="6" customWidth="1"/>
+    <col min="7942" max="7942" width="25" style="6" customWidth="1"/>
+    <col min="7943" max="7943" width="17.75" style="6" customWidth="1"/>
+    <col min="7944" max="7944" width="48.25" style="6" customWidth="1"/>
+    <col min="7945" max="7945" width="10.25" style="6" customWidth="1"/>
+    <col min="7946" max="7946" width="25.5" style="6" customWidth="1"/>
+    <col min="7947" max="7947" width="53.125" style="6" customWidth="1"/>
+    <col min="7948" max="7948" width="22.75" style="6" customWidth="1"/>
+    <col min="7949" max="7949" width="72.125" style="6" customWidth="1"/>
+    <col min="7950" max="8195" width="9" style="6"/>
+    <col min="8196" max="8196" width="10.125" style="6" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="6" customWidth="1"/>
+    <col min="8198" max="8198" width="25" style="6" customWidth="1"/>
+    <col min="8199" max="8199" width="17.75" style="6" customWidth="1"/>
+    <col min="8200" max="8200" width="48.25" style="6" customWidth="1"/>
+    <col min="8201" max="8201" width="10.25" style="6" customWidth="1"/>
+    <col min="8202" max="8202" width="25.5" style="6" customWidth="1"/>
+    <col min="8203" max="8203" width="53.125" style="6" customWidth="1"/>
+    <col min="8204" max="8204" width="22.75" style="6" customWidth="1"/>
+    <col min="8205" max="8205" width="72.125" style="6" customWidth="1"/>
+    <col min="8206" max="8451" width="9" style="6"/>
+    <col min="8452" max="8452" width="10.125" style="6" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="6" customWidth="1"/>
+    <col min="8454" max="8454" width="25" style="6" customWidth="1"/>
+    <col min="8455" max="8455" width="17.75" style="6" customWidth="1"/>
+    <col min="8456" max="8456" width="48.25" style="6" customWidth="1"/>
+    <col min="8457" max="8457" width="10.25" style="6" customWidth="1"/>
+    <col min="8458" max="8458" width="25.5" style="6" customWidth="1"/>
+    <col min="8459" max="8459" width="53.125" style="6" customWidth="1"/>
+    <col min="8460" max="8460" width="22.75" style="6" customWidth="1"/>
+    <col min="8461" max="8461" width="72.125" style="6" customWidth="1"/>
+    <col min="8462" max="8707" width="9" style="6"/>
+    <col min="8708" max="8708" width="10.125" style="6" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="6" customWidth="1"/>
+    <col min="8710" max="8710" width="25" style="6" customWidth="1"/>
+    <col min="8711" max="8711" width="17.75" style="6" customWidth="1"/>
+    <col min="8712" max="8712" width="48.25" style="6" customWidth="1"/>
+    <col min="8713" max="8713" width="10.25" style="6" customWidth="1"/>
+    <col min="8714" max="8714" width="25.5" style="6" customWidth="1"/>
+    <col min="8715" max="8715" width="53.125" style="6" customWidth="1"/>
+    <col min="8716" max="8716" width="22.75" style="6" customWidth="1"/>
+    <col min="8717" max="8717" width="72.125" style="6" customWidth="1"/>
+    <col min="8718" max="8963" width="9" style="6"/>
+    <col min="8964" max="8964" width="10.125" style="6" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="6" customWidth="1"/>
+    <col min="8966" max="8966" width="25" style="6" customWidth="1"/>
+    <col min="8967" max="8967" width="17.75" style="6" customWidth="1"/>
+    <col min="8968" max="8968" width="48.25" style="6" customWidth="1"/>
+    <col min="8969" max="8969" width="10.25" style="6" customWidth="1"/>
+    <col min="8970" max="8970" width="25.5" style="6" customWidth="1"/>
+    <col min="8971" max="8971" width="53.125" style="6" customWidth="1"/>
+    <col min="8972" max="8972" width="22.75" style="6" customWidth="1"/>
+    <col min="8973" max="8973" width="72.125" style="6" customWidth="1"/>
+    <col min="8974" max="9219" width="9" style="6"/>
+    <col min="9220" max="9220" width="10.125" style="6" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="6" customWidth="1"/>
+    <col min="9222" max="9222" width="25" style="6" customWidth="1"/>
+    <col min="9223" max="9223" width="17.75" style="6" customWidth="1"/>
+    <col min="9224" max="9224" width="48.25" style="6" customWidth="1"/>
+    <col min="9225" max="9225" width="10.25" style="6" customWidth="1"/>
+    <col min="9226" max="9226" width="25.5" style="6" customWidth="1"/>
+    <col min="9227" max="9227" width="53.125" style="6" customWidth="1"/>
+    <col min="9228" max="9228" width="22.75" style="6" customWidth="1"/>
+    <col min="9229" max="9229" width="72.125" style="6" customWidth="1"/>
+    <col min="9230" max="9475" width="9" style="6"/>
+    <col min="9476" max="9476" width="10.125" style="6" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="6" customWidth="1"/>
+    <col min="9478" max="9478" width="25" style="6" customWidth="1"/>
+    <col min="9479" max="9479" width="17.75" style="6" customWidth="1"/>
+    <col min="9480" max="9480" width="48.25" style="6" customWidth="1"/>
+    <col min="9481" max="9481" width="10.25" style="6" customWidth="1"/>
+    <col min="9482" max="9482" width="25.5" style="6" customWidth="1"/>
+    <col min="9483" max="9483" width="53.125" style="6" customWidth="1"/>
+    <col min="9484" max="9484" width="22.75" style="6" customWidth="1"/>
+    <col min="9485" max="9485" width="72.125" style="6" customWidth="1"/>
+    <col min="9486" max="9731" width="9" style="6"/>
+    <col min="9732" max="9732" width="10.125" style="6" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="6" customWidth="1"/>
+    <col min="9734" max="9734" width="25" style="6" customWidth="1"/>
+    <col min="9735" max="9735" width="17.75" style="6" customWidth="1"/>
+    <col min="9736" max="9736" width="48.25" style="6" customWidth="1"/>
+    <col min="9737" max="9737" width="10.25" style="6" customWidth="1"/>
+    <col min="9738" max="9738" width="25.5" style="6" customWidth="1"/>
+    <col min="9739" max="9739" width="53.125" style="6" customWidth="1"/>
+    <col min="9740" max="9740" width="22.75" style="6" customWidth="1"/>
+    <col min="9741" max="9741" width="72.125" style="6" customWidth="1"/>
+    <col min="9742" max="9987" width="9" style="6"/>
+    <col min="9988" max="9988" width="10.125" style="6" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="6" customWidth="1"/>
+    <col min="9990" max="9990" width="25" style="6" customWidth="1"/>
+    <col min="9991" max="9991" width="17.75" style="6" customWidth="1"/>
+    <col min="9992" max="9992" width="48.25" style="6" customWidth="1"/>
+    <col min="9993" max="9993" width="10.25" style="6" customWidth="1"/>
+    <col min="9994" max="9994" width="25.5" style="6" customWidth="1"/>
+    <col min="9995" max="9995" width="53.125" style="6" customWidth="1"/>
+    <col min="9996" max="9996" width="22.75" style="6" customWidth="1"/>
+    <col min="9997" max="9997" width="72.125" style="6" customWidth="1"/>
+    <col min="9998" max="10243" width="9" style="6"/>
+    <col min="10244" max="10244" width="10.125" style="6" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="6" customWidth="1"/>
+    <col min="10246" max="10246" width="25" style="6" customWidth="1"/>
+    <col min="10247" max="10247" width="17.75" style="6" customWidth="1"/>
+    <col min="10248" max="10248" width="48.25" style="6" customWidth="1"/>
+    <col min="10249" max="10249" width="10.25" style="6" customWidth="1"/>
+    <col min="10250" max="10250" width="25.5" style="6" customWidth="1"/>
+    <col min="10251" max="10251" width="53.125" style="6" customWidth="1"/>
+    <col min="10252" max="10252" width="22.75" style="6" customWidth="1"/>
+    <col min="10253" max="10253" width="72.125" style="6" customWidth="1"/>
+    <col min="10254" max="10499" width="9" style="6"/>
+    <col min="10500" max="10500" width="10.125" style="6" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="6" customWidth="1"/>
+    <col min="10502" max="10502" width="25" style="6" customWidth="1"/>
+    <col min="10503" max="10503" width="17.75" style="6" customWidth="1"/>
+    <col min="10504" max="10504" width="48.25" style="6" customWidth="1"/>
+    <col min="10505" max="10505" width="10.25" style="6" customWidth="1"/>
+    <col min="10506" max="10506" width="25.5" style="6" customWidth="1"/>
+    <col min="10507" max="10507" width="53.125" style="6" customWidth="1"/>
+    <col min="10508" max="10508" width="22.75" style="6" customWidth="1"/>
+    <col min="10509" max="10509" width="72.125" style="6" customWidth="1"/>
+    <col min="10510" max="10755" width="9" style="6"/>
+    <col min="10756" max="10756" width="10.125" style="6" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="6" customWidth="1"/>
+    <col min="10758" max="10758" width="25" style="6" customWidth="1"/>
+    <col min="10759" max="10759" width="17.75" style="6" customWidth="1"/>
+    <col min="10760" max="10760" width="48.25" style="6" customWidth="1"/>
+    <col min="10761" max="10761" width="10.25" style="6" customWidth="1"/>
+    <col min="10762" max="10762" width="25.5" style="6" customWidth="1"/>
+    <col min="10763" max="10763" width="53.125" style="6" customWidth="1"/>
+    <col min="10764" max="10764" width="22.75" style="6" customWidth="1"/>
+    <col min="10765" max="10765" width="72.125" style="6" customWidth="1"/>
+    <col min="10766" max="11011" width="9" style="6"/>
+    <col min="11012" max="11012" width="10.125" style="6" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="6" customWidth="1"/>
+    <col min="11014" max="11014" width="25" style="6" customWidth="1"/>
+    <col min="11015" max="11015" width="17.75" style="6" customWidth="1"/>
+    <col min="11016" max="11016" width="48.25" style="6" customWidth="1"/>
+    <col min="11017" max="11017" width="10.25" style="6" customWidth="1"/>
+    <col min="11018" max="11018" width="25.5" style="6" customWidth="1"/>
+    <col min="11019" max="11019" width="53.125" style="6" customWidth="1"/>
+    <col min="11020" max="11020" width="22.75" style="6" customWidth="1"/>
+    <col min="11021" max="11021" width="72.125" style="6" customWidth="1"/>
+    <col min="11022" max="11267" width="9" style="6"/>
+    <col min="11268" max="11268" width="10.125" style="6" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="6" customWidth="1"/>
+    <col min="11270" max="11270" width="25" style="6" customWidth="1"/>
+    <col min="11271" max="11271" width="17.75" style="6" customWidth="1"/>
+    <col min="11272" max="11272" width="48.25" style="6" customWidth="1"/>
+    <col min="11273" max="11273" width="10.25" style="6" customWidth="1"/>
+    <col min="11274" max="11274" width="25.5" style="6" customWidth="1"/>
+    <col min="11275" max="11275" width="53.125" style="6" customWidth="1"/>
+    <col min="11276" max="11276" width="22.75" style="6" customWidth="1"/>
+    <col min="11277" max="11277" width="72.125" style="6" customWidth="1"/>
+    <col min="11278" max="11523" width="9" style="6"/>
+    <col min="11524" max="11524" width="10.125" style="6" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="6" customWidth="1"/>
+    <col min="11526" max="11526" width="25" style="6" customWidth="1"/>
+    <col min="11527" max="11527" width="17.75" style="6" customWidth="1"/>
+    <col min="11528" max="11528" width="48.25" style="6" customWidth="1"/>
+    <col min="11529" max="11529" width="10.25" style="6" customWidth="1"/>
+    <col min="11530" max="11530" width="25.5" style="6" customWidth="1"/>
+    <col min="11531" max="11531" width="53.125" style="6" customWidth="1"/>
+    <col min="11532" max="11532" width="22.75" style="6" customWidth="1"/>
+    <col min="11533" max="11533" width="72.125" style="6" customWidth="1"/>
+    <col min="11534" max="11779" width="9" style="6"/>
+    <col min="11780" max="11780" width="10.125" style="6" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="6" customWidth="1"/>
+    <col min="11782" max="11782" width="25" style="6" customWidth="1"/>
+    <col min="11783" max="11783" width="17.75" style="6" customWidth="1"/>
+    <col min="11784" max="11784" width="48.25" style="6" customWidth="1"/>
+    <col min="11785" max="11785" width="10.25" style="6" customWidth="1"/>
+    <col min="11786" max="11786" width="25.5" style="6" customWidth="1"/>
+    <col min="11787" max="11787" width="53.125" style="6" customWidth="1"/>
+    <col min="11788" max="11788" width="22.75" style="6" customWidth="1"/>
+    <col min="11789" max="11789" width="72.125" style="6" customWidth="1"/>
+    <col min="11790" max="12035" width="9" style="6"/>
+    <col min="12036" max="12036" width="10.125" style="6" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="6" customWidth="1"/>
+    <col min="12038" max="12038" width="25" style="6" customWidth="1"/>
+    <col min="12039" max="12039" width="17.75" style="6" customWidth="1"/>
+    <col min="12040" max="12040" width="48.25" style="6" customWidth="1"/>
+    <col min="12041" max="12041" width="10.25" style="6" customWidth="1"/>
+    <col min="12042" max="12042" width="25.5" style="6" customWidth="1"/>
+    <col min="12043" max="12043" width="53.125" style="6" customWidth="1"/>
+    <col min="12044" max="12044" width="22.75" style="6" customWidth="1"/>
+    <col min="12045" max="12045" width="72.125" style="6" customWidth="1"/>
+    <col min="12046" max="12291" width="9" style="6"/>
+    <col min="12292" max="12292" width="10.125" style="6" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="6" customWidth="1"/>
+    <col min="12294" max="12294" width="25" style="6" customWidth="1"/>
+    <col min="12295" max="12295" width="17.75" style="6" customWidth="1"/>
+    <col min="12296" max="12296" width="48.25" style="6" customWidth="1"/>
+    <col min="12297" max="12297" width="10.25" style="6" customWidth="1"/>
+    <col min="12298" max="12298" width="25.5" style="6" customWidth="1"/>
+    <col min="12299" max="12299" width="53.125" style="6" customWidth="1"/>
+    <col min="12300" max="12300" width="22.75" style="6" customWidth="1"/>
+    <col min="12301" max="12301" width="72.125" style="6" customWidth="1"/>
+    <col min="12302" max="12547" width="9" style="6"/>
+    <col min="12548" max="12548" width="10.125" style="6" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="6" customWidth="1"/>
+    <col min="12550" max="12550" width="25" style="6" customWidth="1"/>
+    <col min="12551" max="12551" width="17.75" style="6" customWidth="1"/>
+    <col min="12552" max="12552" width="48.25" style="6" customWidth="1"/>
+    <col min="12553" max="12553" width="10.25" style="6" customWidth="1"/>
+    <col min="12554" max="12554" width="25.5" style="6" customWidth="1"/>
+    <col min="12555" max="12555" width="53.125" style="6" customWidth="1"/>
+    <col min="12556" max="12556" width="22.75" style="6" customWidth="1"/>
+    <col min="12557" max="12557" width="72.125" style="6" customWidth="1"/>
+    <col min="12558" max="12803" width="9" style="6"/>
+    <col min="12804" max="12804" width="10.125" style="6" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="6" customWidth="1"/>
+    <col min="12806" max="12806" width="25" style="6" customWidth="1"/>
+    <col min="12807" max="12807" width="17.75" style="6" customWidth="1"/>
+    <col min="12808" max="12808" width="48.25" style="6" customWidth="1"/>
+    <col min="12809" max="12809" width="10.25" style="6" customWidth="1"/>
+    <col min="12810" max="12810" width="25.5" style="6" customWidth="1"/>
+    <col min="12811" max="12811" width="53.125" style="6" customWidth="1"/>
+    <col min="12812" max="12812" width="22.75" style="6" customWidth="1"/>
+    <col min="12813" max="12813" width="72.125" style="6" customWidth="1"/>
+    <col min="12814" max="13059" width="9" style="6"/>
+    <col min="13060" max="13060" width="10.125" style="6" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="6" customWidth="1"/>
+    <col min="13062" max="13062" width="25" style="6" customWidth="1"/>
+    <col min="13063" max="13063" width="17.75" style="6" customWidth="1"/>
+    <col min="13064" max="13064" width="48.25" style="6" customWidth="1"/>
+    <col min="13065" max="13065" width="10.25" style="6" customWidth="1"/>
+    <col min="13066" max="13066" width="25.5" style="6" customWidth="1"/>
+    <col min="13067" max="13067" width="53.125" style="6" customWidth="1"/>
+    <col min="13068" max="13068" width="22.75" style="6" customWidth="1"/>
+    <col min="13069" max="13069" width="72.125" style="6" customWidth="1"/>
+    <col min="13070" max="13315" width="9" style="6"/>
+    <col min="13316" max="13316" width="10.125" style="6" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="6" customWidth="1"/>
+    <col min="13318" max="13318" width="25" style="6" customWidth="1"/>
+    <col min="13319" max="13319" width="17.75" style="6" customWidth="1"/>
+    <col min="13320" max="13320" width="48.25" style="6" customWidth="1"/>
+    <col min="13321" max="13321" width="10.25" style="6" customWidth="1"/>
+    <col min="13322" max="13322" width="25.5" style="6" customWidth="1"/>
+    <col min="13323" max="13323" width="53.125" style="6" customWidth="1"/>
+    <col min="13324" max="13324" width="22.75" style="6" customWidth="1"/>
+    <col min="13325" max="13325" width="72.125" style="6" customWidth="1"/>
+    <col min="13326" max="13571" width="9" style="6"/>
+    <col min="13572" max="13572" width="10.125" style="6" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="6" customWidth="1"/>
+    <col min="13574" max="13574" width="25" style="6" customWidth="1"/>
+    <col min="13575" max="13575" width="17.75" style="6" customWidth="1"/>
+    <col min="13576" max="13576" width="48.25" style="6" customWidth="1"/>
+    <col min="13577" max="13577" width="10.25" style="6" customWidth="1"/>
+    <col min="13578" max="13578" width="25.5" style="6" customWidth="1"/>
+    <col min="13579" max="13579" width="53.125" style="6" customWidth="1"/>
+    <col min="13580" max="13580" width="22.75" style="6" customWidth="1"/>
+    <col min="13581" max="13581" width="72.125" style="6" customWidth="1"/>
+    <col min="13582" max="13827" width="9" style="6"/>
+    <col min="13828" max="13828" width="10.125" style="6" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="6" customWidth="1"/>
+    <col min="13830" max="13830" width="25" style="6" customWidth="1"/>
+    <col min="13831" max="13831" width="17.75" style="6" customWidth="1"/>
+    <col min="13832" max="13832" width="48.25" style="6" customWidth="1"/>
+    <col min="13833" max="13833" width="10.25" style="6" customWidth="1"/>
+    <col min="13834" max="13834" width="25.5" style="6" customWidth="1"/>
+    <col min="13835" max="13835" width="53.125" style="6" customWidth="1"/>
+    <col min="13836" max="13836" width="22.75" style="6" customWidth="1"/>
+    <col min="13837" max="13837" width="72.125" style="6" customWidth="1"/>
+    <col min="13838" max="14083" width="9" style="6"/>
+    <col min="14084" max="14084" width="10.125" style="6" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="6" customWidth="1"/>
+    <col min="14086" max="14086" width="25" style="6" customWidth="1"/>
+    <col min="14087" max="14087" width="17.75" style="6" customWidth="1"/>
+    <col min="14088" max="14088" width="48.25" style="6" customWidth="1"/>
+    <col min="14089" max="14089" width="10.25" style="6" customWidth="1"/>
+    <col min="14090" max="14090" width="25.5" style="6" customWidth="1"/>
+    <col min="14091" max="14091" width="53.125" style="6" customWidth="1"/>
+    <col min="14092" max="14092" width="22.75" style="6" customWidth="1"/>
+    <col min="14093" max="14093" width="72.125" style="6" customWidth="1"/>
+    <col min="14094" max="14339" width="9" style="6"/>
+    <col min="14340" max="14340" width="10.125" style="6" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="6" customWidth="1"/>
+    <col min="14342" max="14342" width="25" style="6" customWidth="1"/>
+    <col min="14343" max="14343" width="17.75" style="6" customWidth="1"/>
+    <col min="14344" max="14344" width="48.25" style="6" customWidth="1"/>
+    <col min="14345" max="14345" width="10.25" style="6" customWidth="1"/>
+    <col min="14346" max="14346" width="25.5" style="6" customWidth="1"/>
+    <col min="14347" max="14347" width="53.125" style="6" customWidth="1"/>
+    <col min="14348" max="14348" width="22.75" style="6" customWidth="1"/>
+    <col min="14349" max="14349" width="72.125" style="6" customWidth="1"/>
+    <col min="14350" max="14595" width="9" style="6"/>
+    <col min="14596" max="14596" width="10.125" style="6" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="6" customWidth="1"/>
+    <col min="14598" max="14598" width="25" style="6" customWidth="1"/>
+    <col min="14599" max="14599" width="17.75" style="6" customWidth="1"/>
+    <col min="14600" max="14600" width="48.25" style="6" customWidth="1"/>
+    <col min="14601" max="14601" width="10.25" style="6" customWidth="1"/>
+    <col min="14602" max="14602" width="25.5" style="6" customWidth="1"/>
+    <col min="14603" max="14603" width="53.125" style="6" customWidth="1"/>
+    <col min="14604" max="14604" width="22.75" style="6" customWidth="1"/>
+    <col min="14605" max="14605" width="72.125" style="6" customWidth="1"/>
+    <col min="14606" max="14851" width="9" style="6"/>
+    <col min="14852" max="14852" width="10.125" style="6" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="6" customWidth="1"/>
+    <col min="14854" max="14854" width="25" style="6" customWidth="1"/>
+    <col min="14855" max="14855" width="17.75" style="6" customWidth="1"/>
+    <col min="14856" max="14856" width="48.25" style="6" customWidth="1"/>
+    <col min="14857" max="14857" width="10.25" style="6" customWidth="1"/>
+    <col min="14858" max="14858" width="25.5" style="6" customWidth="1"/>
+    <col min="14859" max="14859" width="53.125" style="6" customWidth="1"/>
+    <col min="14860" max="14860" width="22.75" style="6" customWidth="1"/>
+    <col min="14861" max="14861" width="72.125" style="6" customWidth="1"/>
+    <col min="14862" max="15107" width="9" style="6"/>
+    <col min="15108" max="15108" width="10.125" style="6" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="6" customWidth="1"/>
+    <col min="15110" max="15110" width="25" style="6" customWidth="1"/>
+    <col min="15111" max="15111" width="17.75" style="6" customWidth="1"/>
+    <col min="15112" max="15112" width="48.25" style="6" customWidth="1"/>
+    <col min="15113" max="15113" width="10.25" style="6" customWidth="1"/>
+    <col min="15114" max="15114" width="25.5" style="6" customWidth="1"/>
+    <col min="15115" max="15115" width="53.125" style="6" customWidth="1"/>
+    <col min="15116" max="15116" width="22.75" style="6" customWidth="1"/>
+    <col min="15117" max="15117" width="72.125" style="6" customWidth="1"/>
+    <col min="15118" max="15363" width="9" style="6"/>
+    <col min="15364" max="15364" width="10.125" style="6" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="6" customWidth="1"/>
+    <col min="15366" max="15366" width="25" style="6" customWidth="1"/>
+    <col min="15367" max="15367" width="17.75" style="6" customWidth="1"/>
+    <col min="15368" max="15368" width="48.25" style="6" customWidth="1"/>
+    <col min="15369" max="15369" width="10.25" style="6" customWidth="1"/>
+    <col min="15370" max="15370" width="25.5" style="6" customWidth="1"/>
+    <col min="15371" max="15371" width="53.125" style="6" customWidth="1"/>
+    <col min="15372" max="15372" width="22.75" style="6" customWidth="1"/>
+    <col min="15373" max="15373" width="72.125" style="6" customWidth="1"/>
+    <col min="15374" max="15619" width="9" style="6"/>
+    <col min="15620" max="15620" width="10.125" style="6" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="6" customWidth="1"/>
+    <col min="15622" max="15622" width="25" style="6" customWidth="1"/>
+    <col min="15623" max="15623" width="17.75" style="6" customWidth="1"/>
+    <col min="15624" max="15624" width="48.25" style="6" customWidth="1"/>
+    <col min="15625" max="15625" width="10.25" style="6" customWidth="1"/>
+    <col min="15626" max="15626" width="25.5" style="6" customWidth="1"/>
+    <col min="15627" max="15627" width="53.125" style="6" customWidth="1"/>
+    <col min="15628" max="15628" width="22.75" style="6" customWidth="1"/>
+    <col min="15629" max="15629" width="72.125" style="6" customWidth="1"/>
+    <col min="15630" max="15875" width="9" style="6"/>
+    <col min="15876" max="15876" width="10.125" style="6" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="6" customWidth="1"/>
+    <col min="15878" max="15878" width="25" style="6" customWidth="1"/>
+    <col min="15879" max="15879" width="17.75" style="6" customWidth="1"/>
+    <col min="15880" max="15880" width="48.25" style="6" customWidth="1"/>
+    <col min="15881" max="15881" width="10.25" style="6" customWidth="1"/>
+    <col min="15882" max="15882" width="25.5" style="6" customWidth="1"/>
+    <col min="15883" max="15883" width="53.125" style="6" customWidth="1"/>
+    <col min="15884" max="15884" width="22.75" style="6" customWidth="1"/>
+    <col min="15885" max="15885" width="72.125" style="6" customWidth="1"/>
+    <col min="15886" max="16131" width="9" style="6"/>
+    <col min="16132" max="16132" width="10.125" style="6" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="6" customWidth="1"/>
+    <col min="16134" max="16134" width="25" style="6" customWidth="1"/>
+    <col min="16135" max="16135" width="17.75" style="6" customWidth="1"/>
+    <col min="16136" max="16136" width="48.25" style="6" customWidth="1"/>
+    <col min="16137" max="16137" width="10.25" style="6" customWidth="1"/>
+    <col min="16138" max="16138" width="25.5" style="6" customWidth="1"/>
+    <col min="16139" max="16139" width="53.125" style="6" customWidth="1"/>
+    <col min="16140" max="16140" width="22.75" style="6" customWidth="1"/>
+    <col min="16141" max="16141" width="72.125" style="6" customWidth="1"/>
+    <col min="16142" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:18">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -2391,46 +2398,46 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2438,41 +2445,41 @@
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2480,41 +2487,41 @@
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2522,39 +2529,39 @@
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2562,39 +2569,39 @@
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2602,41 +2609,41 @@
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2644,19 +2651,19 @@
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2665,22 +2672,22 @@
       <c r="H7" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2688,41 +2695,41 @@
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2730,41 +2737,41 @@
       <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2772,41 +2779,41 @@
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2814,41 +2821,41 @@
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2856,19 +2863,19 @@
       <c r="A12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -2877,22 +2884,22 @@
       <c r="H12" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2900,19 +2907,19 @@
       <c r="A13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2921,22 +2928,22 @@
       <c r="H13" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2944,41 +2951,41 @@
       <c r="A14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2986,41 +2993,41 @@
       <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3028,39 +3035,39 @@
       <c r="A16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="14"/>
+      <c r="L16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3068,39 +3075,39 @@
       <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3108,41 +3115,41 @@
       <c r="A18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3150,41 +3157,41 @@
       <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3192,39 +3199,39 @@
       <c r="A20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="17" t="s">
+      <c r="O20" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3232,41 +3239,41 @@
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="2">
         <v>19180580229</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="17" t="s">
+      <c r="O21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3274,41 +3281,41 @@
       <c r="A22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3316,38 +3323,38 @@
       <c r="A23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2">
         <v>13688468803</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="16" t="s">
         <v>124</v>
       </c>
       <c r="P23" s="18" t="s">
@@ -3355,7 +3362,7 @@
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3370,10 +3377,10 @@
       <c r="E24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="8" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="3">
@@ -3382,24 +3389,24 @@
       <c r="I24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="21" t="s">
+      <c r="O24" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="22" t="s">
+      <c r="P24" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3414,32 +3421,32 @@
       <c r="E25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="3">
         <v>13688468803</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20" t="s">
+      <c r="K25" s="14"/>
+      <c r="L25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="21" t="s">
+      <c r="O25" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3454,34 +3461,34 @@
       <c r="E26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="3">
         <v>13688468803</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="M26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="21" t="s">
+      <c r="O26" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P26" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3496,34 +3503,34 @@
       <c r="E27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="3">
         <v>13688468803</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3538,34 +3545,34 @@
       <c r="E28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="3">
         <v>13688468803</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="14" t="s">
         <v>26</v>
       </c>
       <c r="O28" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3580,34 +3587,34 @@
       <c r="E29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="3">
         <v>13688468803</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="P29" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3622,1151 +3629,1151 @@
       <c r="E30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="12"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="3">
         <v>13688468803</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="14" t="s">
         <v>162</v>
       </c>
       <c r="O30" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="P30" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A31" s="11" t="s">
+    <row r="31" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="3">
+      <c r="G31" s="11"/>
+      <c r="H31" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="19" t="s">
+      <c r="M31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="P31" s="22" t="s">
+      <c r="P31" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A32" s="11" t="s">
+    <row r="32" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A32" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="3">
+      <c r="G32" s="11"/>
+      <c r="H32" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20" t="s">
+      <c r="K32" s="22"/>
+      <c r="L32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="19" t="s">
+      <c r="M32" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="21" t="s">
+      <c r="O32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="22" t="s">
+      <c r="P32" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A33" s="11" t="s">
+    <row r="33" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A33" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="3">
+      <c r="G33" s="11"/>
+      <c r="H33" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A34" s="11" t="s">
+    <row r="34" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A34" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="3">
+      <c r="G34" s="11"/>
+      <c r="H34" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="21" t="s">
+      <c r="O34" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A35" s="11" t="s">
+    <row r="35" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A35" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="3">
+      <c r="G35" s="11"/>
+      <c r="H35" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="19" t="s">
+      <c r="M35" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="21" t="s">
+      <c r="O35" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="P35" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A36" s="11" t="s">
+    <row r="36" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A36" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="3">
+      <c r="G36" s="11"/>
+      <c r="H36" s="4">
         <v>13688468803</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="O36" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="26"/>
-    </row>
-    <row r="38" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="26"/>
-    </row>
-    <row r="39" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="23"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="26"/>
-    </row>
-    <row r="40" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A40" s="13"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="23"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="26"/>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="23"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="26"/>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="23"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="26"/>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="23"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="26"/>
-    </row>
-    <row r="44" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="23"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="26"/>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="23"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="26"/>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="23"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="26"/>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="23"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="26"/>
-    </row>
-    <row r="48" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="23"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="26"/>
-    </row>
-    <row r="49" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="23"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="26"/>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="23"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="26"/>
-    </row>
-    <row r="51" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="23"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="26"/>
-    </row>
-    <row r="52" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="23"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="26"/>
-    </row>
-    <row r="53" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="23"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="26"/>
-    </row>
-    <row r="54" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="23"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="26"/>
-    </row>
-    <row r="55" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="23"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="26"/>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="23"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="26"/>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A57" s="13"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="23"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="26"/>
-    </row>
-    <row r="58" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="23"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="26"/>
-    </row>
-    <row r="59" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="23"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="26"/>
-    </row>
-    <row r="60" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A60" s="13"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="23"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="26"/>
-    </row>
-    <row r="61" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A61" s="13"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="23"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="26"/>
-    </row>
-    <row r="62" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="23"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="26"/>
-    </row>
-    <row r="63" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A63" s="13"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="23"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="26"/>
-    </row>
-    <row r="64" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A64" s="13"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="23"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="26"/>
-    </row>
-    <row r="65" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="23"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="26"/>
-    </row>
-    <row r="66" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A66" s="13"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="23"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="26"/>
-    </row>
-    <row r="67" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A67" s="13"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="23"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="26"/>
-    </row>
-    <row r="68" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="23"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="26"/>
-    </row>
-    <row r="69" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A69" s="13"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="23"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="26"/>
-    </row>
-    <row r="70" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A70" s="13"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="23"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="26"/>
-    </row>
-    <row r="71" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A71" s="13"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="23"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="26"/>
-    </row>
-    <row r="72" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A72" s="13"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="23"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="26"/>
-    </row>
-    <row r="73" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A73" s="13"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="23"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="26"/>
-    </row>
-    <row r="74" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A74" s="13"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="23"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="26"/>
-    </row>
-    <row r="75" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A75" s="13"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="23"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="26"/>
-    </row>
-    <row r="76" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A76" s="13"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="23"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="26"/>
-    </row>
-    <row r="77" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="23"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="26"/>
-    </row>
-    <row r="78" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A78" s="13"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="23"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="26"/>
-    </row>
-    <row r="79" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A79" s="13"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="23"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="26"/>
-    </row>
-    <row r="80" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A80" s="13"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="23"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="26"/>
-    </row>
-    <row r="81" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A81" s="13"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="23"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="26"/>
-    </row>
-    <row r="82" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="23"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="26"/>
-    </row>
-    <row r="83" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A83" s="13"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="23"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="26"/>
-    </row>
-    <row r="84" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A84" s="13"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="23"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="26"/>
-    </row>
-    <row r="85" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A85" s="13"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="23"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="26"/>
-    </row>
-    <row r="86" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A86" s="13"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="23"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="26"/>
-    </row>
-    <row r="87" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A87" s="13"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="23"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="26"/>
-    </row>
-    <row r="88" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A88" s="13"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="23"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="26"/>
-    </row>
-    <row r="89" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A89" s="13"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="23"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="26"/>
-    </row>
-    <row r="90" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A90" s="13"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="23"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="26"/>
-    </row>
-    <row r="91" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A91" s="13"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="23"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="26"/>
-    </row>
-    <row r="92" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A92" s="13"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="23"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="26"/>
-    </row>
-    <row r="93" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A93" s="13"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="23"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="26"/>
-    </row>
-    <row r="94" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A94" s="13"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="23"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="26"/>
-    </row>
-    <row r="95" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A95" s="13"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="23"/>
-      <c r="O95" s="25"/>
-      <c r="P95" s="26"/>
-    </row>
-    <row r="96" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A96" s="13"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="23"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="26"/>
-    </row>
-    <row r="97" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A97" s="13"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="23"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="26"/>
-    </row>
-    <row r="98" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A98" s="13"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="23"/>
-      <c r="O98" s="25"/>
-      <c r="P98" s="26"/>
-    </row>
-    <row r="99" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A99" s="13"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="23"/>
-      <c r="O99" s="25"/>
-      <c r="P99" s="26"/>
-    </row>
-    <row r="100" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A100" s="13"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="23"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="26"/>
-    </row>
-    <row r="101" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A101" s="13"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="23"/>
-      <c r="O101" s="25"/>
-      <c r="P101" s="26"/>
-    </row>
-    <row r="102" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A102" s="13"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="23"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="26"/>
-    </row>
-    <row r="103" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A103" s="13"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="23"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="26"/>
-    </row>
-    <row r="104" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A104" s="13"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="23"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="26"/>
-    </row>
-    <row r="105" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A105" s="13"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="23"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="26"/>
-    </row>
-    <row r="106" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A106" s="13"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="23"/>
-      <c r="O106" s="25"/>
-      <c r="P106" s="26"/>
-    </row>
-    <row r="107" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A107" s="13"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="23"/>
-      <c r="O107" s="25"/>
-      <c r="P107" s="26"/>
-    </row>
-    <row r="108" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A108" s="13"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="23"/>
-      <c r="O108" s="25"/>
-      <c r="P108" s="26"/>
-    </row>
-    <row r="109" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A109" s="13"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="23"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="26"/>
-    </row>
-    <row r="110" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A110" s="13"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="23"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="26"/>
-    </row>
-    <row r="111" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A111" s="13"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="23"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="26"/>
-    </row>
-    <row r="112" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A112" s="13"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="23"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="26"/>
-    </row>
-    <row r="113" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A113" s="13"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="23"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="26"/>
-    </row>
-    <row r="114" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A114" s="13"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="23"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="26"/>
-    </row>
-    <row r="115" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A115" s="13"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="23"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="26"/>
-    </row>
-    <row r="116" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A116" s="13"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="23"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="26"/>
-    </row>
-    <row r="117" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A117" s="13"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="23"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="26"/>
-    </row>
-    <row r="118" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A118" s="13"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="23"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="26"/>
-    </row>
-    <row r="119" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A119" s="13"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="23"/>
-      <c r="O119" s="25"/>
-      <c r="P119" s="26"/>
-    </row>
-    <row r="120" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A120" s="13"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="23"/>
-      <c r="O120" s="25"/>
-      <c r="P120" s="26"/>
-    </row>
-    <row r="121" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A121" s="13"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="23"/>
-      <c r="O121" s="25"/>
-      <c r="P121" s="26"/>
-    </row>
-    <row r="122" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A122" s="13"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="23"/>
-      <c r="O122" s="25"/>
-      <c r="P122" s="26"/>
-    </row>
-    <row r="123" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A123" s="13"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="23"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="26"/>
+    <row r="37" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="27"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
+    </row>
+    <row r="38" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="27"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
+    </row>
+    <row r="39" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="27"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
+    </row>
+    <row r="40" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="27"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="30"/>
+    </row>
+    <row r="41" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="27"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="30"/>
+    </row>
+    <row r="42" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="27"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="30"/>
+    </row>
+    <row r="43" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="27"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="30"/>
+    </row>
+    <row r="44" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="27"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="30"/>
+    </row>
+    <row r="45" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="27"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="30"/>
+    </row>
+    <row r="46" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="27"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="30"/>
+    </row>
+    <row r="47" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="27"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30"/>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="27"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="30"/>
+    </row>
+    <row r="49" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="27"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="30"/>
+    </row>
+    <row r="50" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="27"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="27"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="30"/>
+    </row>
+    <row r="52" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="27"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="30"/>
+    </row>
+    <row r="53" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="27"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="30"/>
+    </row>
+    <row r="54" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="27"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="30"/>
+    </row>
+    <row r="55" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="27"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="30"/>
+    </row>
+    <row r="56" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="27"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
+    </row>
+    <row r="57" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="27"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="30"/>
+    </row>
+    <row r="58" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="27"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
+    </row>
+    <row r="59" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="27"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="30"/>
+    </row>
+    <row r="60" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="27"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="30"/>
+    </row>
+    <row r="61" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="27"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="30"/>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="27"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="30"/>
+    </row>
+    <row r="63" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="27"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="30"/>
+    </row>
+    <row r="64" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="27"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="27"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="27"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="30"/>
+    </row>
+    <row r="67" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="27"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="30"/>
+    </row>
+    <row r="68" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="27"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="30"/>
+    </row>
+    <row r="69" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="27"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="30"/>
+    </row>
+    <row r="70" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="27"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="30"/>
+    </row>
+    <row r="71" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="27"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="30"/>
+    </row>
+    <row r="72" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="27"/>
+      <c r="O72" s="29"/>
+      <c r="P72" s="30"/>
+    </row>
+    <row r="73" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="27"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="30"/>
+    </row>
+    <row r="74" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="27"/>
+      <c r="O74" s="29"/>
+      <c r="P74" s="30"/>
+    </row>
+    <row r="75" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="27"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="30"/>
+    </row>
+    <row r="76" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="27"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="30"/>
+    </row>
+    <row r="77" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="27"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="30"/>
+    </row>
+    <row r="78" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A78" s="12"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="27"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="30"/>
+    </row>
+    <row r="79" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="27"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="30"/>
+    </row>
+    <row r="80" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A80" s="12"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="27"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="30"/>
+    </row>
+    <row r="81" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="27"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="30"/>
+    </row>
+    <row r="82" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="27"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="30"/>
+    </row>
+    <row r="83" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="27"/>
+      <c r="O83" s="29"/>
+      <c r="P83" s="30"/>
+    </row>
+    <row r="84" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A84" s="12"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="27"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="30"/>
+    </row>
+    <row r="85" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A85" s="12"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="27"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="30"/>
+    </row>
+    <row r="86" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A86" s="12"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="27"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="30"/>
+    </row>
+    <row r="87" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A87" s="12"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="27"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="30"/>
+    </row>
+    <row r="88" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A88" s="12"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="27"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="30"/>
+    </row>
+    <row r="89" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A89" s="12"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="27"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="30"/>
+    </row>
+    <row r="90" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A90" s="12"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="27"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="30"/>
+    </row>
+    <row r="91" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="27"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="30"/>
+    </row>
+    <row r="92" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A92" s="12"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="27"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="30"/>
+    </row>
+    <row r="93" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A93" s="12"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="27"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="30"/>
+    </row>
+    <row r="94" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A94" s="12"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="27"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="30"/>
+    </row>
+    <row r="95" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="27"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="30"/>
+    </row>
+    <row r="96" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A96" s="12"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="27"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="30"/>
+    </row>
+    <row r="97" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A97" s="12"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="27"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="30"/>
+    </row>
+    <row r="98" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A98" s="12"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="27"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="30"/>
+    </row>
+    <row r="99" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A99" s="12"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="27"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="30"/>
+    </row>
+    <row r="100" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A100" s="12"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="27"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="30"/>
+    </row>
+    <row r="101" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A101" s="12"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="27"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="30"/>
+    </row>
+    <row r="102" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A102" s="12"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="27"/>
+      <c r="O102" s="29"/>
+      <c r="P102" s="30"/>
+    </row>
+    <row r="103" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A103" s="12"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="27"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="30"/>
+    </row>
+    <row r="104" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A104" s="12"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="27"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="30"/>
+    </row>
+    <row r="105" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A105" s="12"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="27"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="30"/>
+    </row>
+    <row r="106" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="27"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="30"/>
+    </row>
+    <row r="107" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A107" s="12"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="27"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="30"/>
+    </row>
+    <row r="108" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A108" s="12"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="27"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="30"/>
+    </row>
+    <row r="109" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A109" s="12"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="27"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="30"/>
+    </row>
+    <row r="110" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A110" s="12"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="27"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="30"/>
+    </row>
+    <row r="111" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A111" s="12"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="27"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="30"/>
+    </row>
+    <row r="112" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A112" s="12"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="27"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="30"/>
+    </row>
+    <row r="113" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A113" s="12"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="27"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="30"/>
+    </row>
+    <row r="114" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A114" s="12"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="27"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="30"/>
+    </row>
+    <row r="115" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A115" s="12"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="27"/>
+      <c r="O115" s="29"/>
+      <c r="P115" s="30"/>
+    </row>
+    <row r="116" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A116" s="12"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="27"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="30"/>
+    </row>
+    <row r="117" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A117" s="12"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="27"/>
+      <c r="O117" s="29"/>
+      <c r="P117" s="30"/>
+    </row>
+    <row r="118" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A118" s="12"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="27"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="30"/>
+    </row>
+    <row r="119" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A119" s="12"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="27"/>
+      <c r="O119" s="29"/>
+      <c r="P119" s="30"/>
+    </row>
+    <row r="120" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A120" s="12"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="27"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="30"/>
+    </row>
+    <row r="121" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A121" s="12"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="27"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="30"/>
+    </row>
+    <row r="122" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A122" s="12"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="28"/>
+      <c r="M122" s="27"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="30"/>
+    </row>
+    <row r="123" s="5" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A123" s="12"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="27"/>
+      <c r="O123" s="29"/>
+      <c r="P123" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4811,6 +4818,7 @@
     <hyperlink ref="O34" r:id="rId28" display="http://yapi.hikcreate.com/project/32/interface/api/10925"/>
     <hyperlink ref="O35" r:id="rId29" display="http://yapi.hikcreate.com/project/32/interface/api/52314"/>
     <hyperlink ref="O36" r:id="rId19" display="http://yapi.hikcreate.com/project/32/interface/api/62286"/>
+    <hyperlink ref="P23" r:id="rId30" display="http://testbmcpvtapp.hikcreate.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test_case_data/bmc/bmc_prize20210531.xlsx
+++ b/test_case_data/bmc/bmc_prize20210531.xlsx
@@ -1264,7 +1264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,9 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,12 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1323,17 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1665,784 +1645,784 @@
   <sheetPr/>
   <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C36" sqref="$A36:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.8833333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="55.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.3583333333333" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="53.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="72.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="49.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="31.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="28.125" style="6" customWidth="1"/>
-    <col min="19" max="259" width="9" style="6"/>
-    <col min="260" max="260" width="10.125" style="6" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="6" customWidth="1"/>
-    <col min="262" max="262" width="25" style="6" customWidth="1"/>
-    <col min="263" max="263" width="17.75" style="6" customWidth="1"/>
-    <col min="264" max="264" width="48.25" style="6" customWidth="1"/>
-    <col min="265" max="265" width="10.25" style="6" customWidth="1"/>
-    <col min="266" max="266" width="25.5" style="6" customWidth="1"/>
-    <col min="267" max="267" width="53.125" style="6" customWidth="1"/>
-    <col min="268" max="268" width="22.75" style="6" customWidth="1"/>
-    <col min="269" max="269" width="72.125" style="6" customWidth="1"/>
-    <col min="270" max="515" width="9" style="6"/>
-    <col min="516" max="516" width="10.125" style="6" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="6" customWidth="1"/>
-    <col min="518" max="518" width="25" style="6" customWidth="1"/>
-    <col min="519" max="519" width="17.75" style="6" customWidth="1"/>
-    <col min="520" max="520" width="48.25" style="6" customWidth="1"/>
-    <col min="521" max="521" width="10.25" style="6" customWidth="1"/>
-    <col min="522" max="522" width="25.5" style="6" customWidth="1"/>
-    <col min="523" max="523" width="53.125" style="6" customWidth="1"/>
-    <col min="524" max="524" width="22.75" style="6" customWidth="1"/>
-    <col min="525" max="525" width="72.125" style="6" customWidth="1"/>
-    <col min="526" max="771" width="9" style="6"/>
-    <col min="772" max="772" width="10.125" style="6" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="6" customWidth="1"/>
-    <col min="774" max="774" width="25" style="6" customWidth="1"/>
-    <col min="775" max="775" width="17.75" style="6" customWidth="1"/>
-    <col min="776" max="776" width="48.25" style="6" customWidth="1"/>
-    <col min="777" max="777" width="10.25" style="6" customWidth="1"/>
-    <col min="778" max="778" width="25.5" style="6" customWidth="1"/>
-    <col min="779" max="779" width="53.125" style="6" customWidth="1"/>
-    <col min="780" max="780" width="22.75" style="6" customWidth="1"/>
-    <col min="781" max="781" width="72.125" style="6" customWidth="1"/>
-    <col min="782" max="1027" width="9" style="6"/>
-    <col min="1028" max="1028" width="10.125" style="6" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="6" customWidth="1"/>
-    <col min="1030" max="1030" width="25" style="6" customWidth="1"/>
-    <col min="1031" max="1031" width="17.75" style="6" customWidth="1"/>
-    <col min="1032" max="1032" width="48.25" style="6" customWidth="1"/>
-    <col min="1033" max="1033" width="10.25" style="6" customWidth="1"/>
-    <col min="1034" max="1034" width="25.5" style="6" customWidth="1"/>
-    <col min="1035" max="1035" width="53.125" style="6" customWidth="1"/>
-    <col min="1036" max="1036" width="22.75" style="6" customWidth="1"/>
-    <col min="1037" max="1037" width="72.125" style="6" customWidth="1"/>
-    <col min="1038" max="1283" width="9" style="6"/>
-    <col min="1284" max="1284" width="10.125" style="6" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="6" customWidth="1"/>
-    <col min="1286" max="1286" width="25" style="6" customWidth="1"/>
-    <col min="1287" max="1287" width="17.75" style="6" customWidth="1"/>
-    <col min="1288" max="1288" width="48.25" style="6" customWidth="1"/>
-    <col min="1289" max="1289" width="10.25" style="6" customWidth="1"/>
-    <col min="1290" max="1290" width="25.5" style="6" customWidth="1"/>
-    <col min="1291" max="1291" width="53.125" style="6" customWidth="1"/>
-    <col min="1292" max="1292" width="22.75" style="6" customWidth="1"/>
-    <col min="1293" max="1293" width="72.125" style="6" customWidth="1"/>
-    <col min="1294" max="1539" width="9" style="6"/>
-    <col min="1540" max="1540" width="10.125" style="6" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="6" customWidth="1"/>
-    <col min="1542" max="1542" width="25" style="6" customWidth="1"/>
-    <col min="1543" max="1543" width="17.75" style="6" customWidth="1"/>
-    <col min="1544" max="1544" width="48.25" style="6" customWidth="1"/>
-    <col min="1545" max="1545" width="10.25" style="6" customWidth="1"/>
-    <col min="1546" max="1546" width="25.5" style="6" customWidth="1"/>
-    <col min="1547" max="1547" width="53.125" style="6" customWidth="1"/>
-    <col min="1548" max="1548" width="22.75" style="6" customWidth="1"/>
-    <col min="1549" max="1549" width="72.125" style="6" customWidth="1"/>
-    <col min="1550" max="1795" width="9" style="6"/>
-    <col min="1796" max="1796" width="10.125" style="6" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="6" customWidth="1"/>
-    <col min="1798" max="1798" width="25" style="6" customWidth="1"/>
-    <col min="1799" max="1799" width="17.75" style="6" customWidth="1"/>
-    <col min="1800" max="1800" width="48.25" style="6" customWidth="1"/>
-    <col min="1801" max="1801" width="10.25" style="6" customWidth="1"/>
-    <col min="1802" max="1802" width="25.5" style="6" customWidth="1"/>
-    <col min="1803" max="1803" width="53.125" style="6" customWidth="1"/>
-    <col min="1804" max="1804" width="22.75" style="6" customWidth="1"/>
-    <col min="1805" max="1805" width="72.125" style="6" customWidth="1"/>
-    <col min="1806" max="2051" width="9" style="6"/>
-    <col min="2052" max="2052" width="10.125" style="6" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="6" customWidth="1"/>
-    <col min="2054" max="2054" width="25" style="6" customWidth="1"/>
-    <col min="2055" max="2055" width="17.75" style="6" customWidth="1"/>
-    <col min="2056" max="2056" width="48.25" style="6" customWidth="1"/>
-    <col min="2057" max="2057" width="10.25" style="6" customWidth="1"/>
-    <col min="2058" max="2058" width="25.5" style="6" customWidth="1"/>
-    <col min="2059" max="2059" width="53.125" style="6" customWidth="1"/>
-    <col min="2060" max="2060" width="22.75" style="6" customWidth="1"/>
-    <col min="2061" max="2061" width="72.125" style="6" customWidth="1"/>
-    <col min="2062" max="2307" width="9" style="6"/>
-    <col min="2308" max="2308" width="10.125" style="6" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="6" customWidth="1"/>
-    <col min="2310" max="2310" width="25" style="6" customWidth="1"/>
-    <col min="2311" max="2311" width="17.75" style="6" customWidth="1"/>
-    <col min="2312" max="2312" width="48.25" style="6" customWidth="1"/>
-    <col min="2313" max="2313" width="10.25" style="6" customWidth="1"/>
-    <col min="2314" max="2314" width="25.5" style="6" customWidth="1"/>
-    <col min="2315" max="2315" width="53.125" style="6" customWidth="1"/>
-    <col min="2316" max="2316" width="22.75" style="6" customWidth="1"/>
-    <col min="2317" max="2317" width="72.125" style="6" customWidth="1"/>
-    <col min="2318" max="2563" width="9" style="6"/>
-    <col min="2564" max="2564" width="10.125" style="6" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="6" customWidth="1"/>
-    <col min="2566" max="2566" width="25" style="6" customWidth="1"/>
-    <col min="2567" max="2567" width="17.75" style="6" customWidth="1"/>
-    <col min="2568" max="2568" width="48.25" style="6" customWidth="1"/>
-    <col min="2569" max="2569" width="10.25" style="6" customWidth="1"/>
-    <col min="2570" max="2570" width="25.5" style="6" customWidth="1"/>
-    <col min="2571" max="2571" width="53.125" style="6" customWidth="1"/>
-    <col min="2572" max="2572" width="22.75" style="6" customWidth="1"/>
-    <col min="2573" max="2573" width="72.125" style="6" customWidth="1"/>
-    <col min="2574" max="2819" width="9" style="6"/>
-    <col min="2820" max="2820" width="10.125" style="6" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="6" customWidth="1"/>
-    <col min="2822" max="2822" width="25" style="6" customWidth="1"/>
-    <col min="2823" max="2823" width="17.75" style="6" customWidth="1"/>
-    <col min="2824" max="2824" width="48.25" style="6" customWidth="1"/>
-    <col min="2825" max="2825" width="10.25" style="6" customWidth="1"/>
-    <col min="2826" max="2826" width="25.5" style="6" customWidth="1"/>
-    <col min="2827" max="2827" width="53.125" style="6" customWidth="1"/>
-    <col min="2828" max="2828" width="22.75" style="6" customWidth="1"/>
-    <col min="2829" max="2829" width="72.125" style="6" customWidth="1"/>
-    <col min="2830" max="3075" width="9" style="6"/>
-    <col min="3076" max="3076" width="10.125" style="6" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="6" customWidth="1"/>
-    <col min="3078" max="3078" width="25" style="6" customWidth="1"/>
-    <col min="3079" max="3079" width="17.75" style="6" customWidth="1"/>
-    <col min="3080" max="3080" width="48.25" style="6" customWidth="1"/>
-    <col min="3081" max="3081" width="10.25" style="6" customWidth="1"/>
-    <col min="3082" max="3082" width="25.5" style="6" customWidth="1"/>
-    <col min="3083" max="3083" width="53.125" style="6" customWidth="1"/>
-    <col min="3084" max="3084" width="22.75" style="6" customWidth="1"/>
-    <col min="3085" max="3085" width="72.125" style="6" customWidth="1"/>
-    <col min="3086" max="3331" width="9" style="6"/>
-    <col min="3332" max="3332" width="10.125" style="6" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="6" customWidth="1"/>
-    <col min="3334" max="3334" width="25" style="6" customWidth="1"/>
-    <col min="3335" max="3335" width="17.75" style="6" customWidth="1"/>
-    <col min="3336" max="3336" width="48.25" style="6" customWidth="1"/>
-    <col min="3337" max="3337" width="10.25" style="6" customWidth="1"/>
-    <col min="3338" max="3338" width="25.5" style="6" customWidth="1"/>
-    <col min="3339" max="3339" width="53.125" style="6" customWidth="1"/>
-    <col min="3340" max="3340" width="22.75" style="6" customWidth="1"/>
-    <col min="3341" max="3341" width="72.125" style="6" customWidth="1"/>
-    <col min="3342" max="3587" width="9" style="6"/>
-    <col min="3588" max="3588" width="10.125" style="6" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="6" customWidth="1"/>
-    <col min="3590" max="3590" width="25" style="6" customWidth="1"/>
-    <col min="3591" max="3591" width="17.75" style="6" customWidth="1"/>
-    <col min="3592" max="3592" width="48.25" style="6" customWidth="1"/>
-    <col min="3593" max="3593" width="10.25" style="6" customWidth="1"/>
-    <col min="3594" max="3594" width="25.5" style="6" customWidth="1"/>
-    <col min="3595" max="3595" width="53.125" style="6" customWidth="1"/>
-    <col min="3596" max="3596" width="22.75" style="6" customWidth="1"/>
-    <col min="3597" max="3597" width="72.125" style="6" customWidth="1"/>
-    <col min="3598" max="3843" width="9" style="6"/>
-    <col min="3844" max="3844" width="10.125" style="6" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="6" customWidth="1"/>
-    <col min="3846" max="3846" width="25" style="6" customWidth="1"/>
-    <col min="3847" max="3847" width="17.75" style="6" customWidth="1"/>
-    <col min="3848" max="3848" width="48.25" style="6" customWidth="1"/>
-    <col min="3849" max="3849" width="10.25" style="6" customWidth="1"/>
-    <col min="3850" max="3850" width="25.5" style="6" customWidth="1"/>
-    <col min="3851" max="3851" width="53.125" style="6" customWidth="1"/>
-    <col min="3852" max="3852" width="22.75" style="6" customWidth="1"/>
-    <col min="3853" max="3853" width="72.125" style="6" customWidth="1"/>
-    <col min="3854" max="4099" width="9" style="6"/>
-    <col min="4100" max="4100" width="10.125" style="6" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="6" customWidth="1"/>
-    <col min="4102" max="4102" width="25" style="6" customWidth="1"/>
-    <col min="4103" max="4103" width="17.75" style="6" customWidth="1"/>
-    <col min="4104" max="4104" width="48.25" style="6" customWidth="1"/>
-    <col min="4105" max="4105" width="10.25" style="6" customWidth="1"/>
-    <col min="4106" max="4106" width="25.5" style="6" customWidth="1"/>
-    <col min="4107" max="4107" width="53.125" style="6" customWidth="1"/>
-    <col min="4108" max="4108" width="22.75" style="6" customWidth="1"/>
-    <col min="4109" max="4109" width="72.125" style="6" customWidth="1"/>
-    <col min="4110" max="4355" width="9" style="6"/>
-    <col min="4356" max="4356" width="10.125" style="6" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="6" customWidth="1"/>
-    <col min="4358" max="4358" width="25" style="6" customWidth="1"/>
-    <col min="4359" max="4359" width="17.75" style="6" customWidth="1"/>
-    <col min="4360" max="4360" width="48.25" style="6" customWidth="1"/>
-    <col min="4361" max="4361" width="10.25" style="6" customWidth="1"/>
-    <col min="4362" max="4362" width="25.5" style="6" customWidth="1"/>
-    <col min="4363" max="4363" width="53.125" style="6" customWidth="1"/>
-    <col min="4364" max="4364" width="22.75" style="6" customWidth="1"/>
-    <col min="4365" max="4365" width="72.125" style="6" customWidth="1"/>
-    <col min="4366" max="4611" width="9" style="6"/>
-    <col min="4612" max="4612" width="10.125" style="6" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="6" customWidth="1"/>
-    <col min="4614" max="4614" width="25" style="6" customWidth="1"/>
-    <col min="4615" max="4615" width="17.75" style="6" customWidth="1"/>
-    <col min="4616" max="4616" width="48.25" style="6" customWidth="1"/>
-    <col min="4617" max="4617" width="10.25" style="6" customWidth="1"/>
-    <col min="4618" max="4618" width="25.5" style="6" customWidth="1"/>
-    <col min="4619" max="4619" width="53.125" style="6" customWidth="1"/>
-    <col min="4620" max="4620" width="22.75" style="6" customWidth="1"/>
-    <col min="4621" max="4621" width="72.125" style="6" customWidth="1"/>
-    <col min="4622" max="4867" width="9" style="6"/>
-    <col min="4868" max="4868" width="10.125" style="6" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="6" customWidth="1"/>
-    <col min="4870" max="4870" width="25" style="6" customWidth="1"/>
-    <col min="4871" max="4871" width="17.75" style="6" customWidth="1"/>
-    <col min="4872" max="4872" width="48.25" style="6" customWidth="1"/>
-    <col min="4873" max="4873" width="10.25" style="6" customWidth="1"/>
-    <col min="4874" max="4874" width="25.5" style="6" customWidth="1"/>
-    <col min="4875" max="4875" width="53.125" style="6" customWidth="1"/>
-    <col min="4876" max="4876" width="22.75" style="6" customWidth="1"/>
-    <col min="4877" max="4877" width="72.125" style="6" customWidth="1"/>
-    <col min="4878" max="5123" width="9" style="6"/>
-    <col min="5124" max="5124" width="10.125" style="6" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="6" customWidth="1"/>
-    <col min="5126" max="5126" width="25" style="6" customWidth="1"/>
-    <col min="5127" max="5127" width="17.75" style="6" customWidth="1"/>
-    <col min="5128" max="5128" width="48.25" style="6" customWidth="1"/>
-    <col min="5129" max="5129" width="10.25" style="6" customWidth="1"/>
-    <col min="5130" max="5130" width="25.5" style="6" customWidth="1"/>
-    <col min="5131" max="5131" width="53.125" style="6" customWidth="1"/>
-    <col min="5132" max="5132" width="22.75" style="6" customWidth="1"/>
-    <col min="5133" max="5133" width="72.125" style="6" customWidth="1"/>
-    <col min="5134" max="5379" width="9" style="6"/>
-    <col min="5380" max="5380" width="10.125" style="6" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="6" customWidth="1"/>
-    <col min="5382" max="5382" width="25" style="6" customWidth="1"/>
-    <col min="5383" max="5383" width="17.75" style="6" customWidth="1"/>
-    <col min="5384" max="5384" width="48.25" style="6" customWidth="1"/>
-    <col min="5385" max="5385" width="10.25" style="6" customWidth="1"/>
-    <col min="5386" max="5386" width="25.5" style="6" customWidth="1"/>
-    <col min="5387" max="5387" width="53.125" style="6" customWidth="1"/>
-    <col min="5388" max="5388" width="22.75" style="6" customWidth="1"/>
-    <col min="5389" max="5389" width="72.125" style="6" customWidth="1"/>
-    <col min="5390" max="5635" width="9" style="6"/>
-    <col min="5636" max="5636" width="10.125" style="6" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="6" customWidth="1"/>
-    <col min="5638" max="5638" width="25" style="6" customWidth="1"/>
-    <col min="5639" max="5639" width="17.75" style="6" customWidth="1"/>
-    <col min="5640" max="5640" width="48.25" style="6" customWidth="1"/>
-    <col min="5641" max="5641" width="10.25" style="6" customWidth="1"/>
-    <col min="5642" max="5642" width="25.5" style="6" customWidth="1"/>
-    <col min="5643" max="5643" width="53.125" style="6" customWidth="1"/>
-    <col min="5644" max="5644" width="22.75" style="6" customWidth="1"/>
-    <col min="5645" max="5645" width="72.125" style="6" customWidth="1"/>
-    <col min="5646" max="5891" width="9" style="6"/>
-    <col min="5892" max="5892" width="10.125" style="6" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="6" customWidth="1"/>
-    <col min="5894" max="5894" width="25" style="6" customWidth="1"/>
-    <col min="5895" max="5895" width="17.75" style="6" customWidth="1"/>
-    <col min="5896" max="5896" width="48.25" style="6" customWidth="1"/>
-    <col min="5897" max="5897" width="10.25" style="6" customWidth="1"/>
-    <col min="5898" max="5898" width="25.5" style="6" customWidth="1"/>
-    <col min="5899" max="5899" width="53.125" style="6" customWidth="1"/>
-    <col min="5900" max="5900" width="22.75" style="6" customWidth="1"/>
-    <col min="5901" max="5901" width="72.125" style="6" customWidth="1"/>
-    <col min="5902" max="6147" width="9" style="6"/>
-    <col min="6148" max="6148" width="10.125" style="6" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="6" customWidth="1"/>
-    <col min="6150" max="6150" width="25" style="6" customWidth="1"/>
-    <col min="6151" max="6151" width="17.75" style="6" customWidth="1"/>
-    <col min="6152" max="6152" width="48.25" style="6" customWidth="1"/>
-    <col min="6153" max="6153" width="10.25" style="6" customWidth="1"/>
-    <col min="6154" max="6154" width="25.5" style="6" customWidth="1"/>
-    <col min="6155" max="6155" width="53.125" style="6" customWidth="1"/>
-    <col min="6156" max="6156" width="22.75" style="6" customWidth="1"/>
-    <col min="6157" max="6157" width="72.125" style="6" customWidth="1"/>
-    <col min="6158" max="6403" width="9" style="6"/>
-    <col min="6404" max="6404" width="10.125" style="6" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="6" customWidth="1"/>
-    <col min="6406" max="6406" width="25" style="6" customWidth="1"/>
-    <col min="6407" max="6407" width="17.75" style="6" customWidth="1"/>
-    <col min="6408" max="6408" width="48.25" style="6" customWidth="1"/>
-    <col min="6409" max="6409" width="10.25" style="6" customWidth="1"/>
-    <col min="6410" max="6410" width="25.5" style="6" customWidth="1"/>
-    <col min="6411" max="6411" width="53.125" style="6" customWidth="1"/>
-    <col min="6412" max="6412" width="22.75" style="6" customWidth="1"/>
-    <col min="6413" max="6413" width="72.125" style="6" customWidth="1"/>
-    <col min="6414" max="6659" width="9" style="6"/>
-    <col min="6660" max="6660" width="10.125" style="6" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="6" customWidth="1"/>
-    <col min="6662" max="6662" width="25" style="6" customWidth="1"/>
-    <col min="6663" max="6663" width="17.75" style="6" customWidth="1"/>
-    <col min="6664" max="6664" width="48.25" style="6" customWidth="1"/>
-    <col min="6665" max="6665" width="10.25" style="6" customWidth="1"/>
-    <col min="6666" max="6666" width="25.5" style="6" customWidth="1"/>
-    <col min="6667" max="6667" width="53.125" style="6" customWidth="1"/>
-    <col min="6668" max="6668" width="22.75" style="6" customWidth="1"/>
-    <col min="6669" max="6669" width="72.125" style="6" customWidth="1"/>
-    <col min="6670" max="6915" width="9" style="6"/>
-    <col min="6916" max="6916" width="10.125" style="6" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="6" customWidth="1"/>
-    <col min="6918" max="6918" width="25" style="6" customWidth="1"/>
-    <col min="6919" max="6919" width="17.75" style="6" customWidth="1"/>
-    <col min="6920" max="6920" width="48.25" style="6" customWidth="1"/>
-    <col min="6921" max="6921" width="10.25" style="6" customWidth="1"/>
-    <col min="6922" max="6922" width="25.5" style="6" customWidth="1"/>
-    <col min="6923" max="6923" width="53.125" style="6" customWidth="1"/>
-    <col min="6924" max="6924" width="22.75" style="6" customWidth="1"/>
-    <col min="6925" max="6925" width="72.125" style="6" customWidth="1"/>
-    <col min="6926" max="7171" width="9" style="6"/>
-    <col min="7172" max="7172" width="10.125" style="6" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="6" customWidth="1"/>
-    <col min="7174" max="7174" width="25" style="6" customWidth="1"/>
-    <col min="7175" max="7175" width="17.75" style="6" customWidth="1"/>
-    <col min="7176" max="7176" width="48.25" style="6" customWidth="1"/>
-    <col min="7177" max="7177" width="10.25" style="6" customWidth="1"/>
-    <col min="7178" max="7178" width="25.5" style="6" customWidth="1"/>
-    <col min="7179" max="7179" width="53.125" style="6" customWidth="1"/>
-    <col min="7180" max="7180" width="22.75" style="6" customWidth="1"/>
-    <col min="7181" max="7181" width="72.125" style="6" customWidth="1"/>
-    <col min="7182" max="7427" width="9" style="6"/>
-    <col min="7428" max="7428" width="10.125" style="6" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="6" customWidth="1"/>
-    <col min="7430" max="7430" width="25" style="6" customWidth="1"/>
-    <col min="7431" max="7431" width="17.75" style="6" customWidth="1"/>
-    <col min="7432" max="7432" width="48.25" style="6" customWidth="1"/>
-    <col min="7433" max="7433" width="10.25" style="6" customWidth="1"/>
-    <col min="7434" max="7434" width="25.5" style="6" customWidth="1"/>
-    <col min="7435" max="7435" width="53.125" style="6" customWidth="1"/>
-    <col min="7436" max="7436" width="22.75" style="6" customWidth="1"/>
-    <col min="7437" max="7437" width="72.125" style="6" customWidth="1"/>
-    <col min="7438" max="7683" width="9" style="6"/>
-    <col min="7684" max="7684" width="10.125" style="6" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="6" customWidth="1"/>
-    <col min="7686" max="7686" width="25" style="6" customWidth="1"/>
-    <col min="7687" max="7687" width="17.75" style="6" customWidth="1"/>
-    <col min="7688" max="7688" width="48.25" style="6" customWidth="1"/>
-    <col min="7689" max="7689" width="10.25" style="6" customWidth="1"/>
-    <col min="7690" max="7690" width="25.5" style="6" customWidth="1"/>
-    <col min="7691" max="7691" width="53.125" style="6" customWidth="1"/>
-    <col min="7692" max="7692" width="22.75" style="6" customWidth="1"/>
-    <col min="7693" max="7693" width="72.125" style="6" customWidth="1"/>
-    <col min="7694" max="7939" width="9" style="6"/>
-    <col min="7940" max="7940" width="10.125" style="6" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="6" customWidth="1"/>
-    <col min="7942" max="7942" width="25" style="6" customWidth="1"/>
-    <col min="7943" max="7943" width="17.75" style="6" customWidth="1"/>
-    <col min="7944" max="7944" width="48.25" style="6" customWidth="1"/>
-    <col min="7945" max="7945" width="10.25" style="6" customWidth="1"/>
-    <col min="7946" max="7946" width="25.5" style="6" customWidth="1"/>
-    <col min="7947" max="7947" width="53.125" style="6" customWidth="1"/>
-    <col min="7948" max="7948" width="22.75" style="6" customWidth="1"/>
-    <col min="7949" max="7949" width="72.125" style="6" customWidth="1"/>
-    <col min="7950" max="8195" width="9" style="6"/>
-    <col min="8196" max="8196" width="10.125" style="6" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="6" customWidth="1"/>
-    <col min="8198" max="8198" width="25" style="6" customWidth="1"/>
-    <col min="8199" max="8199" width="17.75" style="6" customWidth="1"/>
-    <col min="8200" max="8200" width="48.25" style="6" customWidth="1"/>
-    <col min="8201" max="8201" width="10.25" style="6" customWidth="1"/>
-    <col min="8202" max="8202" width="25.5" style="6" customWidth="1"/>
-    <col min="8203" max="8203" width="53.125" style="6" customWidth="1"/>
-    <col min="8204" max="8204" width="22.75" style="6" customWidth="1"/>
-    <col min="8205" max="8205" width="72.125" style="6" customWidth="1"/>
-    <col min="8206" max="8451" width="9" style="6"/>
-    <col min="8452" max="8452" width="10.125" style="6" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="6" customWidth="1"/>
-    <col min="8454" max="8454" width="25" style="6" customWidth="1"/>
-    <col min="8455" max="8455" width="17.75" style="6" customWidth="1"/>
-    <col min="8456" max="8456" width="48.25" style="6" customWidth="1"/>
-    <col min="8457" max="8457" width="10.25" style="6" customWidth="1"/>
-    <col min="8458" max="8458" width="25.5" style="6" customWidth="1"/>
-    <col min="8459" max="8459" width="53.125" style="6" customWidth="1"/>
-    <col min="8460" max="8460" width="22.75" style="6" customWidth="1"/>
-    <col min="8461" max="8461" width="72.125" style="6" customWidth="1"/>
-    <col min="8462" max="8707" width="9" style="6"/>
-    <col min="8708" max="8708" width="10.125" style="6" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="6" customWidth="1"/>
-    <col min="8710" max="8710" width="25" style="6" customWidth="1"/>
-    <col min="8711" max="8711" width="17.75" style="6" customWidth="1"/>
-    <col min="8712" max="8712" width="48.25" style="6" customWidth="1"/>
-    <col min="8713" max="8713" width="10.25" style="6" customWidth="1"/>
-    <col min="8714" max="8714" width="25.5" style="6" customWidth="1"/>
-    <col min="8715" max="8715" width="53.125" style="6" customWidth="1"/>
-    <col min="8716" max="8716" width="22.75" style="6" customWidth="1"/>
-    <col min="8717" max="8717" width="72.125" style="6" customWidth="1"/>
-    <col min="8718" max="8963" width="9" style="6"/>
-    <col min="8964" max="8964" width="10.125" style="6" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="6" customWidth="1"/>
-    <col min="8966" max="8966" width="25" style="6" customWidth="1"/>
-    <col min="8967" max="8967" width="17.75" style="6" customWidth="1"/>
-    <col min="8968" max="8968" width="48.25" style="6" customWidth="1"/>
-    <col min="8969" max="8969" width="10.25" style="6" customWidth="1"/>
-    <col min="8970" max="8970" width="25.5" style="6" customWidth="1"/>
-    <col min="8971" max="8971" width="53.125" style="6" customWidth="1"/>
-    <col min="8972" max="8972" width="22.75" style="6" customWidth="1"/>
-    <col min="8973" max="8973" width="72.125" style="6" customWidth="1"/>
-    <col min="8974" max="9219" width="9" style="6"/>
-    <col min="9220" max="9220" width="10.125" style="6" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="6" customWidth="1"/>
-    <col min="9222" max="9222" width="25" style="6" customWidth="1"/>
-    <col min="9223" max="9223" width="17.75" style="6" customWidth="1"/>
-    <col min="9224" max="9224" width="48.25" style="6" customWidth="1"/>
-    <col min="9225" max="9225" width="10.25" style="6" customWidth="1"/>
-    <col min="9226" max="9226" width="25.5" style="6" customWidth="1"/>
-    <col min="9227" max="9227" width="53.125" style="6" customWidth="1"/>
-    <col min="9228" max="9228" width="22.75" style="6" customWidth="1"/>
-    <col min="9229" max="9229" width="72.125" style="6" customWidth="1"/>
-    <col min="9230" max="9475" width="9" style="6"/>
-    <col min="9476" max="9476" width="10.125" style="6" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="6" customWidth="1"/>
-    <col min="9478" max="9478" width="25" style="6" customWidth="1"/>
-    <col min="9479" max="9479" width="17.75" style="6" customWidth="1"/>
-    <col min="9480" max="9480" width="48.25" style="6" customWidth="1"/>
-    <col min="9481" max="9481" width="10.25" style="6" customWidth="1"/>
-    <col min="9482" max="9482" width="25.5" style="6" customWidth="1"/>
-    <col min="9483" max="9483" width="53.125" style="6" customWidth="1"/>
-    <col min="9484" max="9484" width="22.75" style="6" customWidth="1"/>
-    <col min="9485" max="9485" width="72.125" style="6" customWidth="1"/>
-    <col min="9486" max="9731" width="9" style="6"/>
-    <col min="9732" max="9732" width="10.125" style="6" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="6" customWidth="1"/>
-    <col min="9734" max="9734" width="25" style="6" customWidth="1"/>
-    <col min="9735" max="9735" width="17.75" style="6" customWidth="1"/>
-    <col min="9736" max="9736" width="48.25" style="6" customWidth="1"/>
-    <col min="9737" max="9737" width="10.25" style="6" customWidth="1"/>
-    <col min="9738" max="9738" width="25.5" style="6" customWidth="1"/>
-    <col min="9739" max="9739" width="53.125" style="6" customWidth="1"/>
-    <col min="9740" max="9740" width="22.75" style="6" customWidth="1"/>
-    <col min="9741" max="9741" width="72.125" style="6" customWidth="1"/>
-    <col min="9742" max="9987" width="9" style="6"/>
-    <col min="9988" max="9988" width="10.125" style="6" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="6" customWidth="1"/>
-    <col min="9990" max="9990" width="25" style="6" customWidth="1"/>
-    <col min="9991" max="9991" width="17.75" style="6" customWidth="1"/>
-    <col min="9992" max="9992" width="48.25" style="6" customWidth="1"/>
-    <col min="9993" max="9993" width="10.25" style="6" customWidth="1"/>
-    <col min="9994" max="9994" width="25.5" style="6" customWidth="1"/>
-    <col min="9995" max="9995" width="53.125" style="6" customWidth="1"/>
-    <col min="9996" max="9996" width="22.75" style="6" customWidth="1"/>
-    <col min="9997" max="9997" width="72.125" style="6" customWidth="1"/>
-    <col min="9998" max="10243" width="9" style="6"/>
-    <col min="10244" max="10244" width="10.125" style="6" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="6" customWidth="1"/>
-    <col min="10246" max="10246" width="25" style="6" customWidth="1"/>
-    <col min="10247" max="10247" width="17.75" style="6" customWidth="1"/>
-    <col min="10248" max="10248" width="48.25" style="6" customWidth="1"/>
-    <col min="10249" max="10249" width="10.25" style="6" customWidth="1"/>
-    <col min="10250" max="10250" width="25.5" style="6" customWidth="1"/>
-    <col min="10251" max="10251" width="53.125" style="6" customWidth="1"/>
-    <col min="10252" max="10252" width="22.75" style="6" customWidth="1"/>
-    <col min="10253" max="10253" width="72.125" style="6" customWidth="1"/>
-    <col min="10254" max="10499" width="9" style="6"/>
-    <col min="10500" max="10500" width="10.125" style="6" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="6" customWidth="1"/>
-    <col min="10502" max="10502" width="25" style="6" customWidth="1"/>
-    <col min="10503" max="10503" width="17.75" style="6" customWidth="1"/>
-    <col min="10504" max="10504" width="48.25" style="6" customWidth="1"/>
-    <col min="10505" max="10505" width="10.25" style="6" customWidth="1"/>
-    <col min="10506" max="10506" width="25.5" style="6" customWidth="1"/>
-    <col min="10507" max="10507" width="53.125" style="6" customWidth="1"/>
-    <col min="10508" max="10508" width="22.75" style="6" customWidth="1"/>
-    <col min="10509" max="10509" width="72.125" style="6" customWidth="1"/>
-    <col min="10510" max="10755" width="9" style="6"/>
-    <col min="10756" max="10756" width="10.125" style="6" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="6" customWidth="1"/>
-    <col min="10758" max="10758" width="25" style="6" customWidth="1"/>
-    <col min="10759" max="10759" width="17.75" style="6" customWidth="1"/>
-    <col min="10760" max="10760" width="48.25" style="6" customWidth="1"/>
-    <col min="10761" max="10761" width="10.25" style="6" customWidth="1"/>
-    <col min="10762" max="10762" width="25.5" style="6" customWidth="1"/>
-    <col min="10763" max="10763" width="53.125" style="6" customWidth="1"/>
-    <col min="10764" max="10764" width="22.75" style="6" customWidth="1"/>
-    <col min="10765" max="10765" width="72.125" style="6" customWidth="1"/>
-    <col min="10766" max="11011" width="9" style="6"/>
-    <col min="11012" max="11012" width="10.125" style="6" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="6" customWidth="1"/>
-    <col min="11014" max="11014" width="25" style="6" customWidth="1"/>
-    <col min="11015" max="11015" width="17.75" style="6" customWidth="1"/>
-    <col min="11016" max="11016" width="48.25" style="6" customWidth="1"/>
-    <col min="11017" max="11017" width="10.25" style="6" customWidth="1"/>
-    <col min="11018" max="11018" width="25.5" style="6" customWidth="1"/>
-    <col min="11019" max="11019" width="53.125" style="6" customWidth="1"/>
-    <col min="11020" max="11020" width="22.75" style="6" customWidth="1"/>
-    <col min="11021" max="11021" width="72.125" style="6" customWidth="1"/>
-    <col min="11022" max="11267" width="9" style="6"/>
-    <col min="11268" max="11268" width="10.125" style="6" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="6" customWidth="1"/>
-    <col min="11270" max="11270" width="25" style="6" customWidth="1"/>
-    <col min="11271" max="11271" width="17.75" style="6" customWidth="1"/>
-    <col min="11272" max="11272" width="48.25" style="6" customWidth="1"/>
-    <col min="11273" max="11273" width="10.25" style="6" customWidth="1"/>
-    <col min="11274" max="11274" width="25.5" style="6" customWidth="1"/>
-    <col min="11275" max="11275" width="53.125" style="6" customWidth="1"/>
-    <col min="11276" max="11276" width="22.75" style="6" customWidth="1"/>
-    <col min="11277" max="11277" width="72.125" style="6" customWidth="1"/>
-    <col min="11278" max="11523" width="9" style="6"/>
-    <col min="11524" max="11524" width="10.125" style="6" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="6" customWidth="1"/>
-    <col min="11526" max="11526" width="25" style="6" customWidth="1"/>
-    <col min="11527" max="11527" width="17.75" style="6" customWidth="1"/>
-    <col min="11528" max="11528" width="48.25" style="6" customWidth="1"/>
-    <col min="11529" max="11529" width="10.25" style="6" customWidth="1"/>
-    <col min="11530" max="11530" width="25.5" style="6" customWidth="1"/>
-    <col min="11531" max="11531" width="53.125" style="6" customWidth="1"/>
-    <col min="11532" max="11532" width="22.75" style="6" customWidth="1"/>
-    <col min="11533" max="11533" width="72.125" style="6" customWidth="1"/>
-    <col min="11534" max="11779" width="9" style="6"/>
-    <col min="11780" max="11780" width="10.125" style="6" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="6" customWidth="1"/>
-    <col min="11782" max="11782" width="25" style="6" customWidth="1"/>
-    <col min="11783" max="11783" width="17.75" style="6" customWidth="1"/>
-    <col min="11784" max="11784" width="48.25" style="6" customWidth="1"/>
-    <col min="11785" max="11785" width="10.25" style="6" customWidth="1"/>
-    <col min="11786" max="11786" width="25.5" style="6" customWidth="1"/>
-    <col min="11787" max="11787" width="53.125" style="6" customWidth="1"/>
-    <col min="11788" max="11788" width="22.75" style="6" customWidth="1"/>
-    <col min="11789" max="11789" width="72.125" style="6" customWidth="1"/>
-    <col min="11790" max="12035" width="9" style="6"/>
-    <col min="12036" max="12036" width="10.125" style="6" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="6" customWidth="1"/>
-    <col min="12038" max="12038" width="25" style="6" customWidth="1"/>
-    <col min="12039" max="12039" width="17.75" style="6" customWidth="1"/>
-    <col min="12040" max="12040" width="48.25" style="6" customWidth="1"/>
-    <col min="12041" max="12041" width="10.25" style="6" customWidth="1"/>
-    <col min="12042" max="12042" width="25.5" style="6" customWidth="1"/>
-    <col min="12043" max="12043" width="53.125" style="6" customWidth="1"/>
-    <col min="12044" max="12044" width="22.75" style="6" customWidth="1"/>
-    <col min="12045" max="12045" width="72.125" style="6" customWidth="1"/>
-    <col min="12046" max="12291" width="9" style="6"/>
-    <col min="12292" max="12292" width="10.125" style="6" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="6" customWidth="1"/>
-    <col min="12294" max="12294" width="25" style="6" customWidth="1"/>
-    <col min="12295" max="12295" width="17.75" style="6" customWidth="1"/>
-    <col min="12296" max="12296" width="48.25" style="6" customWidth="1"/>
-    <col min="12297" max="12297" width="10.25" style="6" customWidth="1"/>
-    <col min="12298" max="12298" width="25.5" style="6" customWidth="1"/>
-    <col min="12299" max="12299" width="53.125" style="6" customWidth="1"/>
-    <col min="12300" max="12300" width="22.75" style="6" customWidth="1"/>
-    <col min="12301" max="12301" width="72.125" style="6" customWidth="1"/>
-    <col min="12302" max="12547" width="9" style="6"/>
-    <col min="12548" max="12548" width="10.125" style="6" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="6" customWidth="1"/>
-    <col min="12550" max="12550" width="25" style="6" customWidth="1"/>
-    <col min="12551" max="12551" width="17.75" style="6" customWidth="1"/>
-    <col min="12552" max="12552" width="48.25" style="6" customWidth="1"/>
-    <col min="12553" max="12553" width="10.25" style="6" customWidth="1"/>
-    <col min="12554" max="12554" width="25.5" style="6" customWidth="1"/>
-    <col min="12555" max="12555" width="53.125" style="6" customWidth="1"/>
-    <col min="12556" max="12556" width="22.75" style="6" customWidth="1"/>
-    <col min="12557" max="12557" width="72.125" style="6" customWidth="1"/>
-    <col min="12558" max="12803" width="9" style="6"/>
-    <col min="12804" max="12804" width="10.125" style="6" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="6" customWidth="1"/>
-    <col min="12806" max="12806" width="25" style="6" customWidth="1"/>
-    <col min="12807" max="12807" width="17.75" style="6" customWidth="1"/>
-    <col min="12808" max="12808" width="48.25" style="6" customWidth="1"/>
-    <col min="12809" max="12809" width="10.25" style="6" customWidth="1"/>
-    <col min="12810" max="12810" width="25.5" style="6" customWidth="1"/>
-    <col min="12811" max="12811" width="53.125" style="6" customWidth="1"/>
-    <col min="12812" max="12812" width="22.75" style="6" customWidth="1"/>
-    <col min="12813" max="12813" width="72.125" style="6" customWidth="1"/>
-    <col min="12814" max="13059" width="9" style="6"/>
-    <col min="13060" max="13060" width="10.125" style="6" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="6" customWidth="1"/>
-    <col min="13062" max="13062" width="25" style="6" customWidth="1"/>
-    <col min="13063" max="13063" width="17.75" style="6" customWidth="1"/>
-    <col min="13064" max="13064" width="48.25" style="6" customWidth="1"/>
-    <col min="13065" max="13065" width="10.25" style="6" customWidth="1"/>
-    <col min="13066" max="13066" width="25.5" style="6" customWidth="1"/>
-    <col min="13067" max="13067" width="53.125" style="6" customWidth="1"/>
-    <col min="13068" max="13068" width="22.75" style="6" customWidth="1"/>
-    <col min="13069" max="13069" width="72.125" style="6" customWidth="1"/>
-    <col min="13070" max="13315" width="9" style="6"/>
-    <col min="13316" max="13316" width="10.125" style="6" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="6" customWidth="1"/>
-    <col min="13318" max="13318" width="25" style="6" customWidth="1"/>
-    <col min="13319" max="13319" width="17.75" style="6" customWidth="1"/>
-    <col min="13320" max="13320" width="48.25" style="6" customWidth="1"/>
-    <col min="13321" max="13321" width="10.25" style="6" customWidth="1"/>
-    <col min="13322" max="13322" width="25.5" style="6" customWidth="1"/>
-    <col min="13323" max="13323" width="53.125" style="6" customWidth="1"/>
-    <col min="13324" max="13324" width="22.75" style="6" customWidth="1"/>
-    <col min="13325" max="13325" width="72.125" style="6" customWidth="1"/>
-    <col min="13326" max="13571" width="9" style="6"/>
-    <col min="13572" max="13572" width="10.125" style="6" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="6" customWidth="1"/>
-    <col min="13574" max="13574" width="25" style="6" customWidth="1"/>
-    <col min="13575" max="13575" width="17.75" style="6" customWidth="1"/>
-    <col min="13576" max="13576" width="48.25" style="6" customWidth="1"/>
-    <col min="13577" max="13577" width="10.25" style="6" customWidth="1"/>
-    <col min="13578" max="13578" width="25.5" style="6" customWidth="1"/>
-    <col min="13579" max="13579" width="53.125" style="6" customWidth="1"/>
-    <col min="13580" max="13580" width="22.75" style="6" customWidth="1"/>
-    <col min="13581" max="13581" width="72.125" style="6" customWidth="1"/>
-    <col min="13582" max="13827" width="9" style="6"/>
-    <col min="13828" max="13828" width="10.125" style="6" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="6" customWidth="1"/>
-    <col min="13830" max="13830" width="25" style="6" customWidth="1"/>
-    <col min="13831" max="13831" width="17.75" style="6" customWidth="1"/>
-    <col min="13832" max="13832" width="48.25" style="6" customWidth="1"/>
-    <col min="13833" max="13833" width="10.25" style="6" customWidth="1"/>
-    <col min="13834" max="13834" width="25.5" style="6" customWidth="1"/>
-    <col min="13835" max="13835" width="53.125" style="6" customWidth="1"/>
-    <col min="13836" max="13836" width="22.75" style="6" customWidth="1"/>
-    <col min="13837" max="13837" width="72.125" style="6" customWidth="1"/>
-    <col min="13838" max="14083" width="9" style="6"/>
-    <col min="14084" max="14084" width="10.125" style="6" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="6" customWidth="1"/>
-    <col min="14086" max="14086" width="25" style="6" customWidth="1"/>
-    <col min="14087" max="14087" width="17.75" style="6" customWidth="1"/>
-    <col min="14088" max="14088" width="48.25" style="6" customWidth="1"/>
-    <col min="14089" max="14089" width="10.25" style="6" customWidth="1"/>
-    <col min="14090" max="14090" width="25.5" style="6" customWidth="1"/>
-    <col min="14091" max="14091" width="53.125" style="6" customWidth="1"/>
-    <col min="14092" max="14092" width="22.75" style="6" customWidth="1"/>
-    <col min="14093" max="14093" width="72.125" style="6" customWidth="1"/>
-    <col min="14094" max="14339" width="9" style="6"/>
-    <col min="14340" max="14340" width="10.125" style="6" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="6" customWidth="1"/>
-    <col min="14342" max="14342" width="25" style="6" customWidth="1"/>
-    <col min="14343" max="14343" width="17.75" style="6" customWidth="1"/>
-    <col min="14344" max="14344" width="48.25" style="6" customWidth="1"/>
-    <col min="14345" max="14345" width="10.25" style="6" customWidth="1"/>
-    <col min="14346" max="14346" width="25.5" style="6" customWidth="1"/>
-    <col min="14347" max="14347" width="53.125" style="6" customWidth="1"/>
-    <col min="14348" max="14348" width="22.75" style="6" customWidth="1"/>
-    <col min="14349" max="14349" width="72.125" style="6" customWidth="1"/>
-    <col min="14350" max="14595" width="9" style="6"/>
-    <col min="14596" max="14596" width="10.125" style="6" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="6" customWidth="1"/>
-    <col min="14598" max="14598" width="25" style="6" customWidth="1"/>
-    <col min="14599" max="14599" width="17.75" style="6" customWidth="1"/>
-    <col min="14600" max="14600" width="48.25" style="6" customWidth="1"/>
-    <col min="14601" max="14601" width="10.25" style="6" customWidth="1"/>
-    <col min="14602" max="14602" width="25.5" style="6" customWidth="1"/>
-    <col min="14603" max="14603" width="53.125" style="6" customWidth="1"/>
-    <col min="14604" max="14604" width="22.75" style="6" customWidth="1"/>
-    <col min="14605" max="14605" width="72.125" style="6" customWidth="1"/>
-    <col min="14606" max="14851" width="9" style="6"/>
-    <col min="14852" max="14852" width="10.125" style="6" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="6" customWidth="1"/>
-    <col min="14854" max="14854" width="25" style="6" customWidth="1"/>
-    <col min="14855" max="14855" width="17.75" style="6" customWidth="1"/>
-    <col min="14856" max="14856" width="48.25" style="6" customWidth="1"/>
-    <col min="14857" max="14857" width="10.25" style="6" customWidth="1"/>
-    <col min="14858" max="14858" width="25.5" style="6" customWidth="1"/>
-    <col min="14859" max="14859" width="53.125" style="6" customWidth="1"/>
-    <col min="14860" max="14860" width="22.75" style="6" customWidth="1"/>
-    <col min="14861" max="14861" width="72.125" style="6" customWidth="1"/>
-    <col min="14862" max="15107" width="9" style="6"/>
-    <col min="15108" max="15108" width="10.125" style="6" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="6" customWidth="1"/>
-    <col min="15110" max="15110" width="25" style="6" customWidth="1"/>
-    <col min="15111" max="15111" width="17.75" style="6" customWidth="1"/>
-    <col min="15112" max="15112" width="48.25" style="6" customWidth="1"/>
-    <col min="15113" max="15113" width="10.25" style="6" customWidth="1"/>
-    <col min="15114" max="15114" width="25.5" style="6" customWidth="1"/>
-    <col min="15115" max="15115" width="53.125" style="6" customWidth="1"/>
-    <col min="15116" max="15116" width="22.75" style="6" customWidth="1"/>
-    <col min="15117" max="15117" width="72.125" style="6" customWidth="1"/>
-    <col min="15118" max="15363" width="9" style="6"/>
-    <col min="15364" max="15364" width="10.125" style="6" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="6" customWidth="1"/>
-    <col min="15366" max="15366" width="25" style="6" customWidth="1"/>
-    <col min="15367" max="15367" width="17.75" style="6" customWidth="1"/>
-    <col min="15368" max="15368" width="48.25" style="6" customWidth="1"/>
-    <col min="15369" max="15369" width="10.25" style="6" customWidth="1"/>
-    <col min="15370" max="15370" width="25.5" style="6" customWidth="1"/>
-    <col min="15371" max="15371" width="53.125" style="6" customWidth="1"/>
-    <col min="15372" max="15372" width="22.75" style="6" customWidth="1"/>
-    <col min="15373" max="15373" width="72.125" style="6" customWidth="1"/>
-    <col min="15374" max="15619" width="9" style="6"/>
-    <col min="15620" max="15620" width="10.125" style="6" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="6" customWidth="1"/>
-    <col min="15622" max="15622" width="25" style="6" customWidth="1"/>
-    <col min="15623" max="15623" width="17.75" style="6" customWidth="1"/>
-    <col min="15624" max="15624" width="48.25" style="6" customWidth="1"/>
-    <col min="15625" max="15625" width="10.25" style="6" customWidth="1"/>
-    <col min="15626" max="15626" width="25.5" style="6" customWidth="1"/>
-    <col min="15627" max="15627" width="53.125" style="6" customWidth="1"/>
-    <col min="15628" max="15628" width="22.75" style="6" customWidth="1"/>
-    <col min="15629" max="15629" width="72.125" style="6" customWidth="1"/>
-    <col min="15630" max="15875" width="9" style="6"/>
-    <col min="15876" max="15876" width="10.125" style="6" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="6" customWidth="1"/>
-    <col min="15878" max="15878" width="25" style="6" customWidth="1"/>
-    <col min="15879" max="15879" width="17.75" style="6" customWidth="1"/>
-    <col min="15880" max="15880" width="48.25" style="6" customWidth="1"/>
-    <col min="15881" max="15881" width="10.25" style="6" customWidth="1"/>
-    <col min="15882" max="15882" width="25.5" style="6" customWidth="1"/>
-    <col min="15883" max="15883" width="53.125" style="6" customWidth="1"/>
-    <col min="15884" max="15884" width="22.75" style="6" customWidth="1"/>
-    <col min="15885" max="15885" width="72.125" style="6" customWidth="1"/>
-    <col min="15886" max="16131" width="9" style="6"/>
-    <col min="16132" max="16132" width="10.125" style="6" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="6" customWidth="1"/>
-    <col min="16134" max="16134" width="25" style="6" customWidth="1"/>
-    <col min="16135" max="16135" width="17.75" style="6" customWidth="1"/>
-    <col min="16136" max="16136" width="48.25" style="6" customWidth="1"/>
-    <col min="16137" max="16137" width="10.25" style="6" customWidth="1"/>
-    <col min="16138" max="16138" width="25.5" style="6" customWidth="1"/>
-    <col min="16139" max="16139" width="53.125" style="6" customWidth="1"/>
-    <col min="16140" max="16140" width="22.75" style="6" customWidth="1"/>
-    <col min="16141" max="16141" width="72.125" style="6" customWidth="1"/>
-    <col min="16142" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="25.8833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.3583333333333" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="53.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="72.125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="26.875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="49.125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="31.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9" style="5"/>
+    <col min="18" max="18" width="28.125" style="5" customWidth="1"/>
+    <col min="19" max="259" width="9" style="5"/>
+    <col min="260" max="260" width="10.125" style="5" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="5" customWidth="1"/>
+    <col min="262" max="262" width="25" style="5" customWidth="1"/>
+    <col min="263" max="263" width="17.75" style="5" customWidth="1"/>
+    <col min="264" max="264" width="48.25" style="5" customWidth="1"/>
+    <col min="265" max="265" width="10.25" style="5" customWidth="1"/>
+    <col min="266" max="266" width="25.5" style="5" customWidth="1"/>
+    <col min="267" max="267" width="53.125" style="5" customWidth="1"/>
+    <col min="268" max="268" width="22.75" style="5" customWidth="1"/>
+    <col min="269" max="269" width="72.125" style="5" customWidth="1"/>
+    <col min="270" max="515" width="9" style="5"/>
+    <col min="516" max="516" width="10.125" style="5" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="5" customWidth="1"/>
+    <col min="518" max="518" width="25" style="5" customWidth="1"/>
+    <col min="519" max="519" width="17.75" style="5" customWidth="1"/>
+    <col min="520" max="520" width="48.25" style="5" customWidth="1"/>
+    <col min="521" max="521" width="10.25" style="5" customWidth="1"/>
+    <col min="522" max="522" width="25.5" style="5" customWidth="1"/>
+    <col min="523" max="523" width="53.125" style="5" customWidth="1"/>
+    <col min="524" max="524" width="22.75" style="5" customWidth="1"/>
+    <col min="525" max="525" width="72.125" style="5" customWidth="1"/>
+    <col min="526" max="771" width="9" style="5"/>
+    <col min="772" max="772" width="10.125" style="5" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="5" customWidth="1"/>
+    <col min="774" max="774" width="25" style="5" customWidth="1"/>
+    <col min="775" max="775" width="17.75" style="5" customWidth="1"/>
+    <col min="776" max="776" width="48.25" style="5" customWidth="1"/>
+    <col min="777" max="777" width="10.25" style="5" customWidth="1"/>
+    <col min="778" max="778" width="25.5" style="5" customWidth="1"/>
+    <col min="779" max="779" width="53.125" style="5" customWidth="1"/>
+    <col min="780" max="780" width="22.75" style="5" customWidth="1"/>
+    <col min="781" max="781" width="72.125" style="5" customWidth="1"/>
+    <col min="782" max="1027" width="9" style="5"/>
+    <col min="1028" max="1028" width="10.125" style="5" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="5" customWidth="1"/>
+    <col min="1030" max="1030" width="25" style="5" customWidth="1"/>
+    <col min="1031" max="1031" width="17.75" style="5" customWidth="1"/>
+    <col min="1032" max="1032" width="48.25" style="5" customWidth="1"/>
+    <col min="1033" max="1033" width="10.25" style="5" customWidth="1"/>
+    <col min="1034" max="1034" width="25.5" style="5" customWidth="1"/>
+    <col min="1035" max="1035" width="53.125" style="5" customWidth="1"/>
+    <col min="1036" max="1036" width="22.75" style="5" customWidth="1"/>
+    <col min="1037" max="1037" width="72.125" style="5" customWidth="1"/>
+    <col min="1038" max="1283" width="9" style="5"/>
+    <col min="1284" max="1284" width="10.125" style="5" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="5" customWidth="1"/>
+    <col min="1286" max="1286" width="25" style="5" customWidth="1"/>
+    <col min="1287" max="1287" width="17.75" style="5" customWidth="1"/>
+    <col min="1288" max="1288" width="48.25" style="5" customWidth="1"/>
+    <col min="1289" max="1289" width="10.25" style="5" customWidth="1"/>
+    <col min="1290" max="1290" width="25.5" style="5" customWidth="1"/>
+    <col min="1291" max="1291" width="53.125" style="5" customWidth="1"/>
+    <col min="1292" max="1292" width="22.75" style="5" customWidth="1"/>
+    <col min="1293" max="1293" width="72.125" style="5" customWidth="1"/>
+    <col min="1294" max="1539" width="9" style="5"/>
+    <col min="1540" max="1540" width="10.125" style="5" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="5" customWidth="1"/>
+    <col min="1542" max="1542" width="25" style="5" customWidth="1"/>
+    <col min="1543" max="1543" width="17.75" style="5" customWidth="1"/>
+    <col min="1544" max="1544" width="48.25" style="5" customWidth="1"/>
+    <col min="1545" max="1545" width="10.25" style="5" customWidth="1"/>
+    <col min="1546" max="1546" width="25.5" style="5" customWidth="1"/>
+    <col min="1547" max="1547" width="53.125" style="5" customWidth="1"/>
+    <col min="1548" max="1548" width="22.75" style="5" customWidth="1"/>
+    <col min="1549" max="1549" width="72.125" style="5" customWidth="1"/>
+    <col min="1550" max="1795" width="9" style="5"/>
+    <col min="1796" max="1796" width="10.125" style="5" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="5" customWidth="1"/>
+    <col min="1798" max="1798" width="25" style="5" customWidth="1"/>
+    <col min="1799" max="1799" width="17.75" style="5" customWidth="1"/>
+    <col min="1800" max="1800" width="48.25" style="5" customWidth="1"/>
+    <col min="1801" max="1801" width="10.25" style="5" customWidth="1"/>
+    <col min="1802" max="1802" width="25.5" style="5" customWidth="1"/>
+    <col min="1803" max="1803" width="53.125" style="5" customWidth="1"/>
+    <col min="1804" max="1804" width="22.75" style="5" customWidth="1"/>
+    <col min="1805" max="1805" width="72.125" style="5" customWidth="1"/>
+    <col min="1806" max="2051" width="9" style="5"/>
+    <col min="2052" max="2052" width="10.125" style="5" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="5" customWidth="1"/>
+    <col min="2054" max="2054" width="25" style="5" customWidth="1"/>
+    <col min="2055" max="2055" width="17.75" style="5" customWidth="1"/>
+    <col min="2056" max="2056" width="48.25" style="5" customWidth="1"/>
+    <col min="2057" max="2057" width="10.25" style="5" customWidth="1"/>
+    <col min="2058" max="2058" width="25.5" style="5" customWidth="1"/>
+    <col min="2059" max="2059" width="53.125" style="5" customWidth="1"/>
+    <col min="2060" max="2060" width="22.75" style="5" customWidth="1"/>
+    <col min="2061" max="2061" width="72.125" style="5" customWidth="1"/>
+    <col min="2062" max="2307" width="9" style="5"/>
+    <col min="2308" max="2308" width="10.125" style="5" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="5" customWidth="1"/>
+    <col min="2310" max="2310" width="25" style="5" customWidth="1"/>
+    <col min="2311" max="2311" width="17.75" style="5" customWidth="1"/>
+    <col min="2312" max="2312" width="48.25" style="5" customWidth="1"/>
+    <col min="2313" max="2313" width="10.25" style="5" customWidth="1"/>
+    <col min="2314" max="2314" width="25.5" style="5" customWidth="1"/>
+    <col min="2315" max="2315" width="53.125" style="5" customWidth="1"/>
+    <col min="2316" max="2316" width="22.75" style="5" customWidth="1"/>
+    <col min="2317" max="2317" width="72.125" style="5" customWidth="1"/>
+    <col min="2318" max="2563" width="9" style="5"/>
+    <col min="2564" max="2564" width="10.125" style="5" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="5" customWidth="1"/>
+    <col min="2566" max="2566" width="25" style="5" customWidth="1"/>
+    <col min="2567" max="2567" width="17.75" style="5" customWidth="1"/>
+    <col min="2568" max="2568" width="48.25" style="5" customWidth="1"/>
+    <col min="2569" max="2569" width="10.25" style="5" customWidth="1"/>
+    <col min="2570" max="2570" width="25.5" style="5" customWidth="1"/>
+    <col min="2571" max="2571" width="53.125" style="5" customWidth="1"/>
+    <col min="2572" max="2572" width="22.75" style="5" customWidth="1"/>
+    <col min="2573" max="2573" width="72.125" style="5" customWidth="1"/>
+    <col min="2574" max="2819" width="9" style="5"/>
+    <col min="2820" max="2820" width="10.125" style="5" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="5" customWidth="1"/>
+    <col min="2822" max="2822" width="25" style="5" customWidth="1"/>
+    <col min="2823" max="2823" width="17.75" style="5" customWidth="1"/>
+    <col min="2824" max="2824" width="48.25" style="5" customWidth="1"/>
+    <col min="2825" max="2825" width="10.25" style="5" customWidth="1"/>
+    <col min="2826" max="2826" width="25.5" style="5" customWidth="1"/>
+    <col min="2827" max="2827" width="53.125" style="5" customWidth="1"/>
+    <col min="2828" max="2828" width="22.75" style="5" customWidth="1"/>
+    <col min="2829" max="2829" width="72.125" style="5" customWidth="1"/>
+    <col min="2830" max="3075" width="9" style="5"/>
+    <col min="3076" max="3076" width="10.125" style="5" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="5" customWidth="1"/>
+    <col min="3078" max="3078" width="25" style="5" customWidth="1"/>
+    <col min="3079" max="3079" width="17.75" style="5" customWidth="1"/>
+    <col min="3080" max="3080" width="48.25" style="5" customWidth="1"/>
+    <col min="3081" max="3081" width="10.25" style="5" customWidth="1"/>
+    <col min="3082" max="3082" width="25.5" style="5" customWidth="1"/>
+    <col min="3083" max="3083" width="53.125" style="5" customWidth="1"/>
+    <col min="3084" max="3084" width="22.75" style="5" customWidth="1"/>
+    <col min="3085" max="3085" width="72.125" style="5" customWidth="1"/>
+    <col min="3086" max="3331" width="9" style="5"/>
+    <col min="3332" max="3332" width="10.125" style="5" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="5" customWidth="1"/>
+    <col min="3334" max="3334" width="25" style="5" customWidth="1"/>
+    <col min="3335" max="3335" width="17.75" style="5" customWidth="1"/>
+    <col min="3336" max="3336" width="48.25" style="5" customWidth="1"/>
+    <col min="3337" max="3337" width="10.25" style="5" customWidth="1"/>
+    <col min="3338" max="3338" width="25.5" style="5" customWidth="1"/>
+    <col min="3339" max="3339" width="53.125" style="5" customWidth="1"/>
+    <col min="3340" max="3340" width="22.75" style="5" customWidth="1"/>
+    <col min="3341" max="3341" width="72.125" style="5" customWidth="1"/>
+    <col min="3342" max="3587" width="9" style="5"/>
+    <col min="3588" max="3588" width="10.125" style="5" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="5" customWidth="1"/>
+    <col min="3590" max="3590" width="25" style="5" customWidth="1"/>
+    <col min="3591" max="3591" width="17.75" style="5" customWidth="1"/>
+    <col min="3592" max="3592" width="48.25" style="5" customWidth="1"/>
+    <col min="3593" max="3593" width="10.25" style="5" customWidth="1"/>
+    <col min="3594" max="3594" width="25.5" style="5" customWidth="1"/>
+    <col min="3595" max="3595" width="53.125" style="5" customWidth="1"/>
+    <col min="3596" max="3596" width="22.75" style="5" customWidth="1"/>
+    <col min="3597" max="3597" width="72.125" style="5" customWidth="1"/>
+    <col min="3598" max="3843" width="9" style="5"/>
+    <col min="3844" max="3844" width="10.125" style="5" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="5" customWidth="1"/>
+    <col min="3846" max="3846" width="25" style="5" customWidth="1"/>
+    <col min="3847" max="3847" width="17.75" style="5" customWidth="1"/>
+    <col min="3848" max="3848" width="48.25" style="5" customWidth="1"/>
+    <col min="3849" max="3849" width="10.25" style="5" customWidth="1"/>
+    <col min="3850" max="3850" width="25.5" style="5" customWidth="1"/>
+    <col min="3851" max="3851" width="53.125" style="5" customWidth="1"/>
+    <col min="3852" max="3852" width="22.75" style="5" customWidth="1"/>
+    <col min="3853" max="3853" width="72.125" style="5" customWidth="1"/>
+    <col min="3854" max="4099" width="9" style="5"/>
+    <col min="4100" max="4100" width="10.125" style="5" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="5" customWidth="1"/>
+    <col min="4102" max="4102" width="25" style="5" customWidth="1"/>
+    <col min="4103" max="4103" width="17.75" style="5" customWidth="1"/>
+    <col min="4104" max="4104" width="48.25" style="5" customWidth="1"/>
+    <col min="4105" max="4105" width="10.25" style="5" customWidth="1"/>
+    <col min="4106" max="4106" width="25.5" style="5" customWidth="1"/>
+    <col min="4107" max="4107" width="53.125" style="5" customWidth="1"/>
+    <col min="4108" max="4108" width="22.75" style="5" customWidth="1"/>
+    <col min="4109" max="4109" width="72.125" style="5" customWidth="1"/>
+    <col min="4110" max="4355" width="9" style="5"/>
+    <col min="4356" max="4356" width="10.125" style="5" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="5" customWidth="1"/>
+    <col min="4358" max="4358" width="25" style="5" customWidth="1"/>
+    <col min="4359" max="4359" width="17.75" style="5" customWidth="1"/>
+    <col min="4360" max="4360" width="48.25" style="5" customWidth="1"/>
+    <col min="4361" max="4361" width="10.25" style="5" customWidth="1"/>
+    <col min="4362" max="4362" width="25.5" style="5" customWidth="1"/>
+    <col min="4363" max="4363" width="53.125" style="5" customWidth="1"/>
+    <col min="4364" max="4364" width="22.75" style="5" customWidth="1"/>
+    <col min="4365" max="4365" width="72.125" style="5" customWidth="1"/>
+    <col min="4366" max="4611" width="9" style="5"/>
+    <col min="4612" max="4612" width="10.125" style="5" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="5" customWidth="1"/>
+    <col min="4614" max="4614" width="25" style="5" customWidth="1"/>
+    <col min="4615" max="4615" width="17.75" style="5" customWidth="1"/>
+    <col min="4616" max="4616" width="48.25" style="5" customWidth="1"/>
+    <col min="4617" max="4617" width="10.25" style="5" customWidth="1"/>
+    <col min="4618" max="4618" width="25.5" style="5" customWidth="1"/>
+    <col min="4619" max="4619" width="53.125" style="5" customWidth="1"/>
+    <col min="4620" max="4620" width="22.75" style="5" customWidth="1"/>
+    <col min="4621" max="4621" width="72.125" style="5" customWidth="1"/>
+    <col min="4622" max="4867" width="9" style="5"/>
+    <col min="4868" max="4868" width="10.125" style="5" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="5" customWidth="1"/>
+    <col min="4870" max="4870" width="25" style="5" customWidth="1"/>
+    <col min="4871" max="4871" width="17.75" style="5" customWidth="1"/>
+    <col min="4872" max="4872" width="48.25" style="5" customWidth="1"/>
+    <col min="4873" max="4873" width="10.25" style="5" customWidth="1"/>
+    <col min="4874" max="4874" width="25.5" style="5" customWidth="1"/>
+    <col min="4875" max="4875" width="53.125" style="5" customWidth="1"/>
+    <col min="4876" max="4876" width="22.75" style="5" customWidth="1"/>
+    <col min="4877" max="4877" width="72.125" style="5" customWidth="1"/>
+    <col min="4878" max="5123" width="9" style="5"/>
+    <col min="5124" max="5124" width="10.125" style="5" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="5" customWidth="1"/>
+    <col min="5126" max="5126" width="25" style="5" customWidth="1"/>
+    <col min="5127" max="5127" width="17.75" style="5" customWidth="1"/>
+    <col min="5128" max="5128" width="48.25" style="5" customWidth="1"/>
+    <col min="5129" max="5129" width="10.25" style="5" customWidth="1"/>
+    <col min="5130" max="5130" width="25.5" style="5" customWidth="1"/>
+    <col min="5131" max="5131" width="53.125" style="5" customWidth="1"/>
+    <col min="5132" max="5132" width="22.75" style="5" customWidth="1"/>
+    <col min="5133" max="5133" width="72.125" style="5" customWidth="1"/>
+    <col min="5134" max="5379" width="9" style="5"/>
+    <col min="5380" max="5380" width="10.125" style="5" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="5" customWidth="1"/>
+    <col min="5382" max="5382" width="25" style="5" customWidth="1"/>
+    <col min="5383" max="5383" width="17.75" style="5" customWidth="1"/>
+    <col min="5384" max="5384" width="48.25" style="5" customWidth="1"/>
+    <col min="5385" max="5385" width="10.25" style="5" customWidth="1"/>
+    <col min="5386" max="5386" width="25.5" style="5" customWidth="1"/>
+    <col min="5387" max="5387" width="53.125" style="5" customWidth="1"/>
+    <col min="5388" max="5388" width="22.75" style="5" customWidth="1"/>
+    <col min="5389" max="5389" width="72.125" style="5" customWidth="1"/>
+    <col min="5390" max="5635" width="9" style="5"/>
+    <col min="5636" max="5636" width="10.125" style="5" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="5" customWidth="1"/>
+    <col min="5638" max="5638" width="25" style="5" customWidth="1"/>
+    <col min="5639" max="5639" width="17.75" style="5" customWidth="1"/>
+    <col min="5640" max="5640" width="48.25" style="5" customWidth="1"/>
+    <col min="5641" max="5641" width="10.25" style="5" customWidth="1"/>
+    <col min="5642" max="5642" width="25.5" style="5" customWidth="1"/>
+    <col min="5643" max="5643" width="53.125" style="5" customWidth="1"/>
+    <col min="5644" max="5644" width="22.75" style="5" customWidth="1"/>
+    <col min="5645" max="5645" width="72.125" style="5" customWidth="1"/>
+    <col min="5646" max="5891" width="9" style="5"/>
+    <col min="5892" max="5892" width="10.125" style="5" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="5" customWidth="1"/>
+    <col min="5894" max="5894" width="25" style="5" customWidth="1"/>
+    <col min="5895" max="5895" width="17.75" style="5" customWidth="1"/>
+    <col min="5896" max="5896" width="48.25" style="5" customWidth="1"/>
+    <col min="5897" max="5897" width="10.25" style="5" customWidth="1"/>
+    <col min="5898" max="5898" width="25.5" style="5" customWidth="1"/>
+    <col min="5899" max="5899" width="53.125" style="5" customWidth="1"/>
+    <col min="5900" max="5900" width="22.75" style="5" customWidth="1"/>
+    <col min="5901" max="5901" width="72.125" style="5" customWidth="1"/>
+    <col min="5902" max="6147" width="9" style="5"/>
+    <col min="6148" max="6148" width="10.125" style="5" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="5" customWidth="1"/>
+    <col min="6150" max="6150" width="25" style="5" customWidth="1"/>
+    <col min="6151" max="6151" width="17.75" style="5" customWidth="1"/>
+    <col min="6152" max="6152" width="48.25" style="5" customWidth="1"/>
+    <col min="6153" max="6153" width="10.25" style="5" customWidth="1"/>
+    <col min="6154" max="6154" width="25.5" style="5" customWidth="1"/>
+    <col min="6155" max="6155" width="53.125" style="5" customWidth="1"/>
+    <col min="6156" max="6156" width="22.75" style="5" customWidth="1"/>
+    <col min="6157" max="6157" width="72.125" style="5" customWidth="1"/>
+    <col min="6158" max="6403" width="9" style="5"/>
+    <col min="6404" max="6404" width="10.125" style="5" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="5" customWidth="1"/>
+    <col min="6406" max="6406" width="25" style="5" customWidth="1"/>
+    <col min="6407" max="6407" width="17.75" style="5" customWidth="1"/>
+    <col min="6408" max="6408" width="48.25" style="5" customWidth="1"/>
+    <col min="6409" max="6409" width="10.25" style="5" customWidth="1"/>
+    <col min="6410" max="6410" width="25.5" style="5" customWidth="1"/>
+    <col min="6411" max="6411" width="53.125" style="5" customWidth="1"/>
+    <col min="6412" max="6412" width="22.75" style="5" customWidth="1"/>
+    <col min="6413" max="6413" width="72.125" style="5" customWidth="1"/>
+    <col min="6414" max="6659" width="9" style="5"/>
+    <col min="6660" max="6660" width="10.125" style="5" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="5" customWidth="1"/>
+    <col min="6662" max="6662" width="25" style="5" customWidth="1"/>
+    <col min="6663" max="6663" width="17.75" style="5" customWidth="1"/>
+    <col min="6664" max="6664" width="48.25" style="5" customWidth="1"/>
+    <col min="6665" max="6665" width="10.25" style="5" customWidth="1"/>
+    <col min="6666" max="6666" width="25.5" style="5" customWidth="1"/>
+    <col min="6667" max="6667" width="53.125" style="5" customWidth="1"/>
+    <col min="6668" max="6668" width="22.75" style="5" customWidth="1"/>
+    <col min="6669" max="6669" width="72.125" style="5" customWidth="1"/>
+    <col min="6670" max="6915" width="9" style="5"/>
+    <col min="6916" max="6916" width="10.125" style="5" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="5" customWidth="1"/>
+    <col min="6918" max="6918" width="25" style="5" customWidth="1"/>
+    <col min="6919" max="6919" width="17.75" style="5" customWidth="1"/>
+    <col min="6920" max="6920" width="48.25" style="5" customWidth="1"/>
+    <col min="6921" max="6921" width="10.25" style="5" customWidth="1"/>
+    <col min="6922" max="6922" width="25.5" style="5" customWidth="1"/>
+    <col min="6923" max="6923" width="53.125" style="5" customWidth="1"/>
+    <col min="6924" max="6924" width="22.75" style="5" customWidth="1"/>
+    <col min="6925" max="6925" width="72.125" style="5" customWidth="1"/>
+    <col min="6926" max="7171" width="9" style="5"/>
+    <col min="7172" max="7172" width="10.125" style="5" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="5" customWidth="1"/>
+    <col min="7174" max="7174" width="25" style="5" customWidth="1"/>
+    <col min="7175" max="7175" width="17.75" style="5" customWidth="1"/>
+    <col min="7176" max="7176" width="48.25" style="5" customWidth="1"/>
+    <col min="7177" max="7177" width="10.25" style="5" customWidth="1"/>
+    <col min="7178" max="7178" width="25.5" style="5" customWidth="1"/>
+    <col min="7179" max="7179" width="53.125" style="5" customWidth="1"/>
+    <col min="7180" max="7180" width="22.75" style="5" customWidth="1"/>
+    <col min="7181" max="7181" width="72.125" style="5" customWidth="1"/>
+    <col min="7182" max="7427" width="9" style="5"/>
+    <col min="7428" max="7428" width="10.125" style="5" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="5" customWidth="1"/>
+    <col min="7430" max="7430" width="25" style="5" customWidth="1"/>
+    <col min="7431" max="7431" width="17.75" style="5" customWidth="1"/>
+    <col min="7432" max="7432" width="48.25" style="5" customWidth="1"/>
+    <col min="7433" max="7433" width="10.25" style="5" customWidth="1"/>
+    <col min="7434" max="7434" width="25.5" style="5" customWidth="1"/>
+    <col min="7435" max="7435" width="53.125" style="5" customWidth="1"/>
+    <col min="7436" max="7436" width="22.75" style="5" customWidth="1"/>
+    <col min="7437" max="7437" width="72.125" style="5" customWidth="1"/>
+    <col min="7438" max="7683" width="9" style="5"/>
+    <col min="7684" max="7684" width="10.125" style="5" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="5" customWidth="1"/>
+    <col min="7686" max="7686" width="25" style="5" customWidth="1"/>
+    <col min="7687" max="7687" width="17.75" style="5" customWidth="1"/>
+    <col min="7688" max="7688" width="48.25" style="5" customWidth="1"/>
+    <col min="7689" max="7689" width="10.25" style="5" customWidth="1"/>
+    <col min="7690" max="7690" width="25.5" style="5" customWidth="1"/>
+    <col min="7691" max="7691" width="53.125" style="5" customWidth="1"/>
+    <col min="7692" max="7692" width="22.75" style="5" customWidth="1"/>
+    <col min="7693" max="7693" width="72.125" style="5" customWidth="1"/>
+    <col min="7694" max="7939" width="9" style="5"/>
+    <col min="7940" max="7940" width="10.125" style="5" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="5" customWidth="1"/>
+    <col min="7942" max="7942" width="25" style="5" customWidth="1"/>
+    <col min="7943" max="7943" width="17.75" style="5" customWidth="1"/>
+    <col min="7944" max="7944" width="48.25" style="5" customWidth="1"/>
+    <col min="7945" max="7945" width="10.25" style="5" customWidth="1"/>
+    <col min="7946" max="7946" width="25.5" style="5" customWidth="1"/>
+    <col min="7947" max="7947" width="53.125" style="5" customWidth="1"/>
+    <col min="7948" max="7948" width="22.75" style="5" customWidth="1"/>
+    <col min="7949" max="7949" width="72.125" style="5" customWidth="1"/>
+    <col min="7950" max="8195" width="9" style="5"/>
+    <col min="8196" max="8196" width="10.125" style="5" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="5" customWidth="1"/>
+    <col min="8198" max="8198" width="25" style="5" customWidth="1"/>
+    <col min="8199" max="8199" width="17.75" style="5" customWidth="1"/>
+    <col min="8200" max="8200" width="48.25" style="5" customWidth="1"/>
+    <col min="8201" max="8201" width="10.25" style="5" customWidth="1"/>
+    <col min="8202" max="8202" width="25.5" style="5" customWidth="1"/>
+    <col min="8203" max="8203" width="53.125" style="5" customWidth="1"/>
+    <col min="8204" max="8204" width="22.75" style="5" customWidth="1"/>
+    <col min="8205" max="8205" width="72.125" style="5" customWidth="1"/>
+    <col min="8206" max="8451" width="9" style="5"/>
+    <col min="8452" max="8452" width="10.125" style="5" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="5" customWidth="1"/>
+    <col min="8454" max="8454" width="25" style="5" customWidth="1"/>
+    <col min="8455" max="8455" width="17.75" style="5" customWidth="1"/>
+    <col min="8456" max="8456" width="48.25" style="5" customWidth="1"/>
+    <col min="8457" max="8457" width="10.25" style="5" customWidth="1"/>
+    <col min="8458" max="8458" width="25.5" style="5" customWidth="1"/>
+    <col min="8459" max="8459" width="53.125" style="5" customWidth="1"/>
+    <col min="8460" max="8460" width="22.75" style="5" customWidth="1"/>
+    <col min="8461" max="8461" width="72.125" style="5" customWidth="1"/>
+    <col min="8462" max="8707" width="9" style="5"/>
+    <col min="8708" max="8708" width="10.125" style="5" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="5" customWidth="1"/>
+    <col min="8710" max="8710" width="25" style="5" customWidth="1"/>
+    <col min="8711" max="8711" width="17.75" style="5" customWidth="1"/>
+    <col min="8712" max="8712" width="48.25" style="5" customWidth="1"/>
+    <col min="8713" max="8713" width="10.25" style="5" customWidth="1"/>
+    <col min="8714" max="8714" width="25.5" style="5" customWidth="1"/>
+    <col min="8715" max="8715" width="53.125" style="5" customWidth="1"/>
+    <col min="8716" max="8716" width="22.75" style="5" customWidth="1"/>
+    <col min="8717" max="8717" width="72.125" style="5" customWidth="1"/>
+    <col min="8718" max="8963" width="9" style="5"/>
+    <col min="8964" max="8964" width="10.125" style="5" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="5" customWidth="1"/>
+    <col min="8966" max="8966" width="25" style="5" customWidth="1"/>
+    <col min="8967" max="8967" width="17.75" style="5" customWidth="1"/>
+    <col min="8968" max="8968" width="48.25" style="5" customWidth="1"/>
+    <col min="8969" max="8969" width="10.25" style="5" customWidth="1"/>
+    <col min="8970" max="8970" width="25.5" style="5" customWidth="1"/>
+    <col min="8971" max="8971" width="53.125" style="5" customWidth="1"/>
+    <col min="8972" max="8972" width="22.75" style="5" customWidth="1"/>
+    <col min="8973" max="8973" width="72.125" style="5" customWidth="1"/>
+    <col min="8974" max="9219" width="9" style="5"/>
+    <col min="9220" max="9220" width="10.125" style="5" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="5" customWidth="1"/>
+    <col min="9222" max="9222" width="25" style="5" customWidth="1"/>
+    <col min="9223" max="9223" width="17.75" style="5" customWidth="1"/>
+    <col min="9224" max="9224" width="48.25" style="5" customWidth="1"/>
+    <col min="9225" max="9225" width="10.25" style="5" customWidth="1"/>
+    <col min="9226" max="9226" width="25.5" style="5" customWidth="1"/>
+    <col min="9227" max="9227" width="53.125" style="5" customWidth="1"/>
+    <col min="9228" max="9228" width="22.75" style="5" customWidth="1"/>
+    <col min="9229" max="9229" width="72.125" style="5" customWidth="1"/>
+    <col min="9230" max="9475" width="9" style="5"/>
+    <col min="9476" max="9476" width="10.125" style="5" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="5" customWidth="1"/>
+    <col min="9478" max="9478" width="25" style="5" customWidth="1"/>
+    <col min="9479" max="9479" width="17.75" style="5" customWidth="1"/>
+    <col min="9480" max="9480" width="48.25" style="5" customWidth="1"/>
+    <col min="9481" max="9481" width="10.25" style="5" customWidth="1"/>
+    <col min="9482" max="9482" width="25.5" style="5" customWidth="1"/>
+    <col min="9483" max="9483" width="53.125" style="5" customWidth="1"/>
+    <col min="9484" max="9484" width="22.75" style="5" customWidth="1"/>
+    <col min="9485" max="9485" width="72.125" style="5" customWidth="1"/>
+    <col min="9486" max="9731" width="9" style="5"/>
+    <col min="9732" max="9732" width="10.125" style="5" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="5" customWidth="1"/>
+    <col min="9734" max="9734" width="25" style="5" customWidth="1"/>
+    <col min="9735" max="9735" width="17.75" style="5" customWidth="1"/>
+    <col min="9736" max="9736" width="48.25" style="5" customWidth="1"/>
+    <col min="9737" max="9737" width="10.25" style="5" customWidth="1"/>
+    <col min="9738" max="9738" width="25.5" style="5" customWidth="1"/>
+    <col min="9739" max="9739" width="53.125" style="5" customWidth="1"/>
+    <col min="9740" max="9740" width="22.75" style="5" customWidth="1"/>
+    <col min="9741" max="9741" width="72.125" style="5" customWidth="1"/>
+    <col min="9742" max="9987" width="9" style="5"/>
+    <col min="9988" max="9988" width="10.125" style="5" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="5" customWidth="1"/>
+    <col min="9990" max="9990" width="25" style="5" customWidth="1"/>
+    <col min="9991" max="9991" width="17.75" style="5" customWidth="1"/>
+    <col min="9992" max="9992" width="48.25" style="5" customWidth="1"/>
+    <col min="9993" max="9993" width="10.25" style="5" customWidth="1"/>
+    <col min="9994" max="9994" width="25.5" style="5" customWidth="1"/>
+    <col min="9995" max="9995" width="53.125" style="5" customWidth="1"/>
+    <col min="9996" max="9996" width="22.75" style="5" customWidth="1"/>
+    <col min="9997" max="9997" width="72.125" style="5" customWidth="1"/>
+    <col min="9998" max="10243" width="9" style="5"/>
+    <col min="10244" max="10244" width="10.125" style="5" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="5" customWidth="1"/>
+    <col min="10246" max="10246" width="25" style="5" customWidth="1"/>
+    <col min="10247" max="10247" width="17.75" style="5" customWidth="1"/>
+    <col min="10248" max="10248" width="48.25" style="5" customWidth="1"/>
+    <col min="10249" max="10249" width="10.25" style="5" customWidth="1"/>
+    <col min="10250" max="10250" width="25.5" style="5" customWidth="1"/>
+    <col min="10251" max="10251" width="53.125" style="5" customWidth="1"/>
+    <col min="10252" max="10252" width="22.75" style="5" customWidth="1"/>
+    <col min="10253" max="10253" width="72.125" style="5" customWidth="1"/>
+    <col min="10254" max="10499" width="9" style="5"/>
+    <col min="10500" max="10500" width="10.125" style="5" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="5" customWidth="1"/>
+    <col min="10502" max="10502" width="25" style="5" customWidth="1"/>
+    <col min="10503" max="10503" width="17.75" style="5" customWidth="1"/>
+    <col min="10504" max="10504" width="48.25" style="5" customWidth="1"/>
+    <col min="10505" max="10505" width="10.25" style="5" customWidth="1"/>
+    <col min="10506" max="10506" width="25.5" style="5" customWidth="1"/>
+    <col min="10507" max="10507" width="53.125" style="5" customWidth="1"/>
+    <col min="10508" max="10508" width="22.75" style="5" customWidth="1"/>
+    <col min="10509" max="10509" width="72.125" style="5" customWidth="1"/>
+    <col min="10510" max="10755" width="9" style="5"/>
+    <col min="10756" max="10756" width="10.125" style="5" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="5" customWidth="1"/>
+    <col min="10758" max="10758" width="25" style="5" customWidth="1"/>
+    <col min="10759" max="10759" width="17.75" style="5" customWidth="1"/>
+    <col min="10760" max="10760" width="48.25" style="5" customWidth="1"/>
+    <col min="10761" max="10761" width="10.25" style="5" customWidth="1"/>
+    <col min="10762" max="10762" width="25.5" style="5" customWidth="1"/>
+    <col min="10763" max="10763" width="53.125" style="5" customWidth="1"/>
+    <col min="10764" max="10764" width="22.75" style="5" customWidth="1"/>
+    <col min="10765" max="10765" width="72.125" style="5" customWidth="1"/>
+    <col min="10766" max="11011" width="9" style="5"/>
+    <col min="11012" max="11012" width="10.125" style="5" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="5" customWidth="1"/>
+    <col min="11014" max="11014" width="25" style="5" customWidth="1"/>
+    <col min="11015" max="11015" width="17.75" style="5" customWidth="1"/>
+    <col min="11016" max="11016" width="48.25" style="5" customWidth="1"/>
+    <col min="11017" max="11017" width="10.25" style="5" customWidth="1"/>
+    <col min="11018" max="11018" width="25.5" style="5" customWidth="1"/>
+    <col min="11019" max="11019" width="53.125" style="5" customWidth="1"/>
+    <col min="11020" max="11020" width="22.75" style="5" customWidth="1"/>
+    <col min="11021" max="11021" width="72.125" style="5" customWidth="1"/>
+    <col min="11022" max="11267" width="9" style="5"/>
+    <col min="11268" max="11268" width="10.125" style="5" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="5" customWidth="1"/>
+    <col min="11270" max="11270" width="25" style="5" customWidth="1"/>
+    <col min="11271" max="11271" width="17.75" style="5" customWidth="1"/>
+    <col min="11272" max="11272" width="48.25" style="5" customWidth="1"/>
+    <col min="11273" max="11273" width="10.25" style="5" customWidth="1"/>
+    <col min="11274" max="11274" width="25.5" style="5" customWidth="1"/>
+    <col min="11275" max="11275" width="53.125" style="5" customWidth="1"/>
+    <col min="11276" max="11276" width="22.75" style="5" customWidth="1"/>
+    <col min="11277" max="11277" width="72.125" style="5" customWidth="1"/>
+    <col min="11278" max="11523" width="9" style="5"/>
+    <col min="11524" max="11524" width="10.125" style="5" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="5" customWidth="1"/>
+    <col min="11526" max="11526" width="25" style="5" customWidth="1"/>
+    <col min="11527" max="11527" width="17.75" style="5" customWidth="1"/>
+    <col min="11528" max="11528" width="48.25" style="5" customWidth="1"/>
+    <col min="11529" max="11529" width="10.25" style="5" customWidth="1"/>
+    <col min="11530" max="11530" width="25.5" style="5" customWidth="1"/>
+    <col min="11531" max="11531" width="53.125" style="5" customWidth="1"/>
+    <col min="11532" max="11532" width="22.75" style="5" customWidth="1"/>
+    <col min="11533" max="11533" width="72.125" style="5" customWidth="1"/>
+    <col min="11534" max="11779" width="9" style="5"/>
+    <col min="11780" max="11780" width="10.125" style="5" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="5" customWidth="1"/>
+    <col min="11782" max="11782" width="25" style="5" customWidth="1"/>
+    <col min="11783" max="11783" width="17.75" style="5" customWidth="1"/>
+    <col min="11784" max="11784" width="48.25" style="5" customWidth="1"/>
+    <col min="11785" max="11785" width="10.25" style="5" customWidth="1"/>
+    <col min="11786" max="11786" width="25.5" style="5" customWidth="1"/>
+    <col min="11787" max="11787" width="53.125" style="5" customWidth="1"/>
+    <col min="11788" max="11788" width="22.75" style="5" customWidth="1"/>
+    <col min="11789" max="11789" width="72.125" style="5" customWidth="1"/>
+    <col min="11790" max="12035" width="9" style="5"/>
+    <col min="12036" max="12036" width="10.125" style="5" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="5" customWidth="1"/>
+    <col min="12038" max="12038" width="25" style="5" customWidth="1"/>
+    <col min="12039" max="12039" width="17.75" style="5" customWidth="1"/>
+    <col min="12040" max="12040" width="48.25" style="5" customWidth="1"/>
+    <col min="12041" max="12041" width="10.25" style="5" customWidth="1"/>
+    <col min="12042" max="12042" width="25.5" style="5" customWidth="1"/>
+    <col min="12043" max="12043" width="53.125" style="5" customWidth="1"/>
+    <col min="12044" max="12044" width="22.75" style="5" customWidth="1"/>
+    <col min="12045" max="12045" width="72.125" style="5" customWidth="1"/>
+    <col min="12046" max="12291" width="9" style="5"/>
+    <col min="12292" max="12292" width="10.125" style="5" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="5" customWidth="1"/>
+    <col min="12294" max="12294" width="25" style="5" customWidth="1"/>
+    <col min="12295" max="12295" width="17.75" style="5" customWidth="1"/>
+    <col min="12296" max="12296" width="48.25" style="5" customWidth="1"/>
+    <col min="12297" max="12297" width="10.25" style="5" customWidth="1"/>
+    <col min="12298" max="12298" width="25.5" style="5" customWidth="1"/>
+    <col min="12299" max="12299" width="53.125" style="5" customWidth="1"/>
+    <col min="12300" max="12300" width="22.75" style="5" customWidth="1"/>
+    <col min="12301" max="12301" width="72.125" style="5" customWidth="1"/>
+    <col min="12302" max="12547" width="9" style="5"/>
+    <col min="12548" max="12548" width="10.125" style="5" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="5" customWidth="1"/>
+    <col min="12550" max="12550" width="25" style="5" customWidth="1"/>
+    <col min="12551" max="12551" width="17.75" style="5" customWidth="1"/>
+    <col min="12552" max="12552" width="48.25" style="5" customWidth="1"/>
+    <col min="12553" max="12553" width="10.25" style="5" customWidth="1"/>
+    <col min="12554" max="12554" width="25.5" style="5" customWidth="1"/>
+    <col min="12555" max="12555" width="53.125" style="5" customWidth="1"/>
+    <col min="12556" max="12556" width="22.75" style="5" customWidth="1"/>
+    <col min="12557" max="12557" width="72.125" style="5" customWidth="1"/>
+    <col min="12558" max="12803" width="9" style="5"/>
+    <col min="12804" max="12804" width="10.125" style="5" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="5" customWidth="1"/>
+    <col min="12806" max="12806" width="25" style="5" customWidth="1"/>
+    <col min="12807" max="12807" width="17.75" style="5" customWidth="1"/>
+    <col min="12808" max="12808" width="48.25" style="5" customWidth="1"/>
+    <col min="12809" max="12809" width="10.25" style="5" customWidth="1"/>
+    <col min="12810" max="12810" width="25.5" style="5" customWidth="1"/>
+    <col min="12811" max="12811" width="53.125" style="5" customWidth="1"/>
+    <col min="12812" max="12812" width="22.75" style="5" customWidth="1"/>
+    <col min="12813" max="12813" width="72.125" style="5" customWidth="1"/>
+    <col min="12814" max="13059" width="9" style="5"/>
+    <col min="13060" max="13060" width="10.125" style="5" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="5" customWidth="1"/>
+    <col min="13062" max="13062" width="25" style="5" customWidth="1"/>
+    <col min="13063" max="13063" width="17.75" style="5" customWidth="1"/>
+    <col min="13064" max="13064" width="48.25" style="5" customWidth="1"/>
+    <col min="13065" max="13065" width="10.25" style="5" customWidth="1"/>
+    <col min="13066" max="13066" width="25.5" style="5" customWidth="1"/>
+    <col min="13067" max="13067" width="53.125" style="5" customWidth="1"/>
+    <col min="13068" max="13068" width="22.75" style="5" customWidth="1"/>
+    <col min="13069" max="13069" width="72.125" style="5" customWidth="1"/>
+    <col min="13070" max="13315" width="9" style="5"/>
+    <col min="13316" max="13316" width="10.125" style="5" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="5" customWidth="1"/>
+    <col min="13318" max="13318" width="25" style="5" customWidth="1"/>
+    <col min="13319" max="13319" width="17.75" style="5" customWidth="1"/>
+    <col min="13320" max="13320" width="48.25" style="5" customWidth="1"/>
+    <col min="13321" max="13321" width="10.25" style="5" customWidth="1"/>
+    <col min="13322" max="13322" width="25.5" style="5" customWidth="1"/>
+    <col min="13323" max="13323" width="53.125" style="5" customWidth="1"/>
+    <col min="13324" max="13324" width="22.75" style="5" customWidth="1"/>
+    <col min="13325" max="13325" width="72.125" style="5" customWidth="1"/>
+    <col min="13326" max="13571" width="9" style="5"/>
+    <col min="13572" max="13572" width="10.125" style="5" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="5" customWidth="1"/>
+    <col min="13574" max="13574" width="25" style="5" customWidth="1"/>
+    <col min="13575" max="13575" width="17.75" style="5" customWidth="1"/>
+    <col min="13576" max="13576" width="48.25" style="5" customWidth="1"/>
+    <col min="13577" max="13577" width="10.25" style="5" customWidth="1"/>
+    <col min="13578" max="13578" width="25.5" style="5" customWidth="1"/>
+    <col min="13579" max="13579" width="53.125" style="5" customWidth="1"/>
+    <col min="13580" max="13580" width="22.75" style="5" customWidth="1"/>
+    <col min="13581" max="13581" width="72.125" style="5" customWidth="1"/>
+    <col min="13582" max="13827" width="9" style="5"/>
+    <col min="13828" max="13828" width="10.125" style="5" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="5" customWidth="1"/>
+    <col min="13830" max="13830" width="25" style="5" customWidth="1"/>
+    <col min="13831" max="13831" width="17.75" style="5" customWidth="1"/>
+    <col min="13832" max="13832" width="48.25" style="5" customWidth="1"/>
+    <col min="13833" max="13833" width="10.25" style="5" customWidth="1"/>
+    <col min="13834" max="13834" width="25.5" style="5" customWidth="1"/>
+    <col min="13835" max="13835" width="53.125" style="5" customWidth="1"/>
+    <col min="13836" max="13836" width="22.75" style="5" customWidth="1"/>
+    <col min="13837" max="13837" width="72.125" style="5" customWidth="1"/>
+    <col min="13838" max="14083" width="9" style="5"/>
+    <col min="14084" max="14084" width="10.125" style="5" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="5" customWidth="1"/>
+    <col min="14086" max="14086" width="25" style="5" customWidth="1"/>
+    <col min="14087" max="14087" width="17.75" style="5" customWidth="1"/>
+    <col min="14088" max="14088" width="48.25" style="5" customWidth="1"/>
+    <col min="14089" max="14089" width="10.25" style="5" customWidth="1"/>
+    <col min="14090" max="14090" width="25.5" style="5" customWidth="1"/>
+    <col min="14091" max="14091" width="53.125" style="5" customWidth="1"/>
+    <col min="14092" max="14092" width="22.75" style="5" customWidth="1"/>
+    <col min="14093" max="14093" width="72.125" style="5" customWidth="1"/>
+    <col min="14094" max="14339" width="9" style="5"/>
+    <col min="14340" max="14340" width="10.125" style="5" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="5" customWidth="1"/>
+    <col min="14342" max="14342" width="25" style="5" customWidth="1"/>
+    <col min="14343" max="14343" width="17.75" style="5" customWidth="1"/>
+    <col min="14344" max="14344" width="48.25" style="5" customWidth="1"/>
+    <col min="14345" max="14345" width="10.25" style="5" customWidth="1"/>
+    <col min="14346" max="14346" width="25.5" style="5" customWidth="1"/>
+    <col min="14347" max="14347" width="53.125" style="5" customWidth="1"/>
+    <col min="14348" max="14348" width="22.75" style="5" customWidth="1"/>
+    <col min="14349" max="14349" width="72.125" style="5" customWidth="1"/>
+    <col min="14350" max="14595" width="9" style="5"/>
+    <col min="14596" max="14596" width="10.125" style="5" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="5" customWidth="1"/>
+    <col min="14598" max="14598" width="25" style="5" customWidth="1"/>
+    <col min="14599" max="14599" width="17.75" style="5" customWidth="1"/>
+    <col min="14600" max="14600" width="48.25" style="5" customWidth="1"/>
+    <col min="14601" max="14601" width="10.25" style="5" customWidth="1"/>
+    <col min="14602" max="14602" width="25.5" style="5" customWidth="1"/>
+    <col min="14603" max="14603" width="53.125" style="5" customWidth="1"/>
+    <col min="14604" max="14604" width="22.75" style="5" customWidth="1"/>
+    <col min="14605" max="14605" width="72.125" style="5" customWidth="1"/>
+    <col min="14606" max="14851" width="9" style="5"/>
+    <col min="14852" max="14852" width="10.125" style="5" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="5" customWidth="1"/>
+    <col min="14854" max="14854" width="25" style="5" customWidth="1"/>
+    <col min="14855" max="14855" width="17.75" style="5" customWidth="1"/>
+    <col min="14856" max="14856" width="48.25" style="5" customWidth="1"/>
+    <col min="14857" max="14857" width="10.25" style="5" customWidth="1"/>
+    <col min="14858" max="14858" width="25.5" style="5" customWidth="1"/>
+    <col min="14859" max="14859" width="53.125" style="5" customWidth="1"/>
+    <col min="14860" max="14860" width="22.75" style="5" customWidth="1"/>
+    <col min="14861" max="14861" width="72.125" style="5" customWidth="1"/>
+    <col min="14862" max="15107" width="9" style="5"/>
+    <col min="15108" max="15108" width="10.125" style="5" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="5" customWidth="1"/>
+    <col min="15110" max="15110" width="25" style="5" customWidth="1"/>
+    <col min="15111" max="15111" width="17.75" style="5" customWidth="1"/>
+    <col min="15112" max="15112" width="48.25" style="5" customWidth="1"/>
+    <col min="15113" max="15113" width="10.25" style="5" customWidth="1"/>
+    <col min="15114" max="15114" width="25.5" style="5" customWidth="1"/>
+    <col min="15115" max="15115" width="53.125" style="5" customWidth="1"/>
+    <col min="15116" max="15116" width="22.75" style="5" customWidth="1"/>
+    <col min="15117" max="15117" width="72.125" style="5" customWidth="1"/>
+    <col min="15118" max="15363" width="9" style="5"/>
+    <col min="15364" max="15364" width="10.125" style="5" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="5" customWidth="1"/>
+    <col min="15366" max="15366" width="25" style="5" customWidth="1"/>
+    <col min="15367" max="15367" width="17.75" style="5" customWidth="1"/>
+    <col min="15368" max="15368" width="48.25" style="5" customWidth="1"/>
+    <col min="15369" max="15369" width="10.25" style="5" customWidth="1"/>
+    <col min="15370" max="15370" width="25.5" style="5" customWidth="1"/>
+    <col min="15371" max="15371" width="53.125" style="5" customWidth="1"/>
+    <col min="15372" max="15372" width="22.75" style="5" customWidth="1"/>
+    <col min="15373" max="15373" width="72.125" style="5" customWidth="1"/>
+    <col min="15374" max="15619" width="9" style="5"/>
+    <col min="15620" max="15620" width="10.125" style="5" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="5" customWidth="1"/>
+    <col min="15622" max="15622" width="25" style="5" customWidth="1"/>
+    <col min="15623" max="15623" width="17.75" style="5" customWidth="1"/>
+    <col min="15624" max="15624" width="48.25" style="5" customWidth="1"/>
+    <col min="15625" max="15625" width="10.25" style="5" customWidth="1"/>
+    <col min="15626" max="15626" width="25.5" style="5" customWidth="1"/>
+    <col min="15627" max="15627" width="53.125" style="5" customWidth="1"/>
+    <col min="15628" max="15628" width="22.75" style="5" customWidth="1"/>
+    <col min="15629" max="15629" width="72.125" style="5" customWidth="1"/>
+    <col min="15630" max="15875" width="9" style="5"/>
+    <col min="15876" max="15876" width="10.125" style="5" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="5" customWidth="1"/>
+    <col min="15878" max="15878" width="25" style="5" customWidth="1"/>
+    <col min="15879" max="15879" width="17.75" style="5" customWidth="1"/>
+    <col min="15880" max="15880" width="48.25" style="5" customWidth="1"/>
+    <col min="15881" max="15881" width="10.25" style="5" customWidth="1"/>
+    <col min="15882" max="15882" width="25.5" style="5" customWidth="1"/>
+    <col min="15883" max="15883" width="53.125" style="5" customWidth="1"/>
+    <col min="15884" max="15884" width="22.75" style="5" customWidth="1"/>
+    <col min="15885" max="15885" width="72.125" style="5" customWidth="1"/>
+    <col min="15886" max="16131" width="9" style="5"/>
+    <col min="16132" max="16132" width="10.125" style="5" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="5" customWidth="1"/>
+    <col min="16134" max="16134" width="25" style="5" customWidth="1"/>
+    <col min="16135" max="16135" width="17.75" style="5" customWidth="1"/>
+    <col min="16136" max="16136" width="48.25" style="5" customWidth="1"/>
+    <col min="16137" max="16137" width="10.25" style="5" customWidth="1"/>
+    <col min="16138" max="16138" width="25.5" style="5" customWidth="1"/>
+    <col min="16139" max="16139" width="53.125" style="5" customWidth="1"/>
+    <col min="16140" max="16140" width="22.75" style="5" customWidth="1"/>
+    <col min="16141" max="16141" width="72.125" style="5" customWidth="1"/>
+    <col min="16142" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2457,34 +2437,34 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="2">
         <v>13688468803</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2499,34 +2479,34 @@
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2">
         <v>13688468803</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2541,32 +2521,32 @@
       <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2">
         <v>13688468803</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2581,32 +2561,32 @@
       <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="2">
         <v>13688468803</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2621,34 +2601,34 @@
       <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="2">
         <v>19180580229</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2663,10 +2643,10 @@
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="2">
@@ -2675,24 +2655,24 @@
       <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2707,34 +2687,34 @@
       <c r="E8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="2">
         <v>19180580229</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2749,34 +2729,34 @@
       <c r="E9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="2">
         <v>19180580229</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2791,34 +2771,34 @@
       <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="2">
         <v>19180580229</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2833,34 +2813,34 @@
       <c r="E11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="2">
         <v>19180580229</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2875,10 +2855,10 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="2">
@@ -2887,24 +2867,24 @@
       <c r="I12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2919,10 +2899,10 @@
       <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H13" s="2">
@@ -2931,24 +2911,24 @@
       <c r="I13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2963,34 +2943,34 @@
       <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2">
         <v>19180580229</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3005,34 +2985,34 @@
       <c r="E15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="2">
         <v>19180580229</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3047,32 +3027,32 @@
       <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="2">
         <v>19180580229</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15" t="s">
+      <c r="K16" s="11"/>
+      <c r="L16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3087,32 +3067,32 @@
       <c r="E17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="2">
         <v>19180580229</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="11"/>
+      <c r="L17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3127,34 +3107,34 @@
       <c r="E18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="2">
         <v>19180580229</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3169,34 +3149,34 @@
       <c r="E19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="2">
         <v>19180580229</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="O19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3211,32 +3191,32 @@
       <c r="E20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="2">
         <v>19180580229</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3251,34 +3231,34 @@
       <c r="E21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="2">
         <v>19180580229</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3293,34 +3273,34 @@
       <c r="E22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="2">
         <v>13688468803</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3335,34 +3315,34 @@
       <c r="E23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="2">
         <v>13688468803</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3377,10 +3357,10 @@
       <c r="E24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H24" s="3">
@@ -3389,24 +3369,24 @@
       <c r="I24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3421,32 +3401,32 @@
       <c r="E25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="3">
         <v>13688468803</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="19" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="20" t="s">
+      <c r="O25" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3461,34 +3441,34 @@
       <c r="E26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="3">
         <v>13688468803</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="20" t="s">
+      <c r="O26" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3503,34 +3483,34 @@
       <c r="E27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="3">
         <v>13688468803</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3545,34 +3525,34 @@
       <c r="E28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="3">
         <v>13688468803</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="21" t="s">
+      <c r="O28" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3587,34 +3567,34 @@
       <c r="E29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="3">
         <v>13688468803</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3629,1151 +3609,1151 @@
       <c r="E30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="3">
         <v>13688468803</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="O30" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A31" s="10" t="s">
+    <row r="31" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="4">
+      <c r="G31" s="8"/>
+      <c r="H31" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A32" s="10" t="s">
+    <row r="32" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="4">
+      <c r="G32" s="8"/>
+      <c r="H32" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O32" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="25" t="s">
+      <c r="P32" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A33" s="10" t="s">
+    <row r="33" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A33" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="4">
+      <c r="G33" s="8"/>
+      <c r="H33" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O33" s="24" t="s">
+      <c r="O33" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="P33" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A34" s="10" t="s">
+    <row r="34" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="4">
+      <c r="G34" s="8"/>
+      <c r="H34" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="O34" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="P34" s="25" t="s">
+      <c r="P34" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A35" s="10" t="s">
+    <row r="35" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="4">
+      <c r="G35" s="8"/>
+      <c r="H35" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="K35" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="M35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A36" s="10" t="s">
+    <row r="36" s="3" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="4">
+      <c r="G36" s="8"/>
+      <c r="H36" s="3">
         <v>13688468803</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="P36" s="25" t="s">
+      <c r="P36" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="27"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-    </row>
-    <row r="38" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="27"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
-    </row>
-    <row r="39" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="27"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
-    </row>
-    <row r="40" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A40" s="12"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="27"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
-    </row>
-    <row r="41" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="27"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="30"/>
-    </row>
-    <row r="42" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A42" s="12"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="27"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="30"/>
-    </row>
-    <row r="43" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A43" s="12"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="27"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="27"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="30"/>
-    </row>
-    <row r="45" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A45" s="12"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="27"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="30"/>
-    </row>
-    <row r="46" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="27"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="30"/>
-    </row>
-    <row r="47" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="27"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="30"/>
-    </row>
-    <row r="48" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="27"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="30"/>
-    </row>
-    <row r="49" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="27"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="30"/>
-    </row>
-    <row r="50" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="27"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="30"/>
-    </row>
-    <row r="51" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A51" s="12"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="27"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="30"/>
-    </row>
-    <row r="52" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="27"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="30"/>
-    </row>
-    <row r="53" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="27"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="30"/>
-    </row>
-    <row r="54" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="27"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="30"/>
-    </row>
-    <row r="55" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="27"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="30"/>
-    </row>
-    <row r="56" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="27"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="30"/>
-    </row>
-    <row r="57" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="27"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="30"/>
-    </row>
-    <row r="58" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="27"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="30"/>
-    </row>
-    <row r="59" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="27"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="30"/>
-    </row>
-    <row r="60" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="27"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="30"/>
-    </row>
-    <row r="61" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="27"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="30"/>
-    </row>
-    <row r="62" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="27"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="30"/>
-    </row>
-    <row r="63" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="27"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="30"/>
-    </row>
-    <row r="64" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="27"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="30"/>
-    </row>
-    <row r="65" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="27"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="30"/>
-    </row>
-    <row r="66" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="27"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="30"/>
-    </row>
-    <row r="67" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="27"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="30"/>
-    </row>
-    <row r="68" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="27"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="30"/>
-    </row>
-    <row r="69" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="27"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="30"/>
-    </row>
-    <row r="70" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A70" s="12"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="27"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="30"/>
-    </row>
-    <row r="71" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A71" s="12"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="27"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="30"/>
-    </row>
-    <row r="72" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="27"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="30"/>
-    </row>
-    <row r="73" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A73" s="12"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="27"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="30"/>
-    </row>
-    <row r="74" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="27"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="30"/>
-    </row>
-    <row r="75" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="27"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="30"/>
-    </row>
-    <row r="76" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="27"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="30"/>
-    </row>
-    <row r="77" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="27"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="30"/>
-    </row>
-    <row r="78" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="27"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="30"/>
-    </row>
-    <row r="79" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A79" s="12"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="27"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="30"/>
-    </row>
-    <row r="80" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="27"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="30"/>
-    </row>
-    <row r="81" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="27"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="30"/>
-    </row>
-    <row r="82" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="27"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="30"/>
-    </row>
-    <row r="83" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="27"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="30"/>
-    </row>
-    <row r="84" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A84" s="12"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="27"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="30"/>
-    </row>
-    <row r="85" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A85" s="12"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="27"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="30"/>
-    </row>
-    <row r="86" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A86" s="12"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="27"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="30"/>
-    </row>
-    <row r="87" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A87" s="12"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="27"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="30"/>
-    </row>
-    <row r="88" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="27"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="30"/>
-    </row>
-    <row r="89" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="27"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="30"/>
-    </row>
-    <row r="90" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A90" s="12"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="27"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="30"/>
-    </row>
-    <row r="91" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A91" s="12"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="27"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="30"/>
-    </row>
-    <row r="92" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="27"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="30"/>
-    </row>
-    <row r="93" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A93" s="12"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="27"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="30"/>
-    </row>
-    <row r="94" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A94" s="12"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="27"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="30"/>
-    </row>
-    <row r="95" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="27"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="30"/>
-    </row>
-    <row r="96" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="27"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="30"/>
-    </row>
-    <row r="97" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="27"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="30"/>
-    </row>
-    <row r="98" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="27"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="30"/>
-    </row>
-    <row r="99" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="27"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="30"/>
-    </row>
-    <row r="100" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="27"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="30"/>
-    </row>
-    <row r="101" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A101" s="12"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="27"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="30"/>
-    </row>
-    <row r="102" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A102" s="12"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="27"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="30"/>
-    </row>
-    <row r="103" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A103" s="12"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="27"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="30"/>
-    </row>
-    <row r="104" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A104" s="12"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="27"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="30"/>
-    </row>
-    <row r="105" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A105" s="12"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="27"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="30"/>
-    </row>
-    <row r="106" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A106" s="12"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="27"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="30"/>
-    </row>
-    <row r="107" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="27"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="30"/>
-    </row>
-    <row r="108" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A108" s="12"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="27"/>
-      <c r="O108" s="29"/>
-      <c r="P108" s="30"/>
-    </row>
-    <row r="109" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A109" s="12"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="27"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="30"/>
-    </row>
-    <row r="110" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A110" s="12"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="27"/>
-      <c r="O110" s="29"/>
-      <c r="P110" s="30"/>
-    </row>
-    <row r="111" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A111" s="12"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="27"/>
-      <c r="O111" s="29"/>
-      <c r="P111" s="30"/>
-    </row>
-    <row r="112" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A112" s="12"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="28"/>
-      <c r="M112" s="27"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="30"/>
-    </row>
-    <row r="113" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A113" s="12"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="28"/>
-      <c r="M113" s="27"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="30"/>
-    </row>
-    <row r="114" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A114" s="12"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="28"/>
-      <c r="M114" s="27"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="30"/>
-    </row>
-    <row r="115" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A115" s="12"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="28"/>
-      <c r="M115" s="27"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="30"/>
-    </row>
-    <row r="116" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A116" s="12"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="27"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="30"/>
-    </row>
-    <row r="117" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A117" s="12"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="27"/>
-      <c r="O117" s="29"/>
-      <c r="P117" s="30"/>
-    </row>
-    <row r="118" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A118" s="12"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="28"/>
-      <c r="M118" s="27"/>
-      <c r="O118" s="29"/>
-      <c r="P118" s="30"/>
-    </row>
-    <row r="119" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A119" s="12"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="28"/>
-      <c r="M119" s="27"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="30"/>
-    </row>
-    <row r="120" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A120" s="12"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="K120" s="27"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="27"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="30"/>
-    </row>
-    <row r="121" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A121" s="12"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="28"/>
-      <c r="M121" s="27"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="30"/>
-    </row>
-    <row r="122" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A122" s="12"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="28"/>
-      <c r="M122" s="27"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="30"/>
-    </row>
-    <row r="123" s="5" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A123" s="12"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="27"/>
-      <c r="O123" s="29"/>
-      <c r="P123" s="30"/>
+    <row r="37" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="19"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="19"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
+    </row>
+    <row r="40" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="19"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A41" s="9"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="19"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="19"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="19"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
+    </row>
+    <row r="44" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="19"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="22"/>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="19"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="22"/>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="19"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="22"/>
+    </row>
+    <row r="48" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="19"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="22"/>
+    </row>
+    <row r="49" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="19"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="22"/>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="19"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="19"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="19"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="19"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+    </row>
+    <row r="54" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="19"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="22"/>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="19"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="22"/>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A56" s="9"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="22"/>
+    </row>
+    <row r="57" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="19"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="22"/>
+    </row>
+    <row r="58" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="19"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="22"/>
+    </row>
+    <row r="59" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="19"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="22"/>
+    </row>
+    <row r="60" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="19"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="22"/>
+    </row>
+    <row r="61" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A61" s="9"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="19"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="22"/>
+    </row>
+    <row r="62" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A62" s="9"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="19"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="22"/>
+    </row>
+    <row r="63" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="19"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="22"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A64" s="9"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="19"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="19"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="22"/>
+    </row>
+    <row r="66" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="19"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="22"/>
+    </row>
+    <row r="67" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="19"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="22"/>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="19"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="22"/>
+    </row>
+    <row r="69" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="19"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="22"/>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A70" s="9"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="19"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="22"/>
+    </row>
+    <row r="71" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="19"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="22"/>
+    </row>
+    <row r="72" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="19"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A73" s="9"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="19"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A74" s="9"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="19"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="22"/>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="19"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="19"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="22"/>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="19"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="22"/>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="19"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="22"/>
+    </row>
+    <row r="79" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="19"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="19"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="19"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="22"/>
+    </row>
+    <row r="82" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="19"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="83" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="19"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="22"/>
+    </row>
+    <row r="84" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="19"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="22"/>
+    </row>
+    <row r="85" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="19"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="22"/>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="19"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="19"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="22"/>
+    </row>
+    <row r="88" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A88" s="9"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="19"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="22"/>
+    </row>
+    <row r="89" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="19"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="22"/>
+    </row>
+    <row r="90" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="19"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="22"/>
+    </row>
+    <row r="91" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="19"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row r="92" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="19"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="22"/>
+    </row>
+    <row r="93" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="19"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="22"/>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="19"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="22"/>
+    </row>
+    <row r="95" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="19"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="22"/>
+    </row>
+    <row r="96" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="19"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="22"/>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="19"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="22"/>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="19"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="22"/>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="19"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A100" s="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="19"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="19"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A102" s="9"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="19"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="19"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A104" s="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="19"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A105" s="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="19"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="22"/>
+    </row>
+    <row r="106" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A106" s="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="19"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="22"/>
+    </row>
+    <row r="107" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="19"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="22"/>
+    </row>
+    <row r="108" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A108" s="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="19"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="22"/>
+    </row>
+    <row r="109" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="19"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="22"/>
+    </row>
+    <row r="110" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="19"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="22"/>
+    </row>
+    <row r="111" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A111" s="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="19"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="22"/>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="19"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="22"/>
+    </row>
+    <row r="113" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="19"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="22"/>
+    </row>
+    <row r="114" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="19"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="22"/>
+    </row>
+    <row r="115" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="19"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="22"/>
+    </row>
+    <row r="116" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="19"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="22"/>
+    </row>
+    <row r="117" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="19"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="22"/>
+    </row>
+    <row r="118" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="19"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="22"/>
+    </row>
+    <row r="119" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A119" s="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="19"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="22"/>
+    </row>
+    <row r="120" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="19"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="22"/>
+    </row>
+    <row r="121" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="20"/>
+      <c r="M121" s="19"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="22"/>
+    </row>
+    <row r="122" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="19"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="22"/>
+    </row>
+    <row r="123" s="4" customFormat="1" ht="15.75" spans="1:16">
+      <c r="A123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="19"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
